--- a/database/industries/methanol/shefan/product/monthly.xlsx
+++ b/database/industries/methanol/shefan/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shefan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81BA262-66C8-4B9B-A36D-E79A7CA710E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBC0DE7-9AD6-461D-9B99-194FB9F77511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>هیدروژن</t>
@@ -1433,97 +1433,97 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I11" s="11">
         <v>8</v>
       </c>
       <c r="J11" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K11" s="11">
         <v>8</v>
       </c>
       <c r="L11" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N11" s="11">
         <v>7</v>
       </c>
       <c r="O11" s="11">
+        <v>6</v>
+      </c>
+      <c r="P11" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>9</v>
+      </c>
+      <c r="R11" s="11">
+        <v>10</v>
+      </c>
+      <c r="S11" s="11">
         <v>7</v>
       </c>
-      <c r="P11" s="11">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>6</v>
-      </c>
-      <c r="R11" s="11">
-        <v>9</v>
-      </c>
-      <c r="S11" s="11">
-        <v>9</v>
-      </c>
       <c r="T11" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U11" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V11" s="11">
-        <v>5</v>
+        <v>7570</v>
       </c>
       <c r="W11" s="11">
-        <v>8</v>
+        <v>7029</v>
       </c>
       <c r="X11" s="11">
-        <v>7570</v>
+        <v>7701</v>
       </c>
       <c r="Y11" s="11">
-        <v>7029</v>
+        <v>7145</v>
       </c>
       <c r="Z11" s="11">
-        <v>7701</v>
+        <v>7052</v>
       </c>
       <c r="AA11" s="11">
-        <v>7145</v>
+        <v>6706</v>
       </c>
       <c r="AB11" s="11">
-        <v>7052</v>
+        <v>4730</v>
       </c>
       <c r="AC11" s="11">
-        <v>6706</v>
+        <v>3519</v>
       </c>
       <c r="AD11" s="11">
-        <v>4730</v>
+        <v>6590</v>
       </c>
       <c r="AE11" s="11">
-        <v>3519</v>
+        <v>2192</v>
       </c>
       <c r="AF11" s="11">
-        <v>6590</v>
+        <v>5232</v>
       </c>
       <c r="AG11" s="11">
-        <v>2192</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>5232</v>
-      </c>
-      <c r="AI11" s="11">
         <v>5491</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ11" s="11" t="s">
         <v>57</v>
@@ -1592,154 +1592,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>7</v>
+      </c>
+      <c r="F12" s="13">
+        <v>8</v>
+      </c>
+      <c r="G12" s="13">
+        <v>8</v>
+      </c>
+      <c r="H12" s="13">
+        <v>9</v>
+      </c>
+      <c r="I12" s="13">
+        <v>4</v>
+      </c>
+      <c r="J12" s="13">
+        <v>6</v>
+      </c>
+      <c r="K12" s="13">
         <v>5</v>
       </c>
-      <c r="F12" s="13">
-        <v>6</v>
-      </c>
-      <c r="G12" s="13">
-        <v>7</v>
-      </c>
-      <c r="H12" s="13">
-        <v>8</v>
-      </c>
-      <c r="I12" s="13">
-        <v>8</v>
-      </c>
-      <c r="J12" s="13">
-        <v>9</v>
-      </c>
-      <c r="K12" s="13">
-        <v>4</v>
-      </c>
       <c r="L12" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M12" s="13">
         <v>5</v>
       </c>
       <c r="N12" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O12" s="13">
         <v>5</v>
       </c>
       <c r="P12" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R12" s="13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S12" s="13">
+        <v>9</v>
+      </c>
+      <c r="T12" s="13">
         <v>8</v>
       </c>
-      <c r="T12" s="13">
-        <v>9</v>
-      </c>
       <c r="U12" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V12" s="13">
-        <v>8</v>
+        <v>8590</v>
       </c>
       <c r="W12" s="13">
-        <v>8</v>
+        <v>7557</v>
       </c>
       <c r="X12" s="13">
-        <v>8590</v>
+        <v>8551</v>
       </c>
       <c r="Y12" s="13">
-        <v>7557</v>
+        <v>8769</v>
       </c>
       <c r="Z12" s="13">
-        <v>8551</v>
+        <v>8659</v>
       </c>
       <c r="AA12" s="13">
-        <v>8769</v>
+        <v>9259</v>
       </c>
       <c r="AB12" s="13">
-        <v>8659</v>
+        <v>9187</v>
       </c>
       <c r="AC12" s="13">
-        <v>9259</v>
+        <v>9394</v>
       </c>
       <c r="AD12" s="13">
-        <v>9187</v>
+        <v>9058</v>
       </c>
       <c r="AE12" s="13">
-        <v>9394</v>
+        <v>9659</v>
       </c>
       <c r="AF12" s="13">
-        <v>9058</v>
+        <v>9662</v>
       </c>
       <c r="AG12" s="13">
-        <v>9659</v>
+        <v>9440</v>
       </c>
       <c r="AH12" s="13">
-        <v>9662</v>
+        <v>9678</v>
       </c>
       <c r="AI12" s="13">
-        <v>9440</v>
+        <v>6314</v>
       </c>
       <c r="AJ12" s="13">
-        <v>9678</v>
+        <v>8038</v>
       </c>
       <c r="AK12" s="13">
-        <v>6314</v>
+        <v>8363</v>
       </c>
       <c r="AL12" s="13">
-        <v>8038</v>
+        <v>8156</v>
       </c>
       <c r="AM12" s="13">
-        <v>8363</v>
+        <v>8988</v>
       </c>
       <c r="AN12" s="13">
-        <v>8156</v>
+        <v>9257</v>
       </c>
       <c r="AO12" s="13">
-        <v>8988</v>
+        <v>9178</v>
       </c>
       <c r="AP12" s="13">
-        <v>9257</v>
+        <v>9420</v>
       </c>
       <c r="AQ12" s="13">
-        <v>9178</v>
+        <v>8814</v>
       </c>
       <c r="AR12" s="13">
-        <v>9420</v>
+        <v>9533</v>
       </c>
       <c r="AS12" s="13">
-        <v>8814</v>
+        <v>9123</v>
       </c>
       <c r="AT12" s="13">
-        <v>9533</v>
+        <v>8406</v>
       </c>
       <c r="AU12" s="13">
-        <v>9123</v>
+        <v>8039</v>
       </c>
       <c r="AV12" s="13">
-        <v>8406</v>
+        <v>2656</v>
       </c>
       <c r="AW12" s="13">
-        <v>8039</v>
+        <v>6992</v>
       </c>
       <c r="AX12" s="13">
-        <v>2656</v>
+        <v>7692</v>
       </c>
       <c r="AY12" s="13">
-        <v>6992</v>
+        <v>9280</v>
       </c>
       <c r="AZ12" s="13">
-        <v>7692</v>
+        <v>8800</v>
       </c>
       <c r="BA12" s="13">
-        <v>9280</v>
+        <v>9781</v>
       </c>
       <c r="BB12" s="13">
-        <v>8800</v>
+        <v>9870</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1751,62 +1751,62 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G13" s="11">
         <v>88</v>
       </c>
       <c r="H13" s="11">
+        <v>87</v>
+      </c>
+      <c r="I13" s="11">
+        <v>84</v>
+      </c>
+      <c r="J13" s="11">
+        <v>89</v>
+      </c>
+      <c r="K13" s="11">
+        <v>87</v>
+      </c>
+      <c r="L13" s="11">
         <v>83</v>
       </c>
-      <c r="I13" s="11">
-        <v>88</v>
-      </c>
-      <c r="J13" s="11">
-        <v>87</v>
-      </c>
-      <c r="K13" s="11">
-        <v>84</v>
-      </c>
-      <c r="L13" s="11">
-        <v>89</v>
-      </c>
       <c r="M13" s="11">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N13" s="11">
+        <v>81</v>
+      </c>
+      <c r="O13" s="11">
+        <v>68</v>
+      </c>
+      <c r="P13" s="11">
         <v>83</v>
       </c>
-      <c r="O13" s="11">
+      <c r="Q13" s="11">
+        <v>85</v>
+      </c>
+      <c r="R13" s="11">
+        <v>86</v>
+      </c>
+      <c r="S13" s="11">
         <v>80</v>
       </c>
-      <c r="P13" s="11">
-        <v>81</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>68</v>
-      </c>
-      <c r="R13" s="11">
-        <v>83</v>
-      </c>
-      <c r="S13" s="11">
-        <v>85</v>
-      </c>
       <c r="T13" s="11">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="U13" s="11">
-        <v>80</v>
-      </c>
-      <c r="V13" s="11">
-        <v>67</v>
-      </c>
-      <c r="W13" s="11">
         <v>82</v>
       </c>
+      <c r="V13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1864,41 +1864,41 @@
       <c r="AP13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR13" s="11" t="s">
-        <v>57</v>
+      <c r="AQ13" s="11">
+        <v>79793</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>83864</v>
       </c>
       <c r="AS13" s="11">
-        <v>79793</v>
+        <v>76777</v>
       </c>
       <c r="AT13" s="11">
-        <v>83864</v>
+        <v>78293</v>
       </c>
       <c r="AU13" s="11">
-        <v>76777</v>
+        <v>82482</v>
       </c>
       <c r="AV13" s="11">
-        <v>78293</v>
+        <v>80935</v>
       </c>
       <c r="AW13" s="11">
-        <v>82482</v>
+        <v>71720</v>
       </c>
       <c r="AX13" s="11">
-        <v>80935</v>
+        <v>75709</v>
       </c>
       <c r="AY13" s="11">
-        <v>71720</v>
+        <v>75763</v>
       </c>
       <c r="AZ13" s="11">
-        <v>75709</v>
+        <v>54860</v>
       </c>
       <c r="BA13" s="11">
-        <v>75763</v>
+        <v>68887</v>
       </c>
       <c r="BB13" s="11">
-        <v>54860</v>
+        <v>71764</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1910,61 +1910,61 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>8</v>
+      </c>
+      <c r="F14" s="13">
+        <v>10</v>
+      </c>
+      <c r="G14" s="13">
+        <v>12</v>
+      </c>
+      <c r="H14" s="13">
+        <v>12</v>
+      </c>
+      <c r="I14" s="13">
+        <v>5</v>
+      </c>
+      <c r="J14" s="13">
+        <v>9</v>
+      </c>
+      <c r="K14" s="13">
+        <v>8</v>
+      </c>
+      <c r="L14" s="13">
+        <v>4</v>
+      </c>
+      <c r="M14" s="13">
         <v>6</v>
       </c>
-      <c r="F14" s="13">
+      <c r="N14" s="13">
         <v>8</v>
-      </c>
-      <c r="G14" s="13">
-        <v>8</v>
-      </c>
-      <c r="H14" s="13">
-        <v>10</v>
-      </c>
-      <c r="I14" s="13">
-        <v>12</v>
-      </c>
-      <c r="J14" s="13">
-        <v>12</v>
-      </c>
-      <c r="K14" s="13">
-        <v>5</v>
-      </c>
-      <c r="L14" s="13">
-        <v>9</v>
-      </c>
-      <c r="M14" s="13">
-        <v>8</v>
-      </c>
-      <c r="N14" s="13">
-        <v>4</v>
       </c>
       <c r="O14" s="13">
         <v>6</v>
       </c>
       <c r="P14" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R14" s="13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S14" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T14" s="13">
         <v>11</v>
       </c>
       <c r="U14" s="13">
-        <v>13</v>
-      </c>
-      <c r="V14" s="13">
         <v>11</v>
       </c>
-      <c r="W14" s="13">
-        <v>11</v>
+      <c r="V14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X14" s="13" t="s">
         <v>57</v>
@@ -2023,41 +2023,41 @@
       <c r="AP14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR14" s="13" t="s">
-        <v>57</v>
+      <c r="AQ14" s="13">
+        <v>12204</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>12564</v>
       </c>
       <c r="AS14" s="13">
-        <v>12204</v>
+        <v>11631</v>
       </c>
       <c r="AT14" s="13">
-        <v>12564</v>
+        <v>11881</v>
       </c>
       <c r="AU14" s="13">
-        <v>11631</v>
+        <v>10774</v>
       </c>
       <c r="AV14" s="13">
-        <v>11881</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="13">
-        <v>10774</v>
+        <v>9401</v>
       </c>
       <c r="AX14" s="13">
-        <v>0</v>
+        <v>11009</v>
       </c>
       <c r="AY14" s="13">
-        <v>9401</v>
+        <v>13947</v>
       </c>
       <c r="AZ14" s="13">
-        <v>11009</v>
+        <v>13523</v>
       </c>
       <c r="BA14" s="13">
-        <v>13947</v>
+        <v>14198</v>
       </c>
       <c r="BB14" s="13">
-        <v>13523</v>
+        <v>11983</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2128,65 +2128,65 @@
       <c r="X15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>57</v>
+      <c r="Y15" s="11">
+        <v>6638</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>9186</v>
       </c>
       <c r="AA15" s="11">
-        <v>6638</v>
+        <v>10542</v>
       </c>
       <c r="AB15" s="11">
-        <v>9186</v>
+        <v>6633</v>
       </c>
       <c r="AC15" s="11">
-        <v>10542</v>
+        <v>6169</v>
       </c>
       <c r="AD15" s="11">
-        <v>6633</v>
+        <v>5074</v>
       </c>
       <c r="AE15" s="11">
-        <v>6169</v>
+        <v>6669</v>
       </c>
       <c r="AF15" s="11">
-        <v>5074</v>
+        <v>6761</v>
       </c>
       <c r="AG15" s="11">
-        <v>6669</v>
+        <v>5675</v>
       </c>
       <c r="AH15" s="11">
-        <v>6761</v>
+        <v>12973</v>
       </c>
       <c r="AI15" s="11">
-        <v>5675</v>
+        <v>3505</v>
       </c>
       <c r="AJ15" s="11">
-        <v>12973</v>
+        <v>6005</v>
       </c>
       <c r="AK15" s="11">
-        <v>3505</v>
+        <v>6092</v>
       </c>
       <c r="AL15" s="11">
-        <v>6005</v>
+        <v>11728</v>
       </c>
       <c r="AM15" s="11">
-        <v>6092</v>
+        <v>6371</v>
       </c>
       <c r="AN15" s="11">
-        <v>11728</v>
+        <v>7252</v>
       </c>
       <c r="AO15" s="11">
-        <v>6371</v>
+        <v>7207</v>
       </c>
       <c r="AP15" s="11">
-        <v>7252</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>7207</v>
-      </c>
-      <c r="AR15" s="11">
         <v>6506</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS15" s="11" t="s">
         <v>57</v>
@@ -2287,65 +2287,65 @@
       <c r="X16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>57</v>
+      <c r="Y16" s="13">
+        <v>10931</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>16111</v>
       </c>
       <c r="AA16" s="13">
-        <v>10931</v>
+        <v>21312</v>
       </c>
       <c r="AB16" s="13">
-        <v>16111</v>
+        <v>19485</v>
       </c>
       <c r="AC16" s="13">
-        <v>21312</v>
+        <v>16785</v>
       </c>
       <c r="AD16" s="13">
-        <v>19485</v>
+        <v>20795</v>
       </c>
       <c r="AE16" s="13">
-        <v>16785</v>
+        <v>34861</v>
       </c>
       <c r="AF16" s="13">
-        <v>20795</v>
+        <v>17511</v>
       </c>
       <c r="AG16" s="13">
-        <v>34861</v>
+        <v>27370</v>
       </c>
       <c r="AH16" s="13">
-        <v>17511</v>
+        <v>11532</v>
       </c>
       <c r="AI16" s="13">
-        <v>27370</v>
+        <v>44965</v>
       </c>
       <c r="AJ16" s="13">
-        <v>11532</v>
+        <v>20251</v>
       </c>
       <c r="AK16" s="13">
-        <v>44965</v>
+        <v>23457</v>
       </c>
       <c r="AL16" s="13">
-        <v>20251</v>
+        <v>14147</v>
       </c>
       <c r="AM16" s="13">
-        <v>23457</v>
+        <v>25698</v>
       </c>
       <c r="AN16" s="13">
-        <v>14147</v>
+        <v>17713</v>
       </c>
       <c r="AO16" s="13">
-        <v>25698</v>
+        <v>17073</v>
       </c>
       <c r="AP16" s="13">
-        <v>17713</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>17073</v>
-      </c>
-      <c r="AR16" s="13">
         <v>18028</v>
+      </c>
+      <c r="AQ16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS16" s="13" t="s">
         <v>57</v>
@@ -2446,65 +2446,65 @@
       <c r="X17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>57</v>
+      <c r="Y17" s="11">
+        <v>66455</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>60310</v>
       </c>
       <c r="AA17" s="11">
-        <v>66455</v>
+        <v>62424</v>
       </c>
       <c r="AB17" s="11">
-        <v>60310</v>
+        <v>58844</v>
       </c>
       <c r="AC17" s="11">
-        <v>62424</v>
+        <v>64256</v>
       </c>
       <c r="AD17" s="11">
-        <v>58844</v>
+        <v>58813</v>
       </c>
       <c r="AE17" s="11">
-        <v>64256</v>
+        <v>42062</v>
       </c>
       <c r="AF17" s="11">
-        <v>58813</v>
+        <v>61872</v>
       </c>
       <c r="AG17" s="11">
-        <v>42062</v>
+        <v>45416</v>
       </c>
       <c r="AH17" s="11">
-        <v>61872</v>
+        <v>38497</v>
       </c>
       <c r="AI17" s="11">
-        <v>45416</v>
+        <v>37751</v>
       </c>
       <c r="AJ17" s="11">
-        <v>38497</v>
+        <v>65527</v>
       </c>
       <c r="AK17" s="11">
-        <v>37751</v>
+        <v>58200</v>
       </c>
       <c r="AL17" s="11">
-        <v>65527</v>
+        <v>68051</v>
       </c>
       <c r="AM17" s="11">
-        <v>58200</v>
+        <v>54147</v>
       </c>
       <c r="AN17" s="11">
-        <v>68051</v>
+        <v>60735</v>
       </c>
       <c r="AO17" s="11">
-        <v>54147</v>
+        <v>61740</v>
       </c>
       <c r="AP17" s="11">
-        <v>60735</v>
-      </c>
-      <c r="AQ17" s="11">
-        <v>61740</v>
-      </c>
-      <c r="AR17" s="11">
         <v>61853</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS17" s="11" t="s">
         <v>57</v>
@@ -2605,65 +2605,65 @@
       <c r="X18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>57</v>
+      <c r="Y18" s="13">
+        <v>5754</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>2635</v>
       </c>
       <c r="AA18" s="13">
-        <v>5754</v>
+        <v>3459</v>
       </c>
       <c r="AB18" s="13">
-        <v>2635</v>
+        <v>6943</v>
       </c>
       <c r="AC18" s="13">
-        <v>3459</v>
+        <v>7323</v>
       </c>
       <c r="AD18" s="13">
-        <v>6943</v>
+        <v>2842</v>
       </c>
       <c r="AE18" s="13">
-        <v>7323</v>
+        <v>6769</v>
       </c>
       <c r="AF18" s="13">
-        <v>2842</v>
+        <v>6879</v>
       </c>
       <c r="AG18" s="13">
-        <v>6769</v>
+        <v>7498</v>
       </c>
       <c r="AH18" s="13">
-        <v>6879</v>
+        <v>1116</v>
       </c>
       <c r="AI18" s="13">
-        <v>7498</v>
+        <v>5790</v>
       </c>
       <c r="AJ18" s="13">
-        <v>1116</v>
+        <v>5768</v>
       </c>
       <c r="AK18" s="13">
-        <v>5790</v>
+        <v>5230</v>
       </c>
       <c r="AL18" s="13">
-        <v>5768</v>
+        <v>344</v>
       </c>
       <c r="AM18" s="13">
-        <v>5230</v>
+        <v>6796</v>
       </c>
       <c r="AN18" s="13">
-        <v>344</v>
+        <v>5767</v>
       </c>
       <c r="AO18" s="13">
-        <v>6796</v>
+        <v>6426</v>
       </c>
       <c r="AP18" s="13">
-        <v>5767</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>6426</v>
-      </c>
-      <c r="AR18" s="13">
         <v>3386</v>
+      </c>
+      <c r="AQ18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS18" s="13" t="s">
         <v>57</v>
@@ -2791,68 +2791,68 @@
       <c r="AG19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI19" s="11" t="s">
-        <v>57</v>
+      <c r="AH19" s="11">
+        <v>3267</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>5331</v>
       </c>
       <c r="AJ19" s="11">
-        <v>3267</v>
+        <v>5166</v>
       </c>
       <c r="AK19" s="11">
-        <v>5331</v>
+        <v>2853</v>
       </c>
       <c r="AL19" s="11">
-        <v>5166</v>
+        <v>5236</v>
       </c>
       <c r="AM19" s="11">
-        <v>2853</v>
+        <v>3199</v>
       </c>
       <c r="AN19" s="11">
-        <v>5236</v>
+        <v>2414</v>
       </c>
       <c r="AO19" s="11">
-        <v>3199</v>
+        <v>97</v>
       </c>
       <c r="AP19" s="11">
-        <v>2414</v>
+        <v>2249</v>
       </c>
       <c r="AQ19" s="11">
-        <v>97</v>
+        <v>1802</v>
       </c>
       <c r="AR19" s="11">
-        <v>2249</v>
+        <v>4211</v>
       </c>
       <c r="AS19" s="11">
-        <v>1802</v>
+        <v>2696</v>
       </c>
       <c r="AT19" s="11">
-        <v>4211</v>
+        <v>2863</v>
       </c>
       <c r="AU19" s="11">
-        <v>2696</v>
+        <v>5403</v>
       </c>
       <c r="AV19" s="11">
-        <v>2863</v>
+        <v>4071</v>
       </c>
       <c r="AW19" s="11">
-        <v>5403</v>
+        <v>1363</v>
       </c>
       <c r="AX19" s="11">
-        <v>4071</v>
+        <v>4248</v>
       </c>
       <c r="AY19" s="11">
-        <v>1363</v>
+        <v>4159</v>
       </c>
       <c r="AZ19" s="11">
-        <v>4447</v>
+        <v>1681</v>
       </c>
       <c r="BA19" s="11">
-        <v>4159</v>
+        <v>4564</v>
       </c>
       <c r="BB19" s="11">
-        <v>1681</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2914,20 +2914,20 @@
       <c r="U20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W20" s="13" t="s">
-        <v>57</v>
+      <c r="V20" s="13">
+        <v>87380</v>
+      </c>
+      <c r="W20" s="13">
+        <v>84994</v>
       </c>
       <c r="X20" s="13">
-        <v>87380</v>
-      </c>
-      <c r="Y20" s="13">
-        <v>84994</v>
-      </c>
-      <c r="Z20" s="13">
         <v>85081</v>
+      </c>
+      <c r="Y20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA20" s="13" t="s">
         <v>57</v>
@@ -3073,20 +3073,20 @@
       <c r="U21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W21" s="11" t="s">
-        <v>57</v>
+      <c r="V21" s="11">
+        <v>11850</v>
+      </c>
+      <c r="W21" s="11">
+        <v>10569</v>
       </c>
       <c r="X21" s="11">
-        <v>11850</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>10569</v>
-      </c>
-      <c r="Z21" s="11">
         <v>12262</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA21" s="11" t="s">
         <v>57</v>
@@ -3296,11 +3296,11 @@
       <c r="X23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z23" s="17" t="s">
-        <v>57</v>
+      <c r="Y23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="17">
+        <v>0</v>
       </c>
       <c r="AA23" s="17">
         <v>0</v>
@@ -3394,154 +3394,154 @@
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F24" s="19">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G24" s="19">
+        <v>116</v>
+      </c>
+      <c r="H24" s="19">
+        <v>116</v>
+      </c>
+      <c r="I24" s="19">
+        <v>101</v>
+      </c>
+      <c r="J24" s="19">
         <v>110</v>
       </c>
-      <c r="H24" s="19">
+      <c r="K24" s="19">
         <v>108</v>
       </c>
-      <c r="I24" s="19">
+      <c r="L24" s="19">
+        <v>97</v>
+      </c>
+      <c r="M24" s="19">
+        <v>98</v>
+      </c>
+      <c r="N24" s="19">
+        <v>102</v>
+      </c>
+      <c r="O24" s="19">
+        <v>85</v>
+      </c>
+      <c r="P24" s="19">
+        <v>101</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>113</v>
+      </c>
+      <c r="R24" s="19">
         <v>116</v>
       </c>
-      <c r="J24" s="19">
-        <v>116</v>
-      </c>
-      <c r="K24" s="19">
-        <v>101</v>
-      </c>
-      <c r="L24" s="19">
-        <v>110</v>
-      </c>
-      <c r="M24" s="19">
-        <v>108</v>
-      </c>
-      <c r="N24" s="19">
-        <v>97</v>
-      </c>
-      <c r="O24" s="19">
-        <v>98</v>
-      </c>
-      <c r="P24" s="19">
-        <v>102</v>
-      </c>
-      <c r="Q24" s="19">
-        <v>85</v>
-      </c>
-      <c r="R24" s="19">
-        <v>101</v>
-      </c>
       <c r="S24" s="19">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="T24" s="19">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="U24" s="19">
         <v>109</v>
       </c>
       <c r="V24" s="19">
-        <v>91</v>
+        <v>115390</v>
       </c>
       <c r="W24" s="19">
-        <v>109</v>
+        <v>110149</v>
       </c>
       <c r="X24" s="19">
-        <v>115390</v>
+        <v>113595</v>
       </c>
       <c r="Y24" s="19">
-        <v>110149</v>
+        <v>105692</v>
       </c>
       <c r="Z24" s="19">
-        <v>113595</v>
+        <v>103953</v>
       </c>
       <c r="AA24" s="19">
-        <v>105692</v>
+        <v>113702</v>
       </c>
       <c r="AB24" s="19">
-        <v>103953</v>
+        <v>105822</v>
       </c>
       <c r="AC24" s="19">
-        <v>113702</v>
+        <v>107446</v>
       </c>
       <c r="AD24" s="19">
-        <v>105822</v>
+        <v>103172</v>
       </c>
       <c r="AE24" s="19">
-        <v>107446</v>
+        <v>102212</v>
       </c>
       <c r="AF24" s="19">
-        <v>103172</v>
+        <v>107917</v>
       </c>
       <c r="AG24" s="19">
-        <v>102212</v>
+        <v>100890</v>
       </c>
       <c r="AH24" s="19">
-        <v>107917</v>
+        <v>77063</v>
       </c>
       <c r="AI24" s="19">
-        <v>100890</v>
+        <v>103656</v>
       </c>
       <c r="AJ24" s="19">
-        <v>77063</v>
+        <v>110755</v>
       </c>
       <c r="AK24" s="19">
-        <v>103656</v>
+        <v>104195</v>
       </c>
       <c r="AL24" s="19">
-        <v>110755</v>
+        <v>107662</v>
       </c>
       <c r="AM24" s="19">
-        <v>104195</v>
+        <v>105199</v>
       </c>
       <c r="AN24" s="19">
-        <v>107662</v>
+        <v>103138</v>
       </c>
       <c r="AO24" s="19">
-        <v>105199</v>
+        <v>101721</v>
       </c>
       <c r="AP24" s="19">
-        <v>103138</v>
+        <v>101442</v>
       </c>
       <c r="AQ24" s="19">
-        <v>101721</v>
+        <v>102613</v>
       </c>
       <c r="AR24" s="19">
-        <v>101442</v>
+        <v>110172</v>
       </c>
       <c r="AS24" s="19">
-        <v>102613</v>
+        <v>100227</v>
       </c>
       <c r="AT24" s="19">
-        <v>110172</v>
+        <v>101443</v>
       </c>
       <c r="AU24" s="19">
-        <v>100227</v>
+        <v>106698</v>
       </c>
       <c r="AV24" s="19">
-        <v>101443</v>
+        <v>87662</v>
       </c>
       <c r="AW24" s="19">
-        <v>106698</v>
+        <v>89476</v>
       </c>
       <c r="AX24" s="19">
-        <v>87662</v>
+        <v>98658</v>
       </c>
       <c r="AY24" s="19">
-        <v>89476</v>
+        <v>103149</v>
       </c>
       <c r="AZ24" s="19">
-        <v>98857</v>
+        <v>78864</v>
       </c>
       <c r="BA24" s="19">
-        <v>103149</v>
+        <v>97430</v>
       </c>
       <c r="BB24" s="19">
-        <v>78864</v>
+        <v>96877</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3987,97 +3987,97 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F31" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H31" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I31" s="11">
         <v>8</v>
       </c>
       <c r="J31" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K31" s="11">
         <v>8</v>
       </c>
       <c r="L31" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M31" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N31" s="11">
         <v>7</v>
       </c>
       <c r="O31" s="11">
+        <v>6</v>
+      </c>
+      <c r="P31" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>9</v>
+      </c>
+      <c r="R31" s="11">
+        <v>10</v>
+      </c>
+      <c r="S31" s="11">
         <v>7</v>
       </c>
-      <c r="P31" s="11">
-        <v>7</v>
-      </c>
-      <c r="Q31" s="11">
-        <v>6</v>
-      </c>
-      <c r="R31" s="11">
-        <v>9</v>
-      </c>
-      <c r="S31" s="11">
-        <v>9</v>
-      </c>
       <c r="T31" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U31" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V31" s="11">
-        <v>5</v>
+        <v>7570</v>
       </c>
       <c r="W31" s="11">
-        <v>8</v>
+        <v>7029</v>
       </c>
       <c r="X31" s="11">
-        <v>7570</v>
+        <v>7702</v>
       </c>
       <c r="Y31" s="11">
-        <v>7029</v>
+        <v>7144</v>
       </c>
       <c r="Z31" s="11">
-        <v>7702</v>
+        <v>7012</v>
       </c>
       <c r="AA31" s="11">
-        <v>7144</v>
+        <v>6655</v>
       </c>
       <c r="AB31" s="11">
-        <v>7012</v>
+        <v>4729</v>
       </c>
       <c r="AC31" s="11">
-        <v>6655</v>
+        <v>3519</v>
       </c>
       <c r="AD31" s="11">
-        <v>4729</v>
+        <v>6590</v>
       </c>
       <c r="AE31" s="11">
-        <v>3519</v>
+        <v>2193</v>
       </c>
       <c r="AF31" s="11">
-        <v>6590</v>
+        <v>5233</v>
       </c>
       <c r="AG31" s="11">
-        <v>2193</v>
-      </c>
-      <c r="AH31" s="11">
-        <v>5233</v>
-      </c>
-      <c r="AI31" s="11">
         <v>5491</v>
+      </c>
+      <c r="AH31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI31" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ31" s="11" t="s">
         <v>57</v>
@@ -4152,10 +4152,10 @@
         <v>2</v>
       </c>
       <c r="G32" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="13">
         <v>1</v>
@@ -4170,22 +4170,22 @@
         <v>1</v>
       </c>
       <c r="M32" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" s="13">
         <v>2</v>
       </c>
       <c r="P32" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="13">
         <v>2</v>
       </c>
       <c r="R32" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S32" s="13">
         <v>2</v>
@@ -4197,103 +4197,103 @@
         <v>2</v>
       </c>
       <c r="V32" s="13">
-        <v>2</v>
+        <v>1690</v>
       </c>
       <c r="W32" s="13">
-        <v>2</v>
+        <v>1571</v>
       </c>
       <c r="X32" s="13">
-        <v>1690</v>
+        <v>1645</v>
       </c>
       <c r="Y32" s="13">
-        <v>1571</v>
+        <v>1397</v>
       </c>
       <c r="Z32" s="13">
-        <v>1645</v>
+        <v>1426</v>
       </c>
       <c r="AA32" s="13">
-        <v>1397</v>
+        <v>1481</v>
       </c>
       <c r="AB32" s="13">
-        <v>1426</v>
+        <v>1467</v>
       </c>
       <c r="AC32" s="13">
+        <v>1577</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>1446</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>1786</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>1764</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>1517</v>
+      </c>
+      <c r="AH32" s="13">
+        <v>1680</v>
+      </c>
+      <c r="AI32" s="13">
+        <v>858</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>1371</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>1424</v>
+      </c>
+      <c r="AL32" s="13">
+        <v>1266</v>
+      </c>
+      <c r="AM32" s="13">
+        <v>1605</v>
+      </c>
+      <c r="AN32" s="13">
         <v>1481</v>
       </c>
-      <c r="AD32" s="13">
-        <v>1467</v>
-      </c>
-      <c r="AE32" s="13">
-        <v>1577</v>
-      </c>
-      <c r="AF32" s="13">
-        <v>1446</v>
-      </c>
-      <c r="AG32" s="13">
-        <v>1786</v>
-      </c>
-      <c r="AH32" s="13">
-        <v>1764</v>
-      </c>
-      <c r="AI32" s="13">
-        <v>1517</v>
-      </c>
-      <c r="AJ32" s="13">
-        <v>1680</v>
-      </c>
-      <c r="AK32" s="13">
-        <v>858</v>
-      </c>
-      <c r="AL32" s="13">
-        <v>1371</v>
-      </c>
-      <c r="AM32" s="13">
-        <v>1424</v>
-      </c>
-      <c r="AN32" s="13">
-        <v>1266</v>
-      </c>
       <c r="AO32" s="13">
-        <v>1605</v>
+        <v>1076</v>
       </c>
       <c r="AP32" s="13">
-        <v>1481</v>
+        <v>1204</v>
       </c>
       <c r="AQ32" s="13">
-        <v>1076</v>
+        <v>579</v>
       </c>
       <c r="AR32" s="13">
-        <v>1204</v>
+        <v>1014</v>
       </c>
       <c r="AS32" s="13">
-        <v>579</v>
+        <v>929</v>
       </c>
       <c r="AT32" s="13">
-        <v>1014</v>
+        <v>883</v>
       </c>
       <c r="AU32" s="13">
-        <v>929</v>
+        <v>1243</v>
       </c>
       <c r="AV32" s="13">
-        <v>883</v>
+        <v>78</v>
       </c>
       <c r="AW32" s="13">
-        <v>1243</v>
+        <v>757</v>
       </c>
       <c r="AX32" s="13">
-        <v>78</v>
+        <v>1172</v>
       </c>
       <c r="AY32" s="13">
-        <v>757</v>
+        <v>1142</v>
       </c>
       <c r="AZ32" s="13">
-        <v>1172</v>
+        <v>1339</v>
       </c>
       <c r="BA32" s="13">
-        <v>1142</v>
+        <v>1587</v>
       </c>
       <c r="BB32" s="13">
-        <v>1339</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4305,62 +4305,62 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
+        <v>70</v>
+      </c>
+      <c r="F33" s="11">
+        <v>86</v>
+      </c>
+      <c r="G33" s="11">
+        <v>106</v>
+      </c>
+      <c r="H33" s="11">
+        <v>70</v>
+      </c>
+      <c r="I33" s="11">
         <v>65</v>
       </c>
-      <c r="F33" s="11">
-        <v>107</v>
-      </c>
-      <c r="G33" s="11">
-        <v>70</v>
-      </c>
-      <c r="H33" s="11">
-        <v>86</v>
-      </c>
-      <c r="I33" s="11">
-        <v>106</v>
-      </c>
       <c r="J33" s="11">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="K33" s="11">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="L33" s="11">
+        <v>85</v>
+      </c>
+      <c r="M33" s="11">
+        <v>73</v>
+      </c>
+      <c r="N33" s="11">
+        <v>71</v>
+      </c>
+      <c r="O33" s="11">
+        <v>49</v>
+      </c>
+      <c r="P33" s="11">
         <v>94</v>
       </c>
-      <c r="M33" s="11">
-        <v>79</v>
-      </c>
-      <c r="N33" s="11">
+      <c r="Q33" s="11">
+        <v>59</v>
+      </c>
+      <c r="R33" s="11">
+        <v>92</v>
+      </c>
+      <c r="S33" s="11">
         <v>85</v>
       </c>
-      <c r="O33" s="11">
-        <v>73</v>
-      </c>
-      <c r="P33" s="11">
-        <v>71</v>
-      </c>
-      <c r="Q33" s="11">
-        <v>49</v>
-      </c>
-      <c r="R33" s="11">
-        <v>94</v>
-      </c>
-      <c r="S33" s="11">
-        <v>59</v>
-      </c>
       <c r="T33" s="11">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="U33" s="11">
-        <v>85</v>
-      </c>
-      <c r="V33" s="11">
-        <v>58</v>
-      </c>
-      <c r="W33" s="11">
         <v>78</v>
       </c>
+      <c r="V33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X33" s="11" t="s">
         <v>57</v>
       </c>
@@ -4418,41 +4418,41 @@
       <c r="AP33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR33" s="11" t="s">
-        <v>57</v>
+      <c r="AQ33" s="11">
+        <v>75360</v>
+      </c>
+      <c r="AR33" s="11">
+        <v>96913</v>
       </c>
       <c r="AS33" s="11">
-        <v>75360</v>
+        <v>36640</v>
       </c>
       <c r="AT33" s="11">
-        <v>96913</v>
+        <v>77674</v>
       </c>
       <c r="AU33" s="11">
-        <v>36640</v>
+        <v>37281</v>
       </c>
       <c r="AV33" s="11">
-        <v>77674</v>
+        <v>80911</v>
       </c>
       <c r="AW33" s="11">
-        <v>37281</v>
+        <v>62368</v>
       </c>
       <c r="AX33" s="11">
-        <v>80911</v>
+        <v>151603</v>
       </c>
       <c r="AY33" s="11">
-        <v>62368</v>
+        <v>74294</v>
       </c>
       <c r="AZ33" s="11">
-        <v>151603</v>
+        <v>32429</v>
       </c>
       <c r="BA33" s="11">
-        <v>74294</v>
+        <v>53988</v>
       </c>
       <c r="BB33" s="11">
-        <v>32429</v>
+        <v>46913</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4464,61 +4464,61 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F34" s="13">
+        <v>8</v>
+      </c>
+      <c r="G34" s="13">
         <v>7</v>
       </c>
-      <c r="G34" s="13">
-        <v>9</v>
-      </c>
       <c r="H34" s="13">
+        <v>14</v>
+      </c>
+      <c r="I34" s="13">
+        <v>11</v>
+      </c>
+      <c r="J34" s="13">
         <v>8</v>
       </c>
-      <c r="I34" s="13">
+      <c r="K34" s="13">
         <v>7</v>
       </c>
-      <c r="J34" s="13">
-        <v>14</v>
-      </c>
-      <c r="K34" s="13">
-        <v>11</v>
-      </c>
       <c r="L34" s="13">
+        <v>6</v>
+      </c>
+      <c r="M34" s="13">
+        <v>6</v>
+      </c>
+      <c r="N34" s="13">
         <v>8</v>
-      </c>
-      <c r="M34" s="13">
-        <v>7</v>
-      </c>
-      <c r="N34" s="13">
-        <v>6</v>
       </c>
       <c r="O34" s="13">
         <v>6</v>
       </c>
       <c r="P34" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q34" s="13">
         <v>8</v>
       </c>
-      <c r="Q34" s="13">
-        <v>6</v>
-      </c>
       <c r="R34" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S34" s="13">
+        <v>17</v>
+      </c>
+      <c r="T34" s="13">
+        <v>9</v>
+      </c>
+      <c r="U34" s="13">
         <v>8</v>
       </c>
-      <c r="T34" s="13">
-        <v>8</v>
-      </c>
-      <c r="U34" s="13">
-        <v>17</v>
-      </c>
-      <c r="V34" s="13">
-        <v>9</v>
-      </c>
-      <c r="W34" s="13">
-        <v>8</v>
+      <c r="V34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X34" s="13" t="s">
         <v>57</v>
@@ -4577,41 +4577,41 @@
       <c r="AP34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR34" s="13" t="s">
-        <v>57</v>
+      <c r="AQ34" s="13">
+        <v>9182</v>
+      </c>
+      <c r="AR34" s="13">
+        <v>19243</v>
       </c>
       <c r="AS34" s="13">
-        <v>9182</v>
+        <v>5867</v>
       </c>
       <c r="AT34" s="13">
-        <v>19243</v>
+        <v>13994</v>
       </c>
       <c r="AU34" s="13">
-        <v>5867</v>
+        <v>8467</v>
       </c>
       <c r="AV34" s="13">
-        <v>13994</v>
+        <v>7309</v>
       </c>
       <c r="AW34" s="13">
-        <v>8467</v>
+        <v>6657</v>
       </c>
       <c r="AX34" s="13">
-        <v>7309</v>
+        <v>10202</v>
       </c>
       <c r="AY34" s="13">
-        <v>6658</v>
+        <v>9960</v>
       </c>
       <c r="AZ34" s="13">
-        <v>10202</v>
+        <v>9034</v>
       </c>
       <c r="BA34" s="13">
-        <v>9960</v>
+        <v>10954</v>
       </c>
       <c r="BB34" s="13">
-        <v>9034</v>
+        <v>9766</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4682,65 +4682,65 @@
       <c r="X35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z35" s="11" t="s">
-        <v>57</v>
+      <c r="Y35" s="11">
+        <v>7885</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>8712</v>
       </c>
       <c r="AA35" s="11">
-        <v>7885</v>
+        <v>9172</v>
       </c>
       <c r="AB35" s="11">
-        <v>8712</v>
+        <v>7665</v>
       </c>
       <c r="AC35" s="11">
-        <v>9172</v>
+        <v>6756</v>
       </c>
       <c r="AD35" s="11">
-        <v>7665</v>
+        <v>5791</v>
       </c>
       <c r="AE35" s="11">
-        <v>6756</v>
+        <v>6061</v>
       </c>
       <c r="AF35" s="11">
-        <v>5791</v>
+        <v>6108</v>
       </c>
       <c r="AG35" s="11">
-        <v>6061</v>
+        <v>7300</v>
       </c>
       <c r="AH35" s="11">
-        <v>6108</v>
+        <v>5361</v>
       </c>
       <c r="AI35" s="11">
-        <v>7300</v>
+        <v>6135</v>
       </c>
       <c r="AJ35" s="11">
-        <v>5361</v>
+        <v>6838</v>
       </c>
       <c r="AK35" s="11">
-        <v>6135</v>
+        <v>6276</v>
       </c>
       <c r="AL35" s="11">
-        <v>6838</v>
+        <v>7093</v>
       </c>
       <c r="AM35" s="11">
-        <v>6276</v>
+        <v>7612</v>
       </c>
       <c r="AN35" s="11">
-        <v>7093</v>
+        <v>7140</v>
       </c>
       <c r="AO35" s="11">
-        <v>7612</v>
+        <v>6167</v>
       </c>
       <c r="AP35" s="11">
-        <v>7140</v>
-      </c>
-      <c r="AQ35" s="11">
-        <v>6167</v>
-      </c>
-      <c r="AR35" s="11">
         <v>6851</v>
+      </c>
+      <c r="AQ35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS35" s="11" t="s">
         <v>57</v>
@@ -4841,65 +4841,65 @@
       <c r="X36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z36" s="13" t="s">
-        <v>57</v>
+      <c r="Y36" s="13">
+        <v>13617</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>16798</v>
       </c>
       <c r="AA36" s="13">
-        <v>13617</v>
+        <v>18409</v>
       </c>
       <c r="AB36" s="13">
-        <v>16798</v>
+        <v>19437</v>
       </c>
       <c r="AC36" s="13">
-        <v>18409</v>
+        <v>16405</v>
       </c>
       <c r="AD36" s="13">
-        <v>19437</v>
+        <v>18030</v>
       </c>
       <c r="AE36" s="13">
-        <v>16405</v>
+        <v>23442</v>
       </c>
       <c r="AF36" s="13">
-        <v>18030</v>
+        <v>19989</v>
       </c>
       <c r="AG36" s="13">
-        <v>23442</v>
+        <v>26480</v>
       </c>
       <c r="AH36" s="13">
-        <v>19989</v>
+        <v>11565</v>
       </c>
       <c r="AI36" s="13">
-        <v>26480</v>
+        <v>21495</v>
       </c>
       <c r="AJ36" s="13">
-        <v>11565</v>
+        <v>17629</v>
       </c>
       <c r="AK36" s="13">
-        <v>21495</v>
+        <v>18553</v>
       </c>
       <c r="AL36" s="13">
-        <v>17629</v>
+        <v>19804</v>
       </c>
       <c r="AM36" s="13">
-        <v>18553</v>
+        <v>20352</v>
       </c>
       <c r="AN36" s="13">
-        <v>19804</v>
+        <v>16571</v>
       </c>
       <c r="AO36" s="13">
-        <v>20352</v>
+        <v>19913</v>
       </c>
       <c r="AP36" s="13">
-        <v>16571</v>
-      </c>
-      <c r="AQ36" s="13">
-        <v>19913</v>
-      </c>
-      <c r="AR36" s="13">
         <v>20351</v>
+      </c>
+      <c r="AQ36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS36" s="13" t="s">
         <v>57</v>
@@ -5000,65 +5000,65 @@
       <c r="X37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z37" s="11" t="s">
-        <v>57</v>
+      <c r="Y37" s="11">
+        <v>82786</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>62879</v>
       </c>
       <c r="AA37" s="11">
-        <v>82786</v>
+        <v>53921</v>
       </c>
       <c r="AB37" s="11">
-        <v>62879</v>
+        <v>58700</v>
       </c>
       <c r="AC37" s="11">
-        <v>53921</v>
+        <v>62799</v>
       </c>
       <c r="AD37" s="11">
-        <v>58700</v>
+        <v>50992</v>
       </c>
       <c r="AE37" s="11">
-        <v>62799</v>
+        <v>28284</v>
       </c>
       <c r="AF37" s="11">
-        <v>50992</v>
+        <v>70625</v>
       </c>
       <c r="AG37" s="11">
-        <v>28284</v>
+        <v>43939</v>
       </c>
       <c r="AH37" s="11">
-        <v>70625</v>
+        <v>38605</v>
       </c>
       <c r="AI37" s="11">
-        <v>43939</v>
+        <v>18047</v>
       </c>
       <c r="AJ37" s="11">
-        <v>38605</v>
+        <v>57043</v>
       </c>
       <c r="AK37" s="11">
-        <v>18047</v>
+        <v>46033</v>
       </c>
       <c r="AL37" s="11">
-        <v>57043</v>
+        <v>75127</v>
       </c>
       <c r="AM37" s="11">
-        <v>46033</v>
+        <v>42883</v>
       </c>
       <c r="AN37" s="11">
-        <v>75127</v>
+        <v>30033</v>
       </c>
       <c r="AO37" s="11">
-        <v>42883</v>
+        <v>72010</v>
       </c>
       <c r="AP37" s="11">
-        <v>30033</v>
-      </c>
-      <c r="AQ37" s="11">
-        <v>72010</v>
-      </c>
-      <c r="AR37" s="11">
         <v>69825</v>
+      </c>
+      <c r="AQ37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS37" s="11" t="s">
         <v>57</v>
@@ -5159,65 +5159,65 @@
       <c r="X38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z38" s="13" t="s">
-        <v>57</v>
+      <c r="Y38" s="13">
+        <v>6835</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>2499</v>
       </c>
       <c r="AA38" s="13">
-        <v>6835</v>
+        <v>3009</v>
       </c>
       <c r="AB38" s="13">
-        <v>2499</v>
+        <v>8023</v>
       </c>
       <c r="AC38" s="13">
-        <v>3009</v>
+        <v>8019</v>
       </c>
       <c r="AD38" s="13">
-        <v>8023</v>
+        <v>3344</v>
       </c>
       <c r="AE38" s="13">
-        <v>8019</v>
+        <v>6152</v>
       </c>
       <c r="AF38" s="13">
-        <v>3344</v>
+        <v>6212</v>
       </c>
       <c r="AG38" s="13">
-        <v>6152</v>
+        <v>9646</v>
       </c>
       <c r="AH38" s="13">
-        <v>6212</v>
+        <v>461</v>
       </c>
       <c r="AI38" s="13">
-        <v>9646</v>
+        <v>10133</v>
       </c>
       <c r="AJ38" s="13">
-        <v>461</v>
+        <v>6570</v>
       </c>
       <c r="AK38" s="13">
-        <v>10133</v>
+        <v>5388</v>
       </c>
       <c r="AL38" s="13">
-        <v>6570</v>
+        <v>208</v>
       </c>
       <c r="AM38" s="13">
-        <v>5388</v>
+        <v>8119</v>
       </c>
       <c r="AN38" s="13">
-        <v>208</v>
+        <v>5677</v>
       </c>
       <c r="AO38" s="13">
-        <v>8119</v>
+        <v>5499</v>
       </c>
       <c r="AP38" s="13">
-        <v>5677</v>
-      </c>
-      <c r="AQ38" s="13">
-        <v>5499</v>
-      </c>
-      <c r="AR38" s="13">
         <v>3565</v>
+      </c>
+      <c r="AQ38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS38" s="13" t="s">
         <v>57</v>
@@ -5345,68 +5345,68 @@
       <c r="AG39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI39" s="11" t="s">
-        <v>57</v>
+      <c r="AH39" s="11">
+        <v>3267</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>5331</v>
       </c>
       <c r="AJ39" s="11">
-        <v>3267</v>
+        <v>5166</v>
       </c>
       <c r="AK39" s="11">
-        <v>5331</v>
+        <v>2853</v>
       </c>
       <c r="AL39" s="11">
-        <v>5166</v>
+        <v>5236</v>
       </c>
       <c r="AM39" s="11">
-        <v>2853</v>
+        <v>3199</v>
       </c>
       <c r="AN39" s="11">
-        <v>5236</v>
+        <v>2414</v>
       </c>
       <c r="AO39" s="11">
-        <v>3199</v>
+        <v>97</v>
       </c>
       <c r="AP39" s="11">
-        <v>2414</v>
+        <v>2249</v>
       </c>
       <c r="AQ39" s="11">
-        <v>97</v>
+        <v>1802</v>
       </c>
       <c r="AR39" s="11">
-        <v>2249</v>
+        <v>4576</v>
       </c>
       <c r="AS39" s="11">
-        <v>1802</v>
+        <v>2696</v>
       </c>
       <c r="AT39" s="11">
-        <v>4211</v>
+        <v>2863</v>
       </c>
       <c r="AU39" s="11">
-        <v>2696</v>
+        <v>5403</v>
       </c>
       <c r="AV39" s="11">
-        <v>2863</v>
+        <v>4071</v>
       </c>
       <c r="AW39" s="11">
-        <v>5403</v>
+        <v>1363</v>
       </c>
       <c r="AX39" s="11">
-        <v>4071</v>
+        <v>4248</v>
       </c>
       <c r="AY39" s="11">
-        <v>1363</v>
+        <v>4159</v>
       </c>
       <c r="AZ39" s="11">
-        <v>4248</v>
+        <v>1681</v>
       </c>
       <c r="BA39" s="11">
-        <v>4159</v>
+        <v>4564</v>
       </c>
       <c r="BB39" s="11">
-        <v>1681</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5468,20 +5468,20 @@
       <c r="U40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W40" s="13" t="s">
-        <v>57</v>
+      <c r="V40" s="13">
+        <v>69000</v>
+      </c>
+      <c r="W40" s="13">
+        <v>93725</v>
       </c>
       <c r="X40" s="13">
-        <v>69000</v>
-      </c>
-      <c r="Y40" s="13">
-        <v>93725</v>
-      </c>
-      <c r="Z40" s="13">
         <v>60437</v>
+      </c>
+      <c r="Y40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z40" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA40" s="13" t="s">
         <v>57</v>
@@ -5627,20 +5627,20 @@
       <c r="U41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W41" s="11" t="s">
-        <v>57</v>
+      <c r="V41" s="11">
+        <v>5030</v>
+      </c>
+      <c r="W41" s="11">
+        <v>14671</v>
       </c>
       <c r="X41" s="11">
-        <v>5030</v>
-      </c>
-      <c r="Y41" s="11">
-        <v>14671</v>
-      </c>
-      <c r="Z41" s="11">
         <v>16057</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA41" s="11" t="s">
         <v>57</v>
@@ -5850,11 +5850,11 @@
       <c r="X43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y43" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z43" s="17" t="s">
-        <v>57</v>
+      <c r="Y43" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="17">
+        <v>0</v>
       </c>
       <c r="AA43" s="17">
         <v>0</v>
@@ -6064,11 +6064,11 @@
       <c r="X45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y45" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z45" s="17" t="s">
-        <v>57</v>
+      <c r="Y45" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="17">
+        <v>0</v>
       </c>
       <c r="AA45" s="17">
         <v>0</v>
@@ -6162,154 +6162,154 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19">
+        <v>88</v>
+      </c>
+      <c r="F46" s="19">
+        <v>103</v>
+      </c>
+      <c r="G46" s="19">
+        <v>122</v>
+      </c>
+      <c r="H46" s="19">
+        <v>93</v>
+      </c>
+      <c r="I46" s="19">
         <v>85</v>
       </c>
-      <c r="F46" s="19">
-        <v>122</v>
-      </c>
-      <c r="G46" s="19">
+      <c r="J46" s="19">
+        <v>109</v>
+      </c>
+      <c r="K46" s="19">
+        <v>95</v>
+      </c>
+      <c r="L46" s="19">
+        <v>99</v>
+      </c>
+      <c r="M46" s="19">
         <v>88</v>
       </c>
-      <c r="H46" s="19">
-        <v>103</v>
-      </c>
-      <c r="I46" s="19">
-        <v>122</v>
-      </c>
-      <c r="J46" s="19">
-        <v>93</v>
-      </c>
-      <c r="K46" s="19">
-        <v>85</v>
-      </c>
-      <c r="L46" s="19">
-        <v>109</v>
-      </c>
-      <c r="M46" s="19">
-        <v>95</v>
-      </c>
       <c r="N46" s="19">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="O46" s="19">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="P46" s="19">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="Q46" s="19">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="R46" s="19">
+        <v>112</v>
+      </c>
+      <c r="S46" s="19">
         <v>111</v>
       </c>
-      <c r="S46" s="19">
-        <v>78</v>
-      </c>
       <c r="T46" s="19">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="U46" s="19">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="V46" s="19">
-        <v>74</v>
+        <v>83290</v>
       </c>
       <c r="W46" s="19">
-        <v>96</v>
+        <v>116996</v>
       </c>
       <c r="X46" s="19">
-        <v>83290</v>
+        <v>85841</v>
       </c>
       <c r="Y46" s="19">
-        <v>116996</v>
+        <v>119664</v>
       </c>
       <c r="Z46" s="19">
-        <v>85841</v>
+        <v>99326</v>
       </c>
       <c r="AA46" s="19">
-        <v>119664</v>
+        <v>92647</v>
       </c>
       <c r="AB46" s="19">
-        <v>99326</v>
+        <v>100021</v>
       </c>
       <c r="AC46" s="19">
-        <v>92647</v>
+        <v>99075</v>
       </c>
       <c r="AD46" s="19">
-        <v>100021</v>
+        <v>86193</v>
       </c>
       <c r="AE46" s="19">
-        <v>99075</v>
+        <v>67918</v>
       </c>
       <c r="AF46" s="19">
-        <v>86193</v>
+        <v>109931</v>
       </c>
       <c r="AG46" s="19">
-        <v>67918</v>
+        <v>94373</v>
       </c>
       <c r="AH46" s="19">
-        <v>109931</v>
+        <v>60939</v>
       </c>
       <c r="AI46" s="19">
-        <v>94373</v>
+        <v>61999</v>
       </c>
       <c r="AJ46" s="19">
-        <v>60939</v>
+        <v>94617</v>
       </c>
       <c r="AK46" s="19">
-        <v>61999</v>
+        <v>80527</v>
       </c>
       <c r="AL46" s="19">
-        <v>94617</v>
+        <v>108734</v>
       </c>
       <c r="AM46" s="19">
-        <v>80527</v>
+        <v>83770</v>
       </c>
       <c r="AN46" s="19">
-        <v>108734</v>
+        <v>63316</v>
       </c>
       <c r="AO46" s="19">
-        <v>83770</v>
+        <v>104762</v>
       </c>
       <c r="AP46" s="19">
-        <v>63316</v>
+        <v>104045</v>
       </c>
       <c r="AQ46" s="19">
-        <v>104762</v>
+        <v>86923</v>
       </c>
       <c r="AR46" s="19">
-        <v>104045</v>
+        <v>121746</v>
       </c>
       <c r="AS46" s="19">
-        <v>86923</v>
+        <v>46132</v>
       </c>
       <c r="AT46" s="19">
-        <v>121381</v>
+        <v>95414</v>
       </c>
       <c r="AU46" s="19">
-        <v>46132</v>
+        <v>52394</v>
       </c>
       <c r="AV46" s="19">
-        <v>95414</v>
+        <v>92369</v>
       </c>
       <c r="AW46" s="19">
-        <v>52394</v>
+        <v>71145</v>
       </c>
       <c r="AX46" s="19">
-        <v>92369</v>
+        <v>167225</v>
       </c>
       <c r="AY46" s="19">
-        <v>71146</v>
+        <v>89555</v>
       </c>
       <c r="AZ46" s="19">
-        <v>167225</v>
+        <v>44483</v>
       </c>
       <c r="BA46" s="19">
-        <v>89555</v>
+        <v>71093</v>
       </c>
       <c r="BB46" s="19">
-        <v>44483</v>
+        <v>61289</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6755,97 +6755,97 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>1572</v>
+        <v>2150</v>
       </c>
       <c r="F53" s="11">
-        <v>2102</v>
+        <v>2168</v>
       </c>
       <c r="G53" s="11">
-        <v>2150</v>
+        <v>2532</v>
       </c>
       <c r="H53" s="11">
-        <v>2168</v>
+        <v>2684</v>
       </c>
       <c r="I53" s="11">
-        <v>2532</v>
+        <v>2049</v>
       </c>
       <c r="J53" s="11">
-        <v>2684</v>
+        <v>3138</v>
       </c>
       <c r="K53" s="11">
-        <v>2049</v>
+        <v>2012</v>
       </c>
       <c r="L53" s="11">
-        <v>3138</v>
+        <v>1540</v>
       </c>
       <c r="M53" s="11">
-        <v>2012</v>
+        <v>30274</v>
       </c>
       <c r="N53" s="11">
-        <v>1540</v>
+        <v>28461</v>
       </c>
       <c r="O53" s="11">
-        <v>30274</v>
+        <v>25575</v>
       </c>
       <c r="P53" s="11">
-        <v>28461</v>
+        <v>32637</v>
       </c>
       <c r="Q53" s="11">
-        <v>25575</v>
+        <v>44254</v>
       </c>
       <c r="R53" s="11">
-        <v>32637</v>
+        <v>44032</v>
       </c>
       <c r="S53" s="11">
-        <v>44254</v>
+        <v>38551</v>
       </c>
       <c r="T53" s="11">
-        <v>44032</v>
+        <v>26320</v>
       </c>
       <c r="U53" s="11">
-        <v>38551</v>
+        <v>39146</v>
       </c>
       <c r="V53" s="11">
-        <v>26320</v>
+        <v>35055</v>
       </c>
       <c r="W53" s="11">
-        <v>39146</v>
+        <v>32945</v>
       </c>
       <c r="X53" s="11">
-        <v>35055</v>
+        <v>40633</v>
       </c>
       <c r="Y53" s="11">
-        <v>32945</v>
+        <v>38445</v>
       </c>
       <c r="Z53" s="11">
-        <v>40633</v>
+        <v>35402</v>
       </c>
       <c r="AA53" s="11">
-        <v>38445</v>
+        <v>33346</v>
       </c>
       <c r="AB53" s="11">
-        <v>35402</v>
+        <v>26747</v>
       </c>
       <c r="AC53" s="11">
-        <v>33346</v>
+        <v>19738</v>
       </c>
       <c r="AD53" s="11">
-        <v>26747</v>
+        <v>38442</v>
       </c>
       <c r="AE53" s="11">
-        <v>19738</v>
+        <v>17918</v>
       </c>
       <c r="AF53" s="11">
-        <v>38442</v>
+        <v>35604</v>
       </c>
       <c r="AG53" s="11">
-        <v>17918</v>
-      </c>
-      <c r="AH53" s="11">
-        <v>35604</v>
-      </c>
-      <c r="AI53" s="11">
         <v>36166</v>
+      </c>
+      <c r="AH53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI53" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ53" s="11" t="s">
         <v>57</v>
@@ -6914,154 +6914,154 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>17280</v>
+        <v>16270</v>
       </c>
       <c r="F54" s="13">
-        <v>16100</v>
+        <v>15840</v>
       </c>
       <c r="G54" s="13">
-        <v>16270</v>
+        <v>12220</v>
       </c>
       <c r="H54" s="13">
-        <v>15840</v>
+        <v>13860</v>
       </c>
       <c r="I54" s="13">
-        <v>12220</v>
+        <v>9068</v>
       </c>
       <c r="J54" s="13">
-        <v>13860</v>
+        <v>18066</v>
       </c>
       <c r="K54" s="13">
-        <v>9068</v>
+        <v>13124</v>
       </c>
       <c r="L54" s="13">
-        <v>18066</v>
+        <v>10462</v>
       </c>
       <c r="M54" s="13">
-        <v>13124</v>
+        <v>31709</v>
       </c>
       <c r="N54" s="13">
-        <v>10462</v>
+        <v>41780</v>
       </c>
       <c r="O54" s="13">
-        <v>31709</v>
+        <v>35147</v>
       </c>
       <c r="P54" s="13">
-        <v>41780</v>
+        <v>26127</v>
       </c>
       <c r="Q54" s="13">
-        <v>35147</v>
+        <v>41901</v>
       </c>
       <c r="R54" s="13">
-        <v>26127</v>
+        <v>37573</v>
       </c>
       <c r="S54" s="13">
-        <v>41901</v>
+        <v>34095</v>
       </c>
       <c r="T54" s="13">
-        <v>37573</v>
+        <v>31527</v>
       </c>
       <c r="U54" s="13">
-        <v>34095</v>
+        <v>30920</v>
       </c>
       <c r="V54" s="13">
-        <v>31527</v>
+        <v>37587</v>
       </c>
       <c r="W54" s="13">
-        <v>30920</v>
+        <v>35023</v>
       </c>
       <c r="X54" s="13">
-        <v>37587</v>
+        <v>36673</v>
       </c>
       <c r="Y54" s="13">
-        <v>35023</v>
+        <v>31144</v>
       </c>
       <c r="Z54" s="13">
-        <v>36673</v>
+        <v>31791</v>
       </c>
       <c r="AA54" s="13">
-        <v>31144</v>
+        <v>33017</v>
       </c>
       <c r="AB54" s="13">
-        <v>31791</v>
+        <v>33556</v>
       </c>
       <c r="AC54" s="13">
-        <v>33017</v>
+        <v>36072</v>
       </c>
       <c r="AD54" s="13">
-        <v>33556</v>
+        <v>33075</v>
       </c>
       <c r="AE54" s="13">
-        <v>36072</v>
+        <v>40852</v>
       </c>
       <c r="AF54" s="13">
-        <v>33075</v>
+        <v>40349</v>
       </c>
       <c r="AG54" s="13">
-        <v>40852</v>
+        <v>39120</v>
       </c>
       <c r="AH54" s="13">
-        <v>40349</v>
+        <v>43324</v>
       </c>
       <c r="AI54" s="13">
-        <v>39120</v>
+        <v>22126</v>
       </c>
       <c r="AJ54" s="13">
-        <v>43324</v>
+        <v>35355</v>
       </c>
       <c r="AK54" s="13">
-        <v>22126</v>
+        <v>36722</v>
       </c>
       <c r="AL54" s="13">
-        <v>35355</v>
+        <v>32648</v>
       </c>
       <c r="AM54" s="13">
-        <v>36722</v>
+        <v>48830</v>
       </c>
       <c r="AN54" s="13">
-        <v>32648</v>
+        <v>45058</v>
       </c>
       <c r="AO54" s="13">
-        <v>48830</v>
+        <v>32736</v>
       </c>
       <c r="AP54" s="13">
-        <v>45058</v>
+        <v>36630</v>
       </c>
       <c r="AQ54" s="13">
-        <v>32736</v>
+        <v>473151</v>
       </c>
       <c r="AR54" s="13">
-        <v>36630</v>
+        <v>67673</v>
       </c>
       <c r="AS54" s="13">
-        <v>473151</v>
+        <v>62001</v>
       </c>
       <c r="AT54" s="13">
-        <v>67673</v>
+        <v>58930</v>
       </c>
       <c r="AU54" s="13">
-        <v>62001</v>
+        <v>82957</v>
       </c>
       <c r="AV54" s="13">
-        <v>58930</v>
+        <v>51873</v>
       </c>
       <c r="AW54" s="13">
-        <v>82957</v>
+        <v>373298</v>
       </c>
       <c r="AX54" s="13">
-        <v>5206</v>
+        <v>103034</v>
       </c>
       <c r="AY54" s="13">
-        <v>373298</v>
+        <v>100397</v>
       </c>
       <c r="AZ54" s="13">
-        <v>103034</v>
+        <v>117716</v>
       </c>
       <c r="BA54" s="13">
-        <v>100397</v>
+        <v>139518</v>
       </c>
       <c r="BB54" s="13">
-        <v>117716</v>
+        <v>118683</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7073,62 +7073,62 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>1616756</v>
+        <v>1794656</v>
       </c>
       <c r="F55" s="11">
-        <v>3169756</v>
+        <v>1596772</v>
       </c>
       <c r="G55" s="11">
-        <v>1794656</v>
+        <v>2198987</v>
       </c>
       <c r="H55" s="11">
-        <v>1596772</v>
+        <v>1603125</v>
       </c>
       <c r="I55" s="11">
-        <v>2198987</v>
+        <v>1514552</v>
       </c>
       <c r="J55" s="11">
-        <v>1603125</v>
+        <v>2394627</v>
       </c>
       <c r="K55" s="11">
-        <v>1514552</v>
+        <v>2121184</v>
       </c>
       <c r="L55" s="11">
-        <v>2394627</v>
+        <v>2282973</v>
       </c>
       <c r="M55" s="11">
-        <v>2121184</v>
+        <v>1996565</v>
       </c>
       <c r="N55" s="11">
-        <v>2282973</v>
+        <v>1840016</v>
       </c>
       <c r="O55" s="11">
-        <v>1996565</v>
+        <v>1192993</v>
       </c>
       <c r="P55" s="11">
-        <v>1840016</v>
+        <v>2311094</v>
       </c>
       <c r="Q55" s="11">
-        <v>1192993</v>
+        <v>1355353</v>
       </c>
       <c r="R55" s="11">
-        <v>2311094</v>
+        <v>1887701</v>
       </c>
       <c r="S55" s="11">
-        <v>1355353</v>
+        <v>2089324</v>
       </c>
       <c r="T55" s="11">
-        <v>1887701</v>
+        <v>1595960</v>
       </c>
       <c r="U55" s="11">
-        <v>2089324</v>
-      </c>
-      <c r="V55" s="11">
-        <v>1595960</v>
-      </c>
-      <c r="W55" s="11">
         <v>2060613</v>
       </c>
+      <c r="V55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W55" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X55" s="11" t="s">
         <v>57</v>
       </c>
@@ -7186,41 +7186,41 @@
       <c r="AP55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR55" s="11" t="s">
-        <v>57</v>
+      <c r="AQ55" s="11">
+        <v>5930024</v>
+      </c>
+      <c r="AR55" s="11">
+        <v>7778985</v>
       </c>
       <c r="AS55" s="11">
-        <v>5930024</v>
+        <v>3171156</v>
       </c>
       <c r="AT55" s="11">
-        <v>7809888</v>
+        <v>6643774</v>
       </c>
       <c r="AU55" s="11">
-        <v>3171156</v>
+        <v>3160630</v>
       </c>
       <c r="AV55" s="11">
-        <v>6602477</v>
+        <v>6445176</v>
       </c>
       <c r="AW55" s="11">
-        <v>3126550</v>
+        <v>4121968</v>
       </c>
       <c r="AX55" s="11">
-        <v>6445176</v>
+        <v>9905008</v>
       </c>
       <c r="AY55" s="11">
-        <v>4071361</v>
+        <v>5941902</v>
       </c>
       <c r="AZ55" s="11">
-        <v>9886344</v>
+        <v>2357711</v>
       </c>
       <c r="BA55" s="11">
-        <v>5941902</v>
+        <v>4344624</v>
       </c>
       <c r="BB55" s="11">
-        <v>2353830</v>
+        <v>3688985</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7232,62 +7232,62 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>449645</v>
+        <v>443650</v>
       </c>
       <c r="F56" s="13">
-        <v>343681</v>
+        <v>476456</v>
       </c>
       <c r="G56" s="13">
-        <v>443650</v>
+        <v>327476</v>
       </c>
       <c r="H56" s="13">
-        <v>476456</v>
+        <v>484244</v>
       </c>
       <c r="I56" s="13">
-        <v>327476</v>
+        <v>425424</v>
       </c>
       <c r="J56" s="13">
-        <v>484244</v>
+        <v>353453</v>
       </c>
       <c r="K56" s="13">
-        <v>425424</v>
+        <v>341245</v>
       </c>
       <c r="L56" s="13">
-        <v>353453</v>
+        <v>315899</v>
       </c>
       <c r="M56" s="13">
-        <v>341245</v>
+        <v>286147</v>
       </c>
       <c r="N56" s="13">
-        <v>315899</v>
+        <v>419069</v>
       </c>
       <c r="O56" s="13">
-        <v>286147</v>
+        <v>317518</v>
       </c>
       <c r="P56" s="13">
-        <v>419069</v>
+        <v>370811</v>
       </c>
       <c r="Q56" s="13">
-        <v>317518</v>
+        <v>387659</v>
       </c>
       <c r="R56" s="13">
-        <v>370811</v>
+        <v>365272</v>
       </c>
       <c r="S56" s="13">
-        <v>387659</v>
+        <v>1230071</v>
       </c>
       <c r="T56" s="13">
-        <v>365272</v>
+        <v>397555</v>
       </c>
       <c r="U56" s="13">
-        <v>1230071</v>
-      </c>
-      <c r="V56" s="13">
-        <v>397555</v>
-      </c>
-      <c r="W56" s="13">
         <v>363528</v>
       </c>
+      <c r="V56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W56" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X56" s="13" t="s">
         <v>57</v>
       </c>
@@ -7345,41 +7345,41 @@
       <c r="AP56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR56" s="13" t="s">
-        <v>57</v>
+      <c r="AQ56" s="13">
+        <v>2088384</v>
+      </c>
+      <c r="AR56" s="13">
+        <v>3371952</v>
       </c>
       <c r="AS56" s="13">
-        <v>2088384</v>
+        <v>984663</v>
       </c>
       <c r="AT56" s="13">
-        <v>3485774</v>
+        <v>2027203</v>
       </c>
       <c r="AU56" s="13">
-        <v>984663</v>
+        <v>1344892</v>
       </c>
       <c r="AV56" s="13">
-        <v>2092556</v>
+        <v>1170983</v>
       </c>
       <c r="AW56" s="13">
-        <v>1393573</v>
+        <v>1025360</v>
       </c>
       <c r="AX56" s="13">
-        <v>1170983</v>
+        <v>1496968</v>
       </c>
       <c r="AY56" s="13">
-        <v>1088287</v>
+        <v>1233509</v>
       </c>
       <c r="AZ56" s="13">
-        <v>1530940</v>
+        <v>1020359</v>
       </c>
       <c r="BA56" s="13">
-        <v>1233509</v>
+        <v>1245806</v>
       </c>
       <c r="BB56" s="13">
-        <v>1024403</v>
+        <v>1103005</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7450,65 +7450,65 @@
       <c r="X57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z57" s="11" t="s">
-        <v>57</v>
+      <c r="Y57" s="11">
+        <v>435689</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>553109</v>
       </c>
       <c r="AA57" s="11">
-        <v>435689</v>
+        <v>603606</v>
       </c>
       <c r="AB57" s="11">
-        <v>553109</v>
+        <v>569205</v>
       </c>
       <c r="AC57" s="11">
-        <v>603606</v>
+        <v>571932</v>
       </c>
       <c r="AD57" s="11">
-        <v>569205</v>
+        <v>647533</v>
       </c>
       <c r="AE57" s="11">
-        <v>571932</v>
+        <v>849798</v>
       </c>
       <c r="AF57" s="11">
-        <v>647533</v>
+        <v>918286</v>
       </c>
       <c r="AG57" s="11">
-        <v>849798</v>
+        <v>1445115</v>
       </c>
       <c r="AH57" s="11">
-        <v>918286</v>
+        <v>1130561</v>
       </c>
       <c r="AI57" s="11">
-        <v>1445115</v>
+        <v>1343226</v>
       </c>
       <c r="AJ57" s="11">
-        <v>1130561</v>
+        <v>1523780</v>
       </c>
       <c r="AK57" s="11">
-        <v>1343226</v>
+        <v>1373354</v>
       </c>
       <c r="AL57" s="11">
-        <v>1523780</v>
+        <v>1444826</v>
       </c>
       <c r="AM57" s="11">
-        <v>1373354</v>
+        <v>1465388</v>
       </c>
       <c r="AN57" s="11">
-        <v>1444826</v>
+        <v>1423552</v>
       </c>
       <c r="AO57" s="11">
-        <v>1465388</v>
+        <v>1639686</v>
       </c>
       <c r="AP57" s="11">
-        <v>1423552</v>
-      </c>
-      <c r="AQ57" s="11">
-        <v>1639686</v>
-      </c>
-      <c r="AR57" s="11">
         <v>1658718</v>
+      </c>
+      <c r="AQ57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS57" s="11" t="s">
         <v>57</v>
@@ -7609,65 +7609,65 @@
       <c r="X58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y58" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z58" s="13" t="s">
-        <v>57</v>
+      <c r="Y58" s="13">
+        <v>278211</v>
+      </c>
+      <c r="Z58" s="13">
+        <v>441538</v>
       </c>
       <c r="AA58" s="13">
-        <v>278211</v>
+        <v>604775</v>
       </c>
       <c r="AB58" s="13">
-        <v>441538</v>
+        <v>789968</v>
       </c>
       <c r="AC58" s="13">
-        <v>604775</v>
+        <v>864147</v>
       </c>
       <c r="AD58" s="13">
-        <v>789968</v>
+        <v>1237129</v>
       </c>
       <c r="AE58" s="13">
-        <v>864147</v>
+        <v>1824325</v>
       </c>
       <c r="AF58" s="13">
-        <v>1237129</v>
+        <v>1535872</v>
       </c>
       <c r="AG58" s="13">
-        <v>1824325</v>
+        <v>1912111</v>
       </c>
       <c r="AH58" s="13">
-        <v>1535872</v>
+        <v>778629</v>
       </c>
       <c r="AI58" s="13">
-        <v>1912111</v>
+        <v>1450130</v>
       </c>
       <c r="AJ58" s="13">
-        <v>778629</v>
+        <v>1117612</v>
       </c>
       <c r="AK58" s="13">
-        <v>1450130</v>
+        <v>1158599</v>
       </c>
       <c r="AL58" s="13">
-        <v>1117612</v>
+        <v>1413869</v>
       </c>
       <c r="AM58" s="13">
-        <v>1158599</v>
+        <v>1545620</v>
       </c>
       <c r="AN58" s="13">
-        <v>1413869</v>
+        <v>1494975</v>
       </c>
       <c r="AO58" s="13">
-        <v>1545620</v>
+        <v>1805768</v>
       </c>
       <c r="AP58" s="13">
-        <v>1494975</v>
-      </c>
-      <c r="AQ58" s="13">
-        <v>1805768</v>
-      </c>
-      <c r="AR58" s="13">
         <v>1732450</v>
+      </c>
+      <c r="AQ58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR58" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS58" s="13" t="s">
         <v>57</v>
@@ -7768,65 +7768,65 @@
       <c r="X59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z59" s="11" t="s">
-        <v>57</v>
+      <c r="Y59" s="11">
+        <v>2200597</v>
+      </c>
+      <c r="Z59" s="11">
+        <v>1805396</v>
       </c>
       <c r="AA59" s="11">
-        <v>2200597</v>
+        <v>2190348</v>
       </c>
       <c r="AB59" s="11">
-        <v>1805396</v>
+        <v>2898861</v>
       </c>
       <c r="AC59" s="11">
-        <v>2190348</v>
+        <v>3544445</v>
       </c>
       <c r="AD59" s="11">
-        <v>2898861</v>
+        <v>3637652</v>
       </c>
       <c r="AE59" s="11">
-        <v>3544445</v>
+        <v>2407726</v>
       </c>
       <c r="AF59" s="11">
-        <v>3637652</v>
+        <v>5088953</v>
       </c>
       <c r="AG59" s="11">
-        <v>2407726</v>
+        <v>3186582</v>
       </c>
       <c r="AH59" s="11">
-        <v>5088953</v>
+        <v>2727468</v>
       </c>
       <c r="AI59" s="11">
-        <v>3186582</v>
+        <v>1236943</v>
       </c>
       <c r="AJ59" s="11">
-        <v>2727468</v>
+        <v>3858315</v>
       </c>
       <c r="AK59" s="11">
-        <v>1236943</v>
+        <v>3116442</v>
       </c>
       <c r="AL59" s="11">
-        <v>3858315</v>
+        <v>5448160</v>
       </c>
       <c r="AM59" s="11">
-        <v>3116442</v>
+        <v>3262658</v>
       </c>
       <c r="AN59" s="11">
-        <v>5448160</v>
+        <v>3191926</v>
       </c>
       <c r="AO59" s="11">
-        <v>3262658</v>
+        <v>6465175</v>
       </c>
       <c r="AP59" s="11">
-        <v>3191926</v>
-      </c>
-      <c r="AQ59" s="11">
-        <v>6465175</v>
-      </c>
-      <c r="AR59" s="11">
         <v>5389795</v>
+      </c>
+      <c r="AQ59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS59" s="11" t="s">
         <v>57</v>
@@ -7927,65 +7927,65 @@
       <c r="X60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y60" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z60" s="13" t="s">
-        <v>57</v>
+      <c r="Y60" s="13">
+        <v>219072</v>
+      </c>
+      <c r="Z60" s="13">
+        <v>81453</v>
       </c>
       <c r="AA60" s="13">
-        <v>219072</v>
+        <v>119530</v>
       </c>
       <c r="AB60" s="13">
-        <v>81453</v>
+        <v>485619</v>
       </c>
       <c r="AC60" s="13">
-        <v>119530</v>
+        <v>482148</v>
       </c>
       <c r="AD60" s="13">
-        <v>485619</v>
+        <v>288304</v>
       </c>
       <c r="AE60" s="13">
-        <v>482148</v>
+        <v>512378</v>
       </c>
       <c r="AF60" s="13">
-        <v>288304</v>
+        <v>874025</v>
       </c>
       <c r="AG60" s="13">
-        <v>512378</v>
+        <v>1703412</v>
       </c>
       <c r="AH60" s="13">
-        <v>874025</v>
+        <v>94440</v>
       </c>
       <c r="AI60" s="13">
-        <v>1703412</v>
+        <v>1755105</v>
       </c>
       <c r="AJ60" s="13">
-        <v>94440</v>
+        <v>1206345</v>
       </c>
       <c r="AK60" s="13">
-        <v>1755105</v>
+        <v>943922</v>
       </c>
       <c r="AL60" s="13">
-        <v>1206345</v>
+        <v>43857</v>
       </c>
       <c r="AM60" s="13">
-        <v>943922</v>
+        <v>1568866</v>
       </c>
       <c r="AN60" s="13">
-        <v>43857</v>
+        <v>1019491</v>
       </c>
       <c r="AO60" s="13">
-        <v>1568866</v>
+        <v>1509322</v>
       </c>
       <c r="AP60" s="13">
-        <v>1019491</v>
-      </c>
-      <c r="AQ60" s="13">
-        <v>1509322</v>
-      </c>
-      <c r="AR60" s="13">
         <v>946369</v>
+      </c>
+      <c r="AQ60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR60" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS60" s="13" t="s">
         <v>57</v>
@@ -8113,68 +8113,68 @@
       <c r="AG61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI61" s="11" t="s">
-        <v>57</v>
+      <c r="AH61" s="11">
+        <v>27908</v>
+      </c>
+      <c r="AI61" s="11">
+        <v>30195</v>
       </c>
       <c r="AJ61" s="11">
-        <v>27908</v>
+        <v>33675</v>
       </c>
       <c r="AK61" s="11">
-        <v>30195</v>
+        <v>20111</v>
       </c>
       <c r="AL61" s="11">
-        <v>33675</v>
+        <v>33468</v>
       </c>
       <c r="AM61" s="11">
-        <v>20111</v>
+        <v>25039</v>
       </c>
       <c r="AN61" s="11">
-        <v>33468</v>
+        <v>19829</v>
       </c>
       <c r="AO61" s="11">
-        <v>25039</v>
+        <v>13095</v>
       </c>
       <c r="AP61" s="11">
-        <v>19829</v>
+        <v>26090</v>
       </c>
       <c r="AQ61" s="11">
-        <v>13095</v>
+        <v>20377</v>
       </c>
       <c r="AR61" s="11">
-        <v>26090</v>
+        <v>57660</v>
       </c>
       <c r="AS61" s="11">
-        <v>20377</v>
+        <v>38712</v>
       </c>
       <c r="AT61" s="11">
-        <v>54634</v>
+        <v>37441</v>
       </c>
       <c r="AU61" s="11">
-        <v>38712</v>
+        <v>33987</v>
       </c>
       <c r="AV61" s="11">
-        <v>37441</v>
+        <v>20511</v>
       </c>
       <c r="AW61" s="11">
-        <v>33987</v>
+        <v>29938</v>
       </c>
       <c r="AX61" s="11">
-        <v>14455</v>
+        <v>26810</v>
       </c>
       <c r="AY61" s="11">
-        <v>29938</v>
+        <v>22228</v>
       </c>
       <c r="AZ61" s="11">
-        <v>26810</v>
+        <v>13018</v>
       </c>
       <c r="BA61" s="11">
-        <v>22228</v>
+        <v>52215</v>
       </c>
       <c r="BB61" s="11">
-        <v>13018</v>
+        <v>22570</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8236,20 +8236,20 @@
       <c r="U62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W62" s="13" t="s">
-        <v>57</v>
+      <c r="V62" s="13">
+        <v>1538746</v>
+      </c>
+      <c r="W62" s="13">
+        <v>1772140</v>
       </c>
       <c r="X62" s="13">
-        <v>1538746</v>
-      </c>
-      <c r="Y62" s="13">
-        <v>1772140</v>
-      </c>
-      <c r="Z62" s="13">
         <v>1229911</v>
+      </c>
+      <c r="Y62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z62" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA62" s="13" t="s">
         <v>57</v>
@@ -8395,20 +8395,20 @@
       <c r="U63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W63" s="11" t="s">
-        <v>57</v>
+      <c r="V63" s="11">
+        <v>264916</v>
+      </c>
+      <c r="W63" s="11">
+        <v>477576</v>
       </c>
       <c r="X63" s="11">
-        <v>264916</v>
-      </c>
-      <c r="Y63" s="11">
-        <v>477576</v>
-      </c>
-      <c r="Z63" s="11">
         <v>626713</v>
+      </c>
+      <c r="Y63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA63" s="11" t="s">
         <v>57</v>
@@ -8620,11 +8620,11 @@
       <c r="X65" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y65" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z65" s="17" t="s">
-        <v>57</v>
+      <c r="Y65" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="17">
+        <v>0</v>
       </c>
       <c r="AA65" s="17">
         <v>0</v>
@@ -8836,11 +8836,11 @@
       <c r="X67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y67" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z67" s="17" t="s">
-        <v>57</v>
+      <c r="Y67" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="17">
+        <v>0</v>
       </c>
       <c r="AA67" s="17">
         <v>0</v>
@@ -9052,11 +9052,11 @@
       <c r="X69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z69" s="11" t="s">
-        <v>57</v>
+      <c r="Y69" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>0</v>
       </c>
       <c r="AA69" s="11">
         <v>0</v>
@@ -9150,154 +9150,154 @@
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19">
-        <v>2085253</v>
+        <v>2256726</v>
       </c>
       <c r="F70" s="19">
-        <v>3531639</v>
+        <v>2091236</v>
       </c>
       <c r="G70" s="19">
-        <v>2256726</v>
+        <v>2541215</v>
       </c>
       <c r="H70" s="19">
-        <v>2091236</v>
+        <v>2103913</v>
       </c>
       <c r="I70" s="19">
-        <v>2541215</v>
+        <v>1951093</v>
       </c>
       <c r="J70" s="19">
-        <v>2103913</v>
+        <v>2769284</v>
       </c>
       <c r="K70" s="19">
-        <v>1951093</v>
+        <v>2477565</v>
       </c>
       <c r="L70" s="19">
-        <v>2769284</v>
+        <v>2610874</v>
       </c>
       <c r="M70" s="19">
-        <v>2477565</v>
+        <v>2344695</v>
       </c>
       <c r="N70" s="19">
-        <v>2610874</v>
+        <v>2329326</v>
       </c>
       <c r="O70" s="19">
-        <v>2344695</v>
+        <v>1571233</v>
       </c>
       <c r="P70" s="19">
-        <v>2329326</v>
+        <v>2740669</v>
       </c>
       <c r="Q70" s="19">
-        <v>1571233</v>
+        <v>1829167</v>
       </c>
       <c r="R70" s="19">
-        <v>2740669</v>
+        <v>2334578</v>
       </c>
       <c r="S70" s="19">
-        <v>1829167</v>
+        <v>3392041</v>
       </c>
       <c r="T70" s="19">
-        <v>2334578</v>
+        <v>2051362</v>
       </c>
       <c r="U70" s="19">
-        <v>3392041</v>
+        <v>2494207</v>
       </c>
       <c r="V70" s="19">
-        <v>2051362</v>
+        <v>1876304</v>
       </c>
       <c r="W70" s="19">
-        <v>2494207</v>
+        <v>2317684</v>
       </c>
       <c r="X70" s="19">
-        <v>1876304</v>
+        <v>1933930</v>
       </c>
       <c r="Y70" s="19">
-        <v>2317684</v>
+        <v>3203158</v>
       </c>
       <c r="Z70" s="19">
-        <v>1933930</v>
+        <v>2948689</v>
       </c>
       <c r="AA70" s="19">
-        <v>3203158</v>
+        <v>3584622</v>
       </c>
       <c r="AB70" s="19">
-        <v>2948689</v>
+        <v>4803956</v>
       </c>
       <c r="AC70" s="19">
-        <v>3584622</v>
+        <v>5518482</v>
       </c>
       <c r="AD70" s="19">
-        <v>4803956</v>
+        <v>5882135</v>
       </c>
       <c r="AE70" s="19">
-        <v>5518482</v>
+        <v>5652997</v>
       </c>
       <c r="AF70" s="19">
-        <v>5882135</v>
+        <v>8493089</v>
       </c>
       <c r="AG70" s="19">
-        <v>5652997</v>
+        <v>8322506</v>
       </c>
       <c r="AH70" s="19">
-        <v>8493089</v>
+        <v>4802330</v>
       </c>
       <c r="AI70" s="19">
-        <v>8322506</v>
+        <v>5837725</v>
       </c>
       <c r="AJ70" s="19">
-        <v>4802330</v>
+        <v>7775082</v>
       </c>
       <c r="AK70" s="19">
-        <v>5837725</v>
+        <v>6649150</v>
       </c>
       <c r="AL70" s="19">
-        <v>7775082</v>
+        <v>8416828</v>
       </c>
       <c r="AM70" s="19">
-        <v>6649150</v>
+        <v>7916401</v>
       </c>
       <c r="AN70" s="19">
-        <v>8416828</v>
+        <v>7194831</v>
       </c>
       <c r="AO70" s="19">
-        <v>7916401</v>
+        <v>11465782</v>
       </c>
       <c r="AP70" s="19">
-        <v>7194831</v>
+        <v>9790052</v>
       </c>
       <c r="AQ70" s="19">
-        <v>11465782</v>
+        <v>8511936</v>
       </c>
       <c r="AR70" s="19">
-        <v>9790052</v>
+        <v>11276270</v>
       </c>
       <c r="AS70" s="19">
-        <v>8511936</v>
+        <v>4256532</v>
       </c>
       <c r="AT70" s="19">
-        <v>11417969</v>
+        <v>8767348</v>
       </c>
       <c r="AU70" s="19">
-        <v>4256532</v>
+        <v>4622466</v>
       </c>
       <c r="AV70" s="19">
-        <v>8791404</v>
+        <v>7688543</v>
       </c>
       <c r="AW70" s="19">
-        <v>4637067</v>
+        <v>5550564</v>
       </c>
       <c r="AX70" s="19">
-        <v>7635820</v>
+        <v>11531820</v>
       </c>
       <c r="AY70" s="19">
-        <v>5562884</v>
+        <v>7298036</v>
       </c>
       <c r="AZ70" s="19">
-        <v>11547128</v>
+        <v>3508804</v>
       </c>
       <c r="BA70" s="19">
-        <v>7298036</v>
+        <v>5782163</v>
       </c>
       <c r="BB70" s="19">
-        <v>3508967</v>
+        <v>4933243</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9743,97 +9743,97 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>262000000</v>
+        <v>307142857</v>
       </c>
       <c r="F77" s="11">
-        <v>350333333</v>
+        <v>309714286</v>
       </c>
       <c r="G77" s="11">
-        <v>307142857</v>
+        <v>316500000</v>
       </c>
       <c r="H77" s="11">
-        <v>309714286</v>
+        <v>335500000</v>
       </c>
       <c r="I77" s="11">
-        <v>316500000</v>
+        <v>256125000</v>
       </c>
       <c r="J77" s="11">
-        <v>335500000</v>
+        <v>523000000</v>
       </c>
       <c r="K77" s="11">
-        <v>256125000</v>
+        <v>251500000</v>
       </c>
       <c r="L77" s="11">
-        <v>523000000</v>
+        <v>220000000</v>
       </c>
       <c r="M77" s="11">
-        <v>251500000</v>
+        <v>4324857143</v>
       </c>
       <c r="N77" s="11">
-        <v>220000000</v>
+        <v>4065857143</v>
       </c>
       <c r="O77" s="11">
-        <v>4324857143</v>
+        <v>4262500000</v>
       </c>
       <c r="P77" s="11">
-        <v>4065857143</v>
+        <v>3626333333</v>
       </c>
       <c r="Q77" s="11">
-        <v>4262500000</v>
+        <v>4917111111</v>
       </c>
       <c r="R77" s="11">
-        <v>3626333333</v>
+        <v>4403200000</v>
       </c>
       <c r="S77" s="11">
-        <v>4917111111</v>
+        <v>5507285714</v>
       </c>
       <c r="T77" s="11">
-        <v>4403200000</v>
+        <v>5264000000</v>
       </c>
       <c r="U77" s="11">
-        <v>5507285714</v>
+        <v>4893250000</v>
       </c>
       <c r="V77" s="11">
-        <v>5264000000</v>
+        <v>4630779</v>
       </c>
       <c r="W77" s="11">
-        <v>4893250000</v>
+        <v>4687011</v>
       </c>
       <c r="X77" s="11">
-        <v>4630779</v>
+        <v>5275643</v>
       </c>
       <c r="Y77" s="11">
-        <v>4687011</v>
+        <v>5381439</v>
       </c>
       <c r="Z77" s="11">
-        <v>5275643</v>
+        <v>5048774</v>
       </c>
       <c r="AA77" s="11">
-        <v>5381439</v>
+        <v>5010669</v>
       </c>
       <c r="AB77" s="11">
-        <v>5048774</v>
+        <v>5655953</v>
       </c>
       <c r="AC77" s="11">
-        <v>5010669</v>
+        <v>5608980</v>
       </c>
       <c r="AD77" s="11">
-        <v>5655953</v>
+        <v>5833384</v>
       </c>
       <c r="AE77" s="11">
-        <v>5608980</v>
+        <v>8170543</v>
       </c>
       <c r="AF77" s="11">
-        <v>5833384</v>
+        <v>6803745</v>
       </c>
       <c r="AG77" s="11">
-        <v>8170543</v>
-      </c>
-      <c r="AH77" s="11">
-        <v>6803745</v>
-      </c>
-      <c r="AI77" s="11">
         <v>6586414</v>
+      </c>
+      <c r="AH77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ77" s="11" t="s">
         <v>57</v>
@@ -9902,154 +9902,154 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>8640000000</v>
+        <v>8135000000</v>
       </c>
       <c r="F78" s="13">
-        <v>8050000000</v>
+        <v>7920000000</v>
       </c>
       <c r="G78" s="13">
-        <v>8135000000</v>
+        <v>12220000000</v>
       </c>
       <c r="H78" s="13">
-        <v>7920000000</v>
+        <v>13860000000</v>
       </c>
       <c r="I78" s="13">
-        <v>12220000000</v>
+        <v>9068000000</v>
       </c>
       <c r="J78" s="13">
-        <v>13860000000</v>
+        <v>18066000000</v>
       </c>
       <c r="K78" s="13">
-        <v>9068000000</v>
+        <v>13124000000</v>
       </c>
       <c r="L78" s="13">
-        <v>18066000000</v>
+        <v>10462000000</v>
       </c>
       <c r="M78" s="13">
-        <v>13124000000</v>
+        <v>15854500000</v>
       </c>
       <c r="N78" s="13">
-        <v>10462000000</v>
+        <v>20890000000</v>
       </c>
       <c r="O78" s="13">
-        <v>15854500000</v>
+        <v>17573500000</v>
       </c>
       <c r="P78" s="13">
-        <v>20890000000</v>
+        <v>26127000000</v>
       </c>
       <c r="Q78" s="13">
-        <v>17573500000</v>
+        <v>20950500000</v>
       </c>
       <c r="R78" s="13">
-        <v>26127000000</v>
+        <v>18786500000</v>
       </c>
       <c r="S78" s="13">
-        <v>20950500000</v>
+        <v>17047500000</v>
       </c>
       <c r="T78" s="13">
-        <v>18786500000</v>
+        <v>15763500000</v>
       </c>
       <c r="U78" s="13">
-        <v>17047500000</v>
+        <v>15460000000</v>
       </c>
       <c r="V78" s="13">
-        <v>15763500000</v>
+        <v>22240828</v>
       </c>
       <c r="W78" s="13">
-        <v>15460000000</v>
+        <v>22293444</v>
       </c>
       <c r="X78" s="13">
-        <v>22240828</v>
+        <v>22293617</v>
       </c>
       <c r="Y78" s="13">
-        <v>22293444</v>
+        <v>22293486</v>
       </c>
       <c r="Z78" s="13">
-        <v>22293617</v>
+        <v>22293829</v>
       </c>
       <c r="AA78" s="13">
-        <v>22293486</v>
+        <v>22293720</v>
       </c>
       <c r="AB78" s="13">
-        <v>22293829</v>
+        <v>22873892</v>
       </c>
       <c r="AC78" s="13">
-        <v>22293720</v>
+        <v>22873811</v>
       </c>
       <c r="AD78" s="13">
-        <v>22873892</v>
+        <v>22873444</v>
       </c>
       <c r="AE78" s="13">
-        <v>22873811</v>
+        <v>22873460</v>
       </c>
       <c r="AF78" s="13">
-        <v>22873444</v>
+        <v>22873583</v>
       </c>
       <c r="AG78" s="13">
-        <v>22873460</v>
+        <v>25787739</v>
       </c>
       <c r="AH78" s="13">
-        <v>22873583</v>
+        <v>25788095</v>
       </c>
       <c r="AI78" s="13">
-        <v>25787739</v>
+        <v>25787879</v>
       </c>
       <c r="AJ78" s="13">
-        <v>25788095</v>
+        <v>25787746</v>
       </c>
       <c r="AK78" s="13">
-        <v>25787879</v>
+        <v>25787921</v>
       </c>
       <c r="AL78" s="13">
-        <v>25787746</v>
+        <v>25788310</v>
       </c>
       <c r="AM78" s="13">
-        <v>25787921</v>
+        <v>30423676</v>
       </c>
       <c r="AN78" s="13">
-        <v>25788310</v>
+        <v>30424038</v>
       </c>
       <c r="AO78" s="13">
-        <v>30423676</v>
+        <v>30423792</v>
       </c>
       <c r="AP78" s="13">
-        <v>30424038</v>
+        <v>30423588</v>
       </c>
       <c r="AQ78" s="13">
-        <v>30423792</v>
+        <v>817186529</v>
       </c>
       <c r="AR78" s="13">
-        <v>30423588</v>
+        <v>66738659</v>
       </c>
       <c r="AS78" s="13">
-        <v>817186529</v>
+        <v>66739505</v>
       </c>
       <c r="AT78" s="13">
-        <v>66738659</v>
+        <v>66738392</v>
       </c>
       <c r="AU78" s="13">
-        <v>66739505</v>
+        <v>66739340</v>
       </c>
       <c r="AV78" s="13">
-        <v>66738392</v>
+        <v>87917365</v>
       </c>
       <c r="AW78" s="13">
-        <v>66739340</v>
+        <v>493128137</v>
       </c>
       <c r="AX78" s="13">
-        <v>66743590</v>
+        <v>87912969</v>
       </c>
       <c r="AY78" s="13">
-        <v>493128137</v>
+        <v>87913310</v>
       </c>
       <c r="AZ78" s="13">
-        <v>87912969</v>
+        <v>87913368</v>
       </c>
       <c r="BA78" s="13">
-        <v>87913310</v>
+        <v>87913043</v>
       </c>
       <c r="BB78" s="13">
-        <v>87913368</v>
+        <v>87913333</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10061,62 +10061,62 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>24873169231</v>
+        <v>25637942857</v>
       </c>
       <c r="F79" s="11">
-        <v>29623887850</v>
+        <v>18567116279</v>
       </c>
       <c r="G79" s="11">
-        <v>25637942857</v>
+        <v>20745160377</v>
       </c>
       <c r="H79" s="11">
-        <v>18567116279</v>
+        <v>22901785714</v>
       </c>
       <c r="I79" s="11">
-        <v>20745160377</v>
+        <v>23300800000</v>
       </c>
       <c r="J79" s="11">
-        <v>22901785714</v>
+        <v>25474755319</v>
       </c>
       <c r="K79" s="11">
-        <v>23300800000</v>
+        <v>26850430380</v>
       </c>
       <c r="L79" s="11">
-        <v>25474755319</v>
+        <v>26858505882</v>
       </c>
       <c r="M79" s="11">
-        <v>26850430380</v>
+        <v>27350205479</v>
       </c>
       <c r="N79" s="11">
-        <v>26858505882</v>
+        <v>25915718310</v>
       </c>
       <c r="O79" s="11">
-        <v>27350205479</v>
+        <v>24346795918</v>
       </c>
       <c r="P79" s="11">
-        <v>25915718310</v>
+        <v>24586106383</v>
       </c>
       <c r="Q79" s="11">
-        <v>24346795918</v>
+        <v>22972084746</v>
       </c>
       <c r="R79" s="11">
-        <v>24586106383</v>
+        <v>20518489130</v>
       </c>
       <c r="S79" s="11">
-        <v>22972084746</v>
+        <v>24580282353</v>
       </c>
       <c r="T79" s="11">
-        <v>20518489130</v>
+        <v>27516551724</v>
       </c>
       <c r="U79" s="11">
-        <v>24580282353</v>
-      </c>
-      <c r="V79" s="11">
-        <v>27516551724</v>
-      </c>
-      <c r="W79" s="11">
         <v>26418115385</v>
       </c>
+      <c r="V79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W79" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X79" s="11" t="s">
         <v>57</v>
       </c>
@@ -10174,41 +10174,41 @@
       <c r="AP79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ79" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR79" s="11" t="s">
-        <v>57</v>
+      <c r="AQ79" s="11">
+        <v>78689278</v>
+      </c>
+      <c r="AR79" s="11">
+        <v>80547377</v>
       </c>
       <c r="AS79" s="11">
-        <v>78689278</v>
+        <v>86549017</v>
       </c>
       <c r="AT79" s="11">
-        <v>80586588</v>
+        <v>85534078</v>
       </c>
       <c r="AU79" s="11">
-        <v>86549017</v>
+        <v>84160899</v>
       </c>
       <c r="AV79" s="11">
-        <v>85002408</v>
+        <v>79657599</v>
       </c>
       <c r="AW79" s="11">
-        <v>83864435</v>
+        <v>65475620</v>
       </c>
       <c r="AX79" s="11">
-        <v>79657599</v>
+        <v>65257601</v>
       </c>
       <c r="AY79" s="11">
-        <v>65279647</v>
+        <v>79978222</v>
       </c>
       <c r="AZ79" s="11">
-        <v>65212060</v>
+        <v>72591620</v>
       </c>
       <c r="BA79" s="11">
-        <v>79978222</v>
+        <v>80473883</v>
       </c>
       <c r="BB79" s="11">
-        <v>72584107</v>
+        <v>78634600</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10220,62 +10220,62 @@
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
-        <v>37470416667</v>
+        <v>49294444444</v>
       </c>
       <c r="F80" s="13">
-        <v>49097285714</v>
+        <v>59557000000</v>
       </c>
       <c r="G80" s="13">
-        <v>49294444444</v>
+        <v>46782285714</v>
       </c>
       <c r="H80" s="13">
-        <v>59557000000</v>
+        <v>34588857143</v>
       </c>
       <c r="I80" s="13">
-        <v>46782285714</v>
+        <v>38674909091</v>
       </c>
       <c r="J80" s="13">
-        <v>34588857143</v>
+        <v>44181625000</v>
       </c>
       <c r="K80" s="13">
-        <v>38674909091</v>
+        <v>48749285714</v>
       </c>
       <c r="L80" s="13">
-        <v>44181625000</v>
+        <v>52649833333</v>
       </c>
       <c r="M80" s="13">
-        <v>48749285714</v>
+        <v>47691166667</v>
       </c>
       <c r="N80" s="13">
-        <v>52649833333</v>
+        <v>52383625000</v>
       </c>
       <c r="O80" s="13">
-        <v>47691166667</v>
+        <v>52919666667</v>
       </c>
       <c r="P80" s="13">
-        <v>52383625000</v>
+        <v>52973000000</v>
       </c>
       <c r="Q80" s="13">
-        <v>52919666667</v>
+        <v>48457375000</v>
       </c>
       <c r="R80" s="13">
-        <v>52973000000</v>
+        <v>45659000000</v>
       </c>
       <c r="S80" s="13">
-        <v>48457375000</v>
+        <v>72357117647</v>
       </c>
       <c r="T80" s="13">
-        <v>45659000000</v>
+        <v>44172777778</v>
       </c>
       <c r="U80" s="13">
-        <v>72357117647</v>
-      </c>
-      <c r="V80" s="13">
-        <v>44172777778</v>
-      </c>
-      <c r="W80" s="13">
         <v>45441000000</v>
       </c>
+      <c r="V80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W80" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X80" s="13" t="s">
         <v>57</v>
       </c>
@@ -10333,41 +10333,41 @@
       <c r="AP80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR80" s="13" t="s">
-        <v>57</v>
+      <c r="AQ80" s="13">
+        <v>227443259</v>
+      </c>
+      <c r="AR80" s="13">
+        <v>180292555</v>
       </c>
       <c r="AS80" s="13">
-        <v>227443259</v>
+        <v>167830748</v>
       </c>
       <c r="AT80" s="13">
-        <v>181145040</v>
+        <v>144862298</v>
       </c>
       <c r="AU80" s="13">
-        <v>167830748</v>
+        <v>162421400</v>
       </c>
       <c r="AV80" s="13">
-        <v>149532371</v>
+        <v>160211110</v>
       </c>
       <c r="AW80" s="13">
-        <v>164588756</v>
+        <v>161732304</v>
       </c>
       <c r="AX80" s="13">
-        <v>160211110</v>
+        <v>149334173</v>
       </c>
       <c r="AY80" s="13">
-        <v>163455542</v>
+        <v>123846285</v>
       </c>
       <c r="AZ80" s="13">
-        <v>150062733</v>
+        <v>113332553</v>
       </c>
       <c r="BA80" s="13">
-        <v>123846285</v>
+        <v>113730692</v>
       </c>
       <c r="BB80" s="13">
-        <v>113394178</v>
+        <v>112943375</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -10438,65 +10438,65 @@
       <c r="X81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z81" s="11" t="s">
-        <v>57</v>
+      <c r="Y81" s="11">
+        <v>55255422</v>
+      </c>
+      <c r="Z81" s="11">
+        <v>63488177</v>
       </c>
       <c r="AA81" s="11">
-        <v>55255422</v>
+        <v>65809638</v>
       </c>
       <c r="AB81" s="11">
-        <v>63488177</v>
+        <v>74260274</v>
       </c>
       <c r="AC81" s="11">
-        <v>65809638</v>
+        <v>84655417</v>
       </c>
       <c r="AD81" s="11">
-        <v>74260274</v>
+        <v>111817130</v>
       </c>
       <c r="AE81" s="11">
-        <v>84655417</v>
+        <v>140207557</v>
       </c>
       <c r="AF81" s="11">
-        <v>111817130</v>
+        <v>150341519</v>
       </c>
       <c r="AG81" s="11">
-        <v>140207557</v>
+        <v>197960959</v>
       </c>
       <c r="AH81" s="11">
-        <v>150341519</v>
+        <v>210886215</v>
       </c>
       <c r="AI81" s="11">
-        <v>197960959</v>
+        <v>218944743</v>
       </c>
       <c r="AJ81" s="11">
-        <v>210886215</v>
+        <v>222840012</v>
       </c>
       <c r="AK81" s="11">
-        <v>218944743</v>
+        <v>218826323</v>
       </c>
       <c r="AL81" s="11">
-        <v>222840012</v>
+        <v>203697448</v>
       </c>
       <c r="AM81" s="11">
-        <v>218826323</v>
+        <v>192510247</v>
       </c>
       <c r="AN81" s="11">
-        <v>203697448</v>
+        <v>199377031</v>
       </c>
       <c r="AO81" s="11">
-        <v>192510247</v>
+        <v>265880655</v>
       </c>
       <c r="AP81" s="11">
-        <v>199377031</v>
-      </c>
-      <c r="AQ81" s="11">
-        <v>265880655</v>
-      </c>
-      <c r="AR81" s="11">
         <v>242113268</v>
+      </c>
+      <c r="AQ81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR81" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS81" s="11" t="s">
         <v>57</v>
@@ -10597,65 +10597,65 @@
       <c r="X82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z82" s="13" t="s">
-        <v>57</v>
+      <c r="Y82" s="13">
+        <v>20431152</v>
+      </c>
+      <c r="Z82" s="13">
+        <v>26285153</v>
       </c>
       <c r="AA82" s="13">
-        <v>20431152</v>
+        <v>32852138</v>
       </c>
       <c r="AB82" s="13">
-        <v>26285153</v>
+        <v>40642486</v>
       </c>
       <c r="AC82" s="13">
-        <v>32852138</v>
+        <v>52675831</v>
       </c>
       <c r="AD82" s="13">
-        <v>40642486</v>
+        <v>68615031</v>
       </c>
       <c r="AE82" s="13">
-        <v>52675831</v>
+        <v>77822925</v>
       </c>
       <c r="AF82" s="13">
-        <v>68615031</v>
+        <v>76835860</v>
       </c>
       <c r="AG82" s="13">
-        <v>77822925</v>
+        <v>72209630</v>
       </c>
       <c r="AH82" s="13">
-        <v>76835860</v>
+        <v>67326329</v>
       </c>
       <c r="AI82" s="13">
-        <v>72209630</v>
+        <v>67463596</v>
       </c>
       <c r="AJ82" s="13">
-        <v>67326329</v>
+        <v>63396222</v>
       </c>
       <c r="AK82" s="13">
-        <v>67463596</v>
+        <v>62448068</v>
       </c>
       <c r="AL82" s="13">
-        <v>63396222</v>
+        <v>71393102</v>
       </c>
       <c r="AM82" s="13">
-        <v>62448068</v>
+        <v>75944379</v>
       </c>
       <c r="AN82" s="13">
-        <v>71393102</v>
+        <v>90216342</v>
       </c>
       <c r="AO82" s="13">
-        <v>75944379</v>
+        <v>90682870</v>
       </c>
       <c r="AP82" s="13">
-        <v>90216342</v>
-      </c>
-      <c r="AQ82" s="13">
-        <v>90682870</v>
-      </c>
-      <c r="AR82" s="13">
         <v>85128495</v>
+      </c>
+      <c r="AQ82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS82" s="13" t="s">
         <v>57</v>
@@ -10756,65 +10756,65 @@
       <c r="X83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z83" s="11" t="s">
-        <v>57</v>
+      <c r="Y83" s="11">
+        <v>26581753</v>
+      </c>
+      <c r="Z83" s="11">
+        <v>28712225</v>
       </c>
       <c r="AA83" s="11">
-        <v>26581753</v>
+        <v>40621428</v>
       </c>
       <c r="AB83" s="11">
-        <v>28712225</v>
+        <v>49384344</v>
       </c>
       <c r="AC83" s="11">
-        <v>40621428</v>
+        <v>56441106</v>
       </c>
       <c r="AD83" s="11">
-        <v>49384344</v>
+        <v>71337700</v>
       </c>
       <c r="AE83" s="11">
-        <v>56441106</v>
+        <v>85126785</v>
       </c>
       <c r="AF83" s="11">
-        <v>71337700</v>
+        <v>72055972</v>
       </c>
       <c r="AG83" s="11">
-        <v>85126785</v>
+        <v>72522861</v>
       </c>
       <c r="AH83" s="11">
-        <v>72055972</v>
+        <v>70650641</v>
       </c>
       <c r="AI83" s="11">
-        <v>72522861</v>
+        <v>68540090</v>
       </c>
       <c r="AJ83" s="11">
-        <v>70650641</v>
+        <v>67638711</v>
       </c>
       <c r="AK83" s="11">
-        <v>68540090</v>
+        <v>67700172</v>
       </c>
       <c r="AL83" s="11">
-        <v>67638711</v>
+        <v>72519334</v>
       </c>
       <c r="AM83" s="11">
-        <v>67700172</v>
+        <v>76082783</v>
       </c>
       <c r="AN83" s="11">
-        <v>72519334</v>
+        <v>106280625</v>
       </c>
       <c r="AO83" s="11">
-        <v>76082783</v>
+        <v>89781628</v>
       </c>
       <c r="AP83" s="11">
-        <v>106280625</v>
-      </c>
-      <c r="AQ83" s="11">
-        <v>89781628</v>
-      </c>
-      <c r="AR83" s="11">
         <v>77190047</v>
+      </c>
+      <c r="AQ83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS83" s="11" t="s">
         <v>57</v>
@@ -10915,65 +10915,65 @@
       <c r="X84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z84" s="13" t="s">
-        <v>57</v>
+      <c r="Y84" s="13">
+        <v>32051500</v>
+      </c>
+      <c r="Z84" s="13">
+        <v>32594238</v>
       </c>
       <c r="AA84" s="13">
-        <v>32051500</v>
+        <v>39724161</v>
       </c>
       <c r="AB84" s="13">
-        <v>32594238</v>
+        <v>60528356</v>
       </c>
       <c r="AC84" s="13">
-        <v>39724161</v>
+        <v>60125701</v>
       </c>
       <c r="AD84" s="13">
-        <v>60528356</v>
+        <v>86215311</v>
       </c>
       <c r="AE84" s="13">
-        <v>60125701</v>
+        <v>83286411</v>
       </c>
       <c r="AF84" s="13">
-        <v>86215311</v>
+        <v>140699453</v>
       </c>
       <c r="AG84" s="13">
-        <v>83286411</v>
+        <v>176592577</v>
       </c>
       <c r="AH84" s="13">
-        <v>140699453</v>
+        <v>204859002</v>
       </c>
       <c r="AI84" s="13">
-        <v>176592577</v>
+        <v>173206849</v>
       </c>
       <c r="AJ84" s="13">
-        <v>204859002</v>
+        <v>183614155</v>
       </c>
       <c r="AK84" s="13">
-        <v>173206849</v>
+        <v>175189681</v>
       </c>
       <c r="AL84" s="13">
-        <v>183614155</v>
+        <v>210850962</v>
       </c>
       <c r="AM84" s="13">
-        <v>175189681</v>
+        <v>193233896</v>
       </c>
       <c r="AN84" s="13">
-        <v>210850962</v>
+        <v>179582702</v>
       </c>
       <c r="AO84" s="13">
-        <v>193233896</v>
+        <v>274472086</v>
       </c>
       <c r="AP84" s="13">
-        <v>179582702</v>
-      </c>
-      <c r="AQ84" s="13">
-        <v>274472086</v>
-      </c>
-      <c r="AR84" s="13">
         <v>265461150</v>
+      </c>
+      <c r="AQ84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS84" s="13" t="s">
         <v>57</v>
@@ -11101,68 +11101,68 @@
       <c r="AG85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI85" s="11" t="s">
-        <v>57</v>
+      <c r="AH85" s="11">
+        <v>8542394</v>
+      </c>
+      <c r="AI85" s="11">
+        <v>5664041</v>
       </c>
       <c r="AJ85" s="11">
-        <v>8542394</v>
+        <v>6518583</v>
       </c>
       <c r="AK85" s="11">
-        <v>5664041</v>
+        <v>7049071</v>
       </c>
       <c r="AL85" s="11">
-        <v>6518583</v>
+        <v>6391902</v>
       </c>
       <c r="AM85" s="11">
-        <v>7049071</v>
+        <v>7827133</v>
       </c>
       <c r="AN85" s="11">
-        <v>6391902</v>
+        <v>8214167</v>
       </c>
       <c r="AO85" s="11">
-        <v>7827133</v>
+        <v>135000000</v>
       </c>
       <c r="AP85" s="11">
-        <v>8214167</v>
+        <v>11600711</v>
       </c>
       <c r="AQ85" s="11">
-        <v>135000000</v>
+        <v>11307991</v>
       </c>
       <c r="AR85" s="11">
-        <v>11600711</v>
+        <v>12971438</v>
       </c>
       <c r="AS85" s="11">
-        <v>11307991</v>
+        <v>14359050</v>
       </c>
       <c r="AT85" s="11">
-        <v>12974115</v>
+        <v>13077541</v>
       </c>
       <c r="AU85" s="11">
-        <v>14359050</v>
+        <v>6290394</v>
       </c>
       <c r="AV85" s="11">
-        <v>13077541</v>
+        <v>4041606</v>
       </c>
       <c r="AW85" s="11">
-        <v>6290394</v>
+        <v>21964784</v>
       </c>
       <c r="AX85" s="11">
-        <v>3550725</v>
+        <v>6311205</v>
       </c>
       <c r="AY85" s="11">
-        <v>21964784</v>
+        <v>5344554</v>
       </c>
       <c r="AZ85" s="11">
-        <v>6311205</v>
+        <v>7744200</v>
       </c>
       <c r="BA85" s="11">
-        <v>5344554</v>
+        <v>11440622</v>
       </c>
       <c r="BB85" s="11">
-        <v>7744200</v>
+        <v>6923313</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11224,20 +11224,20 @@
       <c r="U86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W86" s="13" t="s">
-        <v>57</v>
+      <c r="V86" s="13">
+        <v>22300667</v>
+      </c>
+      <c r="W86" s="13">
+        <v>18907869</v>
       </c>
       <c r="X86" s="13">
-        <v>22300667</v>
-      </c>
-      <c r="Y86" s="13">
-        <v>18907869</v>
-      </c>
-      <c r="Z86" s="13">
         <v>20350299</v>
+      </c>
+      <c r="Y86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z86" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA86" s="13" t="s">
         <v>57</v>
@@ -11383,20 +11383,20 @@
       <c r="U87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V87" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W87" s="11" t="s">
-        <v>57</v>
+      <c r="V87" s="11">
+        <v>52667197</v>
+      </c>
+      <c r="W87" s="11">
+        <v>32552382</v>
       </c>
       <c r="X87" s="11">
-        <v>52667197</v>
-      </c>
-      <c r="Y87" s="11">
-        <v>32552382</v>
-      </c>
-      <c r="Z87" s="11">
         <v>39030516</v>
+      </c>
+      <c r="Y87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA87" s="11" t="s">
         <v>57</v>

--- a/database/industries/methanol/shefan/product/monthly.xlsx
+++ b/database/industries/methanol/shefan/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shefan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBC0DE7-9AD6-461D-9B99-194FB9F77511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5251146-17B8-4A0E-BCD9-B653E91F5748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شفن-پتروشیمی فناوران</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>هیدروژن</t>
@@ -757,12 +757,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -817,7 +817,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -986,7 +986,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1155,7 +1155,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1367,7 +1367,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1433,92 +1433,92 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="11">
         <v>8</v>
       </c>
       <c r="H11" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I11" s="11">
         <v>8</v>
       </c>
       <c r="J11" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K11" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" s="11">
         <v>7</v>
       </c>
       <c r="M11" s="11">
+        <v>6</v>
+      </c>
+      <c r="N11" s="11">
+        <v>9</v>
+      </c>
+      <c r="O11" s="11">
+        <v>9</v>
+      </c>
+      <c r="P11" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="11">
         <v>7</v>
       </c>
-      <c r="N11" s="11">
-        <v>7</v>
-      </c>
-      <c r="O11" s="11">
-        <v>6</v>
-      </c>
-      <c r="P11" s="11">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>9</v>
-      </c>
       <c r="R11" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S11" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T11" s="11">
-        <v>5</v>
+        <v>7570</v>
       </c>
       <c r="U11" s="11">
-        <v>8</v>
+        <v>7029</v>
       </c>
       <c r="V11" s="11">
-        <v>7570</v>
+        <v>7701</v>
       </c>
       <c r="W11" s="11">
-        <v>7029</v>
+        <v>7145</v>
       </c>
       <c r="X11" s="11">
-        <v>7701</v>
+        <v>7052</v>
       </c>
       <c r="Y11" s="11">
-        <v>7145</v>
+        <v>6706</v>
       </c>
       <c r="Z11" s="11">
-        <v>7052</v>
+        <v>4730</v>
       </c>
       <c r="AA11" s="11">
-        <v>6706</v>
+        <v>3519</v>
       </c>
       <c r="AB11" s="11">
-        <v>4730</v>
+        <v>6590</v>
       </c>
       <c r="AC11" s="11">
-        <v>3519</v>
+        <v>2192</v>
       </c>
       <c r="AD11" s="11">
-        <v>6590</v>
+        <v>5232</v>
       </c>
       <c r="AE11" s="11">
-        <v>2192</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>5232</v>
-      </c>
-      <c r="AG11" s="11">
         <v>5491</v>
       </c>
+      <c r="AF11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1592,157 +1592,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H12" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I12" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12" s="13">
         <v>5</v>
       </c>
       <c r="L12" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M12" s="13">
         <v>5</v>
       </c>
       <c r="N12" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O12" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P12" s="13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q12" s="13">
+        <v>9</v>
+      </c>
+      <c r="R12" s="13">
         <v>8</v>
       </c>
-      <c r="R12" s="13">
-        <v>9</v>
-      </c>
       <c r="S12" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T12" s="13">
-        <v>8</v>
+        <v>8590</v>
       </c>
       <c r="U12" s="13">
-        <v>8</v>
+        <v>7557</v>
       </c>
       <c r="V12" s="13">
-        <v>8590</v>
+        <v>8551</v>
       </c>
       <c r="W12" s="13">
-        <v>7557</v>
+        <v>8769</v>
       </c>
       <c r="X12" s="13">
-        <v>8551</v>
+        <v>8659</v>
       </c>
       <c r="Y12" s="13">
-        <v>8769</v>
+        <v>9259</v>
       </c>
       <c r="Z12" s="13">
-        <v>8659</v>
+        <v>9187</v>
       </c>
       <c r="AA12" s="13">
-        <v>9259</v>
+        <v>9394</v>
       </c>
       <c r="AB12" s="13">
-        <v>9187</v>
+        <v>9058</v>
       </c>
       <c r="AC12" s="13">
-        <v>9394</v>
+        <v>9659</v>
       </c>
       <c r="AD12" s="13">
-        <v>9058</v>
+        <v>9662</v>
       </c>
       <c r="AE12" s="13">
-        <v>9659</v>
+        <v>9440</v>
       </c>
       <c r="AF12" s="13">
-        <v>9662</v>
+        <v>9678</v>
       </c>
       <c r="AG12" s="13">
-        <v>9440</v>
+        <v>6314</v>
       </c>
       <c r="AH12" s="13">
-        <v>9678</v>
+        <v>8038</v>
       </c>
       <c r="AI12" s="13">
-        <v>6314</v>
+        <v>8363</v>
       </c>
       <c r="AJ12" s="13">
-        <v>8038</v>
+        <v>8156</v>
       </c>
       <c r="AK12" s="13">
-        <v>8363</v>
+        <v>8988</v>
       </c>
       <c r="AL12" s="13">
-        <v>8156</v>
+        <v>9257</v>
       </c>
       <c r="AM12" s="13">
-        <v>8988</v>
+        <v>9178</v>
       </c>
       <c r="AN12" s="13">
-        <v>9257</v>
+        <v>9420</v>
       </c>
       <c r="AO12" s="13">
-        <v>9178</v>
+        <v>8814</v>
       </c>
       <c r="AP12" s="13">
-        <v>9420</v>
+        <v>9533</v>
       </c>
       <c r="AQ12" s="13">
-        <v>8814</v>
+        <v>9123</v>
       </c>
       <c r="AR12" s="13">
-        <v>9533</v>
+        <v>8406</v>
       </c>
       <c r="AS12" s="13">
-        <v>9123</v>
+        <v>8039</v>
       </c>
       <c r="AT12" s="13">
-        <v>8406</v>
+        <v>2656</v>
       </c>
       <c r="AU12" s="13">
-        <v>8039</v>
+        <v>6992</v>
       </c>
       <c r="AV12" s="13">
-        <v>2656</v>
+        <v>7692</v>
       </c>
       <c r="AW12" s="13">
-        <v>6992</v>
+        <v>9280</v>
       </c>
       <c r="AX12" s="13">
-        <v>7692</v>
+        <v>8800</v>
       </c>
       <c r="AY12" s="13">
-        <v>9280</v>
+        <v>9781</v>
       </c>
       <c r="AZ12" s="13">
-        <v>8800</v>
+        <v>9870</v>
       </c>
       <c r="BA12" s="13">
-        <v>9781</v>
+        <v>9098</v>
       </c>
       <c r="BB12" s="13">
-        <v>9870</v>
+        <v>6978</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1754,53 +1754,53 @@
         <v>88</v>
       </c>
       <c r="F13" s="11">
+        <v>87</v>
+      </c>
+      <c r="G13" s="11">
+        <v>84</v>
+      </c>
+      <c r="H13" s="11">
+        <v>89</v>
+      </c>
+      <c r="I13" s="11">
+        <v>87</v>
+      </c>
+      <c r="J13" s="11">
         <v>83</v>
       </c>
-      <c r="G13" s="11">
-        <v>88</v>
-      </c>
-      <c r="H13" s="11">
-        <v>87</v>
-      </c>
-      <c r="I13" s="11">
-        <v>84</v>
-      </c>
-      <c r="J13" s="11">
-        <v>89</v>
-      </c>
       <c r="K13" s="11">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L13" s="11">
+        <v>81</v>
+      </c>
+      <c r="M13" s="11">
+        <v>68</v>
+      </c>
+      <c r="N13" s="11">
         <v>83</v>
       </c>
-      <c r="M13" s="11">
+      <c r="O13" s="11">
+        <v>85</v>
+      </c>
+      <c r="P13" s="11">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="11">
         <v>80</v>
       </c>
-      <c r="N13" s="11">
-        <v>81</v>
-      </c>
-      <c r="O13" s="11">
-        <v>68</v>
-      </c>
-      <c r="P13" s="11">
-        <v>83</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>85</v>
-      </c>
       <c r="R13" s="11">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="S13" s="11">
-        <v>80</v>
-      </c>
-      <c r="T13" s="11">
-        <v>67</v>
-      </c>
-      <c r="U13" s="11">
         <v>82</v>
       </c>
+      <c r="T13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1858,50 +1858,50 @@
       <c r="AN13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP13" s="11" t="s">
-        <v>57</v>
+      <c r="AO13" s="11">
+        <v>79793</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>83864</v>
       </c>
       <c r="AQ13" s="11">
-        <v>79793</v>
+        <v>76777</v>
       </c>
       <c r="AR13" s="11">
-        <v>83864</v>
+        <v>78293</v>
       </c>
       <c r="AS13" s="11">
-        <v>76777</v>
+        <v>82482</v>
       </c>
       <c r="AT13" s="11">
-        <v>78293</v>
+        <v>80935</v>
       </c>
       <c r="AU13" s="11">
-        <v>82482</v>
+        <v>71720</v>
       </c>
       <c r="AV13" s="11">
-        <v>80935</v>
+        <v>75709</v>
       </c>
       <c r="AW13" s="11">
-        <v>71720</v>
+        <v>75763</v>
       </c>
       <c r="AX13" s="11">
-        <v>75709</v>
+        <v>54860</v>
       </c>
       <c r="AY13" s="11">
-        <v>75763</v>
+        <v>110021</v>
       </c>
       <c r="AZ13" s="11">
-        <v>54860</v>
+        <v>71764</v>
       </c>
       <c r="BA13" s="11">
-        <v>68887</v>
+        <v>21171</v>
       </c>
       <c r="BB13" s="11">
-        <v>71764</v>
+        <v>57065</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1910,55 +1910,55 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13">
+        <v>12</v>
+      </c>
+      <c r="G14" s="13">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>9</v>
+      </c>
+      <c r="I14" s="13">
         <v>8</v>
       </c>
-      <c r="F14" s="13">
-        <v>10</v>
-      </c>
-      <c r="G14" s="13">
-        <v>12</v>
-      </c>
-      <c r="H14" s="13">
-        <v>12</v>
-      </c>
-      <c r="I14" s="13">
-        <v>5</v>
-      </c>
       <c r="J14" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K14" s="13">
+        <v>6</v>
+      </c>
+      <c r="L14" s="13">
         <v>8</v>
-      </c>
-      <c r="L14" s="13">
-        <v>4</v>
       </c>
       <c r="M14" s="13">
         <v>6</v>
       </c>
       <c r="N14" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O14" s="13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P14" s="13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R14" s="13">
         <v>11</v>
       </c>
       <c r="S14" s="13">
-        <v>13</v>
-      </c>
-      <c r="T14" s="13">
         <v>11</v>
       </c>
-      <c r="U14" s="13">
-        <v>11</v>
+      <c r="T14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V14" s="13" t="s">
         <v>57</v>
@@ -2017,50 +2017,50 @@
       <c r="AN14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP14" s="13" t="s">
-        <v>57</v>
+      <c r="AO14" s="13">
+        <v>12204</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>12564</v>
       </c>
       <c r="AQ14" s="13">
-        <v>12204</v>
+        <v>11631</v>
       </c>
       <c r="AR14" s="13">
-        <v>12564</v>
+        <v>11881</v>
       </c>
       <c r="AS14" s="13">
-        <v>11631</v>
+        <v>10774</v>
       </c>
       <c r="AT14" s="13">
-        <v>11881</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="13">
-        <v>10774</v>
+        <v>9401</v>
       </c>
       <c r="AV14" s="13">
-        <v>0</v>
+        <v>11009</v>
       </c>
       <c r="AW14" s="13">
-        <v>9401</v>
+        <v>13947</v>
       </c>
       <c r="AX14" s="13">
-        <v>11009</v>
+        <v>13523</v>
       </c>
       <c r="AY14" s="13">
-        <v>13947</v>
+        <v>14198</v>
       </c>
       <c r="AZ14" s="13">
-        <v>13523</v>
+        <v>11983</v>
       </c>
       <c r="BA14" s="13">
-        <v>14198</v>
+        <v>11848</v>
       </c>
       <c r="BB14" s="13">
-        <v>11983</v>
+        <v>9951</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2122,66 +2122,66 @@
       <c r="V15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>57</v>
+      <c r="W15" s="11">
+        <v>6638</v>
+      </c>
+      <c r="X15" s="11">
+        <v>9186</v>
       </c>
       <c r="Y15" s="11">
-        <v>6638</v>
+        <v>10542</v>
       </c>
       <c r="Z15" s="11">
-        <v>9186</v>
+        <v>6633</v>
       </c>
       <c r="AA15" s="11">
-        <v>10542</v>
+        <v>6169</v>
       </c>
       <c r="AB15" s="11">
-        <v>6633</v>
+        <v>5074</v>
       </c>
       <c r="AC15" s="11">
-        <v>6169</v>
+        <v>6669</v>
       </c>
       <c r="AD15" s="11">
-        <v>5074</v>
+        <v>6761</v>
       </c>
       <c r="AE15" s="11">
-        <v>6669</v>
+        <v>5675</v>
       </c>
       <c r="AF15" s="11">
-        <v>6761</v>
+        <v>12973</v>
       </c>
       <c r="AG15" s="11">
-        <v>5675</v>
+        <v>3505</v>
       </c>
       <c r="AH15" s="11">
-        <v>12973</v>
+        <v>6005</v>
       </c>
       <c r="AI15" s="11">
-        <v>3505</v>
+        <v>6092</v>
       </c>
       <c r="AJ15" s="11">
-        <v>6005</v>
+        <v>11728</v>
       </c>
       <c r="AK15" s="11">
-        <v>6092</v>
+        <v>6371</v>
       </c>
       <c r="AL15" s="11">
-        <v>11728</v>
+        <v>7252</v>
       </c>
       <c r="AM15" s="11">
-        <v>6371</v>
+        <v>7207</v>
       </c>
       <c r="AN15" s="11">
-        <v>7252</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>7207</v>
-      </c>
-      <c r="AP15" s="11">
         <v>6506</v>
       </c>
+      <c r="AO15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2281,66 +2281,66 @@
       <c r="V16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>57</v>
+      <c r="W16" s="13">
+        <v>10931</v>
+      </c>
+      <c r="X16" s="13">
+        <v>16111</v>
       </c>
       <c r="Y16" s="13">
-        <v>10931</v>
+        <v>21312</v>
       </c>
       <c r="Z16" s="13">
-        <v>16111</v>
+        <v>19485</v>
       </c>
       <c r="AA16" s="13">
-        <v>21312</v>
+        <v>16785</v>
       </c>
       <c r="AB16" s="13">
-        <v>19485</v>
+        <v>20795</v>
       </c>
       <c r="AC16" s="13">
-        <v>16785</v>
+        <v>34861</v>
       </c>
       <c r="AD16" s="13">
-        <v>20795</v>
+        <v>17511</v>
       </c>
       <c r="AE16" s="13">
-        <v>34861</v>
+        <v>27370</v>
       </c>
       <c r="AF16" s="13">
-        <v>17511</v>
+        <v>11532</v>
       </c>
       <c r="AG16" s="13">
-        <v>27370</v>
+        <v>44965</v>
       </c>
       <c r="AH16" s="13">
-        <v>11532</v>
+        <v>20251</v>
       </c>
       <c r="AI16" s="13">
-        <v>44965</v>
+        <v>23457</v>
       </c>
       <c r="AJ16" s="13">
-        <v>20251</v>
+        <v>14147</v>
       </c>
       <c r="AK16" s="13">
-        <v>23457</v>
+        <v>25698</v>
       </c>
       <c r="AL16" s="13">
-        <v>14147</v>
+        <v>17713</v>
       </c>
       <c r="AM16" s="13">
-        <v>25698</v>
+        <v>17073</v>
       </c>
       <c r="AN16" s="13">
-        <v>17713</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>17073</v>
-      </c>
-      <c r="AP16" s="13">
         <v>18028</v>
       </c>
+      <c r="AO16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ16" s="13" t="s">
         <v>57</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2440,66 +2440,66 @@
       <c r="V17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>57</v>
+      <c r="W17" s="11">
+        <v>66455</v>
+      </c>
+      <c r="X17" s="11">
+        <v>60310</v>
       </c>
       <c r="Y17" s="11">
-        <v>66455</v>
+        <v>62424</v>
       </c>
       <c r="Z17" s="11">
-        <v>60310</v>
+        <v>58844</v>
       </c>
       <c r="AA17" s="11">
-        <v>62424</v>
+        <v>64256</v>
       </c>
       <c r="AB17" s="11">
-        <v>58844</v>
+        <v>58813</v>
       </c>
       <c r="AC17" s="11">
-        <v>64256</v>
+        <v>42062</v>
       </c>
       <c r="AD17" s="11">
-        <v>58813</v>
+        <v>61872</v>
       </c>
       <c r="AE17" s="11">
-        <v>42062</v>
+        <v>45416</v>
       </c>
       <c r="AF17" s="11">
-        <v>61872</v>
+        <v>38497</v>
       </c>
       <c r="AG17" s="11">
-        <v>45416</v>
+        <v>37751</v>
       </c>
       <c r="AH17" s="11">
-        <v>38497</v>
+        <v>65527</v>
       </c>
       <c r="AI17" s="11">
-        <v>37751</v>
+        <v>58200</v>
       </c>
       <c r="AJ17" s="11">
-        <v>65527</v>
+        <v>68051</v>
       </c>
       <c r="AK17" s="11">
-        <v>58200</v>
+        <v>54147</v>
       </c>
       <c r="AL17" s="11">
-        <v>68051</v>
+        <v>60735</v>
       </c>
       <c r="AM17" s="11">
-        <v>54147</v>
+        <v>61740</v>
       </c>
       <c r="AN17" s="11">
-        <v>60735</v>
-      </c>
-      <c r="AO17" s="11">
-        <v>61740</v>
-      </c>
-      <c r="AP17" s="11">
         <v>61853</v>
       </c>
+      <c r="AO17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP17" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ17" s="11" t="s">
         <v>57</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2599,66 +2599,66 @@
       <c r="V18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>57</v>
+      <c r="W18" s="13">
+        <v>5754</v>
+      </c>
+      <c r="X18" s="13">
+        <v>2635</v>
       </c>
       <c r="Y18" s="13">
-        <v>5754</v>
+        <v>3459</v>
       </c>
       <c r="Z18" s="13">
-        <v>2635</v>
+        <v>6943</v>
       </c>
       <c r="AA18" s="13">
-        <v>3459</v>
+        <v>7323</v>
       </c>
       <c r="AB18" s="13">
-        <v>6943</v>
+        <v>2842</v>
       </c>
       <c r="AC18" s="13">
-        <v>7323</v>
+        <v>6769</v>
       </c>
       <c r="AD18" s="13">
-        <v>2842</v>
+        <v>6879</v>
       </c>
       <c r="AE18" s="13">
-        <v>6769</v>
+        <v>7498</v>
       </c>
       <c r="AF18" s="13">
-        <v>6879</v>
+        <v>1116</v>
       </c>
       <c r="AG18" s="13">
-        <v>7498</v>
+        <v>5790</v>
       </c>
       <c r="AH18" s="13">
-        <v>1116</v>
+        <v>5768</v>
       </c>
       <c r="AI18" s="13">
-        <v>5790</v>
+        <v>5230</v>
       </c>
       <c r="AJ18" s="13">
-        <v>5768</v>
+        <v>344</v>
       </c>
       <c r="AK18" s="13">
-        <v>5230</v>
+        <v>6796</v>
       </c>
       <c r="AL18" s="13">
-        <v>344</v>
+        <v>5767</v>
       </c>
       <c r="AM18" s="13">
-        <v>6796</v>
+        <v>6426</v>
       </c>
       <c r="AN18" s="13">
-        <v>5767</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>6426</v>
-      </c>
-      <c r="AP18" s="13">
         <v>3386</v>
       </c>
+      <c r="AO18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2785,77 +2785,77 @@
       <c r="AE19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG19" s="11" t="s">
-        <v>57</v>
+      <c r="AF19" s="11">
+        <v>3267</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>5331</v>
       </c>
       <c r="AH19" s="11">
-        <v>3267</v>
+        <v>5166</v>
       </c>
       <c r="AI19" s="11">
-        <v>5331</v>
+        <v>2853</v>
       </c>
       <c r="AJ19" s="11">
-        <v>5166</v>
+        <v>5236</v>
       </c>
       <c r="AK19" s="11">
-        <v>2853</v>
+        <v>3199</v>
       </c>
       <c r="AL19" s="11">
-        <v>5236</v>
+        <v>2414</v>
       </c>
       <c r="AM19" s="11">
-        <v>3199</v>
+        <v>97</v>
       </c>
       <c r="AN19" s="11">
-        <v>2414</v>
+        <v>2249</v>
       </c>
       <c r="AO19" s="11">
-        <v>97</v>
+        <v>1802</v>
       </c>
       <c r="AP19" s="11">
-        <v>2249</v>
+        <v>4211</v>
       </c>
       <c r="AQ19" s="11">
-        <v>1802</v>
+        <v>2696</v>
       </c>
       <c r="AR19" s="11">
-        <v>4211</v>
+        <v>2863</v>
       </c>
       <c r="AS19" s="11">
-        <v>2696</v>
+        <v>5403</v>
       </c>
       <c r="AT19" s="11">
-        <v>2863</v>
+        <v>4071</v>
       </c>
       <c r="AU19" s="11">
-        <v>5403</v>
+        <v>1363</v>
       </c>
       <c r="AV19" s="11">
-        <v>4071</v>
+        <v>4447</v>
       </c>
       <c r="AW19" s="11">
-        <v>1363</v>
+        <v>4159</v>
       </c>
       <c r="AX19" s="11">
-        <v>4248</v>
+        <v>1681</v>
       </c>
       <c r="AY19" s="11">
-        <v>4159</v>
+        <v>4564</v>
       </c>
       <c r="AZ19" s="11">
-        <v>1681</v>
+        <v>3260</v>
       </c>
       <c r="BA19" s="11">
-        <v>4564</v>
+        <v>912</v>
       </c>
       <c r="BB19" s="11">
-        <v>3260</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2908,21 +2908,21 @@
       <c r="S20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>57</v>
+      <c r="T20" s="13">
+        <v>87380</v>
+      </c>
+      <c r="U20" s="13">
+        <v>84994</v>
       </c>
       <c r="V20" s="13">
-        <v>87380</v>
-      </c>
-      <c r="W20" s="13">
-        <v>84994</v>
-      </c>
-      <c r="X20" s="13">
         <v>85081</v>
       </c>
+      <c r="W20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y20" s="13" t="s">
         <v>57</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3067,21 +3067,21 @@
       <c r="S21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>57</v>
+      <c r="T21" s="11">
+        <v>11850</v>
+      </c>
+      <c r="U21" s="11">
+        <v>10569</v>
       </c>
       <c r="V21" s="11">
-        <v>11850</v>
-      </c>
-      <c r="W21" s="11">
-        <v>10569</v>
-      </c>
-      <c r="X21" s="11">
         <v>12262</v>
       </c>
+      <c r="W21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X21" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y21" s="11" t="s">
         <v>57</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>69</v>
       </c>
@@ -3230,7 +3230,7 @@
       <c r="BA22" s="15"/>
       <c r="BB22" s="15"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>70</v>
       </c>
@@ -3290,11 +3290,11 @@
       <c r="V23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X23" s="17" t="s">
-        <v>57</v>
+      <c r="W23" s="17">
+        <v>0</v>
+      </c>
+      <c r="X23" s="17">
+        <v>0</v>
       </c>
       <c r="Y23" s="17">
         <v>0</v>
@@ -3387,164 +3387,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19">
+        <v>116</v>
+      </c>
+      <c r="F24" s="19">
+        <v>116</v>
+      </c>
+      <c r="G24" s="19">
+        <v>101</v>
+      </c>
+      <c r="H24" s="19">
         <v>110</v>
       </c>
-      <c r="F24" s="19">
+      <c r="I24" s="19">
         <v>108</v>
       </c>
-      <c r="G24" s="19">
+      <c r="J24" s="19">
+        <v>97</v>
+      </c>
+      <c r="K24" s="19">
+        <v>98</v>
+      </c>
+      <c r="L24" s="19">
+        <v>102</v>
+      </c>
+      <c r="M24" s="19">
+        <v>85</v>
+      </c>
+      <c r="N24" s="19">
+        <v>101</v>
+      </c>
+      <c r="O24" s="19">
+        <v>113</v>
+      </c>
+      <c r="P24" s="19">
         <v>116</v>
       </c>
-      <c r="H24" s="19">
-        <v>116</v>
-      </c>
-      <c r="I24" s="19">
-        <v>101</v>
-      </c>
-      <c r="J24" s="19">
-        <v>110</v>
-      </c>
-      <c r="K24" s="19">
-        <v>108</v>
-      </c>
-      <c r="L24" s="19">
-        <v>97</v>
-      </c>
-      <c r="M24" s="19">
-        <v>98</v>
-      </c>
-      <c r="N24" s="19">
-        <v>102</v>
-      </c>
-      <c r="O24" s="19">
-        <v>85</v>
-      </c>
-      <c r="P24" s="19">
-        <v>101</v>
-      </c>
       <c r="Q24" s="19">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R24" s="19">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="S24" s="19">
         <v>109</v>
       </c>
       <c r="T24" s="19">
-        <v>91</v>
+        <v>115390</v>
       </c>
       <c r="U24" s="19">
-        <v>109</v>
+        <v>110149</v>
       </c>
       <c r="V24" s="19">
-        <v>115390</v>
+        <v>113595</v>
       </c>
       <c r="W24" s="19">
-        <v>110149</v>
+        <v>105692</v>
       </c>
       <c r="X24" s="19">
-        <v>113595</v>
+        <v>103953</v>
       </c>
       <c r="Y24" s="19">
-        <v>105692</v>
+        <v>113702</v>
       </c>
       <c r="Z24" s="19">
-        <v>103953</v>
+        <v>105822</v>
       </c>
       <c r="AA24" s="19">
-        <v>113702</v>
+        <v>107446</v>
       </c>
       <c r="AB24" s="19">
-        <v>105822</v>
+        <v>103172</v>
       </c>
       <c r="AC24" s="19">
-        <v>107446</v>
+        <v>102212</v>
       </c>
       <c r="AD24" s="19">
-        <v>103172</v>
+        <v>107917</v>
       </c>
       <c r="AE24" s="19">
-        <v>102212</v>
+        <v>100890</v>
       </c>
       <c r="AF24" s="19">
-        <v>107917</v>
+        <v>77063</v>
       </c>
       <c r="AG24" s="19">
-        <v>100890</v>
+        <v>103656</v>
       </c>
       <c r="AH24" s="19">
-        <v>77063</v>
+        <v>110755</v>
       </c>
       <c r="AI24" s="19">
-        <v>103656</v>
+        <v>104195</v>
       </c>
       <c r="AJ24" s="19">
-        <v>110755</v>
+        <v>107662</v>
       </c>
       <c r="AK24" s="19">
-        <v>104195</v>
+        <v>105199</v>
       </c>
       <c r="AL24" s="19">
-        <v>107662</v>
+        <v>103138</v>
       </c>
       <c r="AM24" s="19">
-        <v>105199</v>
+        <v>101721</v>
       </c>
       <c r="AN24" s="19">
-        <v>103138</v>
+        <v>101442</v>
       </c>
       <c r="AO24" s="19">
-        <v>101721</v>
+        <v>102613</v>
       </c>
       <c r="AP24" s="19">
-        <v>101442</v>
+        <v>110172</v>
       </c>
       <c r="AQ24" s="19">
-        <v>102613</v>
+        <v>100227</v>
       </c>
       <c r="AR24" s="19">
-        <v>110172</v>
+        <v>101443</v>
       </c>
       <c r="AS24" s="19">
-        <v>100227</v>
+        <v>106698</v>
       </c>
       <c r="AT24" s="19">
-        <v>101443</v>
+        <v>87662</v>
       </c>
       <c r="AU24" s="19">
-        <v>106698</v>
+        <v>89476</v>
       </c>
       <c r="AV24" s="19">
-        <v>87662</v>
+        <v>98857</v>
       </c>
       <c r="AW24" s="19">
-        <v>89476</v>
+        <v>103149</v>
       </c>
       <c r="AX24" s="19">
-        <v>98658</v>
+        <v>78864</v>
       </c>
       <c r="AY24" s="19">
-        <v>103149</v>
+        <v>138564</v>
       </c>
       <c r="AZ24" s="19">
-        <v>78864</v>
+        <v>96877</v>
       </c>
       <c r="BA24" s="19">
-        <v>97430</v>
+        <v>43029</v>
       </c>
       <c r="BB24" s="19">
-        <v>96877</v>
+        <v>74968</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3599,7 +3599,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3654,7 +3654,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3709,7 +3709,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>72</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3921,7 +3921,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>72</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3987,92 +3987,92 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F31" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" s="11">
         <v>8</v>
       </c>
       <c r="H31" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I31" s="11">
         <v>8</v>
       </c>
       <c r="J31" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K31" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L31" s="11">
         <v>7</v>
       </c>
       <c r="M31" s="11">
+        <v>6</v>
+      </c>
+      <c r="N31" s="11">
+        <v>9</v>
+      </c>
+      <c r="O31" s="11">
+        <v>9</v>
+      </c>
+      <c r="P31" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="11">
         <v>7</v>
       </c>
-      <c r="N31" s="11">
-        <v>7</v>
-      </c>
-      <c r="O31" s="11">
-        <v>6</v>
-      </c>
-      <c r="P31" s="11">
-        <v>9</v>
-      </c>
-      <c r="Q31" s="11">
-        <v>9</v>
-      </c>
       <c r="R31" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S31" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T31" s="11">
-        <v>5</v>
+        <v>7570</v>
       </c>
       <c r="U31" s="11">
-        <v>8</v>
+        <v>7029</v>
       </c>
       <c r="V31" s="11">
-        <v>7570</v>
+        <v>7702</v>
       </c>
       <c r="W31" s="11">
-        <v>7029</v>
+        <v>7144</v>
       </c>
       <c r="X31" s="11">
-        <v>7702</v>
+        <v>7012</v>
       </c>
       <c r="Y31" s="11">
-        <v>7144</v>
+        <v>6655</v>
       </c>
       <c r="Z31" s="11">
-        <v>7012</v>
+        <v>4729</v>
       </c>
       <c r="AA31" s="11">
-        <v>6655</v>
+        <v>3519</v>
       </c>
       <c r="AB31" s="11">
-        <v>4729</v>
+        <v>6590</v>
       </c>
       <c r="AC31" s="11">
-        <v>3519</v>
+        <v>2193</v>
       </c>
       <c r="AD31" s="11">
-        <v>6590</v>
+        <v>5233</v>
       </c>
       <c r="AE31" s="11">
-        <v>2193</v>
-      </c>
-      <c r="AF31" s="11">
-        <v>5233</v>
-      </c>
-      <c r="AG31" s="11">
         <v>5491</v>
       </c>
+      <c r="AF31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG31" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH31" s="11" t="s">
         <v>57</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>58</v>
       </c>
@@ -4146,10 +4146,10 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="13">
         <v>1</v>
@@ -4164,22 +4164,22 @@
         <v>1</v>
       </c>
       <c r="K32" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" s="13">
         <v>2</v>
       </c>
       <c r="N32" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O32" s="13">
         <v>2</v>
       </c>
       <c r="P32" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="13">
         <v>2</v>
@@ -4191,112 +4191,112 @@
         <v>2</v>
       </c>
       <c r="T32" s="13">
-        <v>2</v>
+        <v>1690</v>
       </c>
       <c r="U32" s="13">
-        <v>2</v>
+        <v>1571</v>
       </c>
       <c r="V32" s="13">
-        <v>1690</v>
+        <v>1645</v>
       </c>
       <c r="W32" s="13">
-        <v>1571</v>
+        <v>1397</v>
       </c>
       <c r="X32" s="13">
-        <v>1645</v>
+        <v>1426</v>
       </c>
       <c r="Y32" s="13">
-        <v>1397</v>
+        <v>1481</v>
       </c>
       <c r="Z32" s="13">
-        <v>1426</v>
+        <v>1467</v>
       </c>
       <c r="AA32" s="13">
+        <v>1577</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>1446</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>1786</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>1764</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>1517</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>1680</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>858</v>
+      </c>
+      <c r="AH32" s="13">
+        <v>1371</v>
+      </c>
+      <c r="AI32" s="13">
+        <v>1424</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>1266</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>1605</v>
+      </c>
+      <c r="AL32" s="13">
         <v>1481</v>
       </c>
-      <c r="AB32" s="13">
-        <v>1467</v>
-      </c>
-      <c r="AC32" s="13">
-        <v>1577</v>
-      </c>
-      <c r="AD32" s="13">
-        <v>1446</v>
-      </c>
-      <c r="AE32" s="13">
-        <v>1786</v>
-      </c>
-      <c r="AF32" s="13">
-        <v>1764</v>
-      </c>
-      <c r="AG32" s="13">
-        <v>1517</v>
-      </c>
-      <c r="AH32" s="13">
-        <v>1680</v>
-      </c>
-      <c r="AI32" s="13">
-        <v>858</v>
-      </c>
-      <c r="AJ32" s="13">
-        <v>1371</v>
-      </c>
-      <c r="AK32" s="13">
-        <v>1424</v>
-      </c>
-      <c r="AL32" s="13">
-        <v>1266</v>
-      </c>
       <c r="AM32" s="13">
-        <v>1605</v>
+        <v>1076</v>
       </c>
       <c r="AN32" s="13">
-        <v>1481</v>
+        <v>1204</v>
       </c>
       <c r="AO32" s="13">
-        <v>1076</v>
+        <v>579</v>
       </c>
       <c r="AP32" s="13">
-        <v>1204</v>
+        <v>1014</v>
       </c>
       <c r="AQ32" s="13">
-        <v>579</v>
+        <v>929</v>
       </c>
       <c r="AR32" s="13">
-        <v>1014</v>
+        <v>883</v>
       </c>
       <c r="AS32" s="13">
-        <v>929</v>
+        <v>1243</v>
       </c>
       <c r="AT32" s="13">
-        <v>883</v>
+        <v>78</v>
       </c>
       <c r="AU32" s="13">
-        <v>1243</v>
+        <v>757</v>
       </c>
       <c r="AV32" s="13">
-        <v>78</v>
+        <v>1172</v>
       </c>
       <c r="AW32" s="13">
-        <v>757</v>
+        <v>1142</v>
       </c>
       <c r="AX32" s="13">
-        <v>1172</v>
+        <v>1339</v>
       </c>
       <c r="AY32" s="13">
-        <v>1142</v>
+        <v>1587</v>
       </c>
       <c r="AZ32" s="13">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="BA32" s="13">
-        <v>1587</v>
+        <v>1521</v>
       </c>
       <c r="BB32" s="13">
-        <v>1350</v>
+        <v>1164</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>60</v>
       </c>
@@ -4305,56 +4305,56 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
+        <v>106</v>
+      </c>
+      <c r="F33" s="11">
         <v>70</v>
       </c>
-      <c r="F33" s="11">
-        <v>86</v>
-      </c>
       <c r="G33" s="11">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="H33" s="11">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="I33" s="11">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="J33" s="11">
+        <v>85</v>
+      </c>
+      <c r="K33" s="11">
+        <v>73</v>
+      </c>
+      <c r="L33" s="11">
+        <v>71</v>
+      </c>
+      <c r="M33" s="11">
+        <v>49</v>
+      </c>
+      <c r="N33" s="11">
         <v>94</v>
       </c>
-      <c r="K33" s="11">
-        <v>79</v>
-      </c>
-      <c r="L33" s="11">
+      <c r="O33" s="11">
+        <v>59</v>
+      </c>
+      <c r="P33" s="11">
+        <v>92</v>
+      </c>
+      <c r="Q33" s="11">
         <v>85</v>
       </c>
-      <c r="M33" s="11">
-        <v>73</v>
-      </c>
-      <c r="N33" s="11">
-        <v>71</v>
-      </c>
-      <c r="O33" s="11">
-        <v>49</v>
-      </c>
-      <c r="P33" s="11">
-        <v>94</v>
-      </c>
-      <c r="Q33" s="11">
-        <v>59</v>
-      </c>
       <c r="R33" s="11">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="S33" s="11">
-        <v>85</v>
-      </c>
-      <c r="T33" s="11">
-        <v>58</v>
-      </c>
-      <c r="U33" s="11">
         <v>78</v>
       </c>
+      <c r="T33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V33" s="11" t="s">
         <v>57</v>
       </c>
@@ -4412,50 +4412,50 @@
       <c r="AN33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP33" s="11" t="s">
-        <v>57</v>
+      <c r="AO33" s="11">
+        <v>75360</v>
+      </c>
+      <c r="AP33" s="11">
+        <v>96913</v>
       </c>
       <c r="AQ33" s="11">
-        <v>75360</v>
+        <v>36640</v>
       </c>
       <c r="AR33" s="11">
-        <v>96913</v>
+        <v>77674</v>
       </c>
       <c r="AS33" s="11">
-        <v>36640</v>
+        <v>37281</v>
       </c>
       <c r="AT33" s="11">
-        <v>77674</v>
+        <v>80911</v>
       </c>
       <c r="AU33" s="11">
-        <v>37281</v>
+        <v>62368</v>
       </c>
       <c r="AV33" s="11">
-        <v>80911</v>
+        <v>151603</v>
       </c>
       <c r="AW33" s="11">
-        <v>62368</v>
+        <v>74294</v>
       </c>
       <c r="AX33" s="11">
-        <v>151603</v>
+        <v>32429</v>
       </c>
       <c r="AY33" s="11">
-        <v>74294</v>
+        <v>53988</v>
       </c>
       <c r="AZ33" s="11">
-        <v>32429</v>
+        <v>46913</v>
       </c>
       <c r="BA33" s="11">
-        <v>53988</v>
+        <v>56750</v>
       </c>
       <c r="BB33" s="11">
-        <v>46913</v>
+        <v>20739</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>61</v>
       </c>
@@ -4464,55 +4464,55 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F34" s="13">
+        <v>14</v>
+      </c>
+      <c r="G34" s="13">
+        <v>11</v>
+      </c>
+      <c r="H34" s="13">
         <v>8</v>
       </c>
-      <c r="G34" s="13">
+      <c r="I34" s="13">
         <v>7</v>
       </c>
-      <c r="H34" s="13">
-        <v>14</v>
-      </c>
-      <c r="I34" s="13">
-        <v>11</v>
-      </c>
       <c r="J34" s="13">
+        <v>6</v>
+      </c>
+      <c r="K34" s="13">
+        <v>6</v>
+      </c>
+      <c r="L34" s="13">
         <v>8</v>
-      </c>
-      <c r="K34" s="13">
-        <v>7</v>
-      </c>
-      <c r="L34" s="13">
-        <v>6</v>
       </c>
       <c r="M34" s="13">
         <v>6</v>
       </c>
       <c r="N34" s="13">
+        <v>7</v>
+      </c>
+      <c r="O34" s="13">
         <v>8</v>
       </c>
-      <c r="O34" s="13">
-        <v>6</v>
-      </c>
       <c r="P34" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="13">
+        <v>17</v>
+      </c>
+      <c r="R34" s="13">
+        <v>9</v>
+      </c>
+      <c r="S34" s="13">
         <v>8</v>
       </c>
-      <c r="R34" s="13">
-        <v>8</v>
-      </c>
-      <c r="S34" s="13">
-        <v>17</v>
-      </c>
-      <c r="T34" s="13">
-        <v>9</v>
-      </c>
-      <c r="U34" s="13">
-        <v>8</v>
+      <c r="T34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V34" s="13" t="s">
         <v>57</v>
@@ -4571,50 +4571,50 @@
       <c r="AN34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP34" s="13" t="s">
-        <v>57</v>
+      <c r="AO34" s="13">
+        <v>9182</v>
+      </c>
+      <c r="AP34" s="13">
+        <v>19243</v>
       </c>
       <c r="AQ34" s="13">
-        <v>9182</v>
+        <v>5867</v>
       </c>
       <c r="AR34" s="13">
-        <v>19243</v>
+        <v>13994</v>
       </c>
       <c r="AS34" s="13">
-        <v>5867</v>
+        <v>8467</v>
       </c>
       <c r="AT34" s="13">
-        <v>13994</v>
+        <v>7309</v>
       </c>
       <c r="AU34" s="13">
-        <v>8467</v>
+        <v>6658</v>
       </c>
       <c r="AV34" s="13">
-        <v>7309</v>
+        <v>10202</v>
       </c>
       <c r="AW34" s="13">
-        <v>6657</v>
+        <v>9960</v>
       </c>
       <c r="AX34" s="13">
-        <v>10202</v>
+        <v>9034</v>
       </c>
       <c r="AY34" s="13">
-        <v>9960</v>
+        <v>10954</v>
       </c>
       <c r="AZ34" s="13">
-        <v>9034</v>
+        <v>9766</v>
       </c>
       <c r="BA34" s="13">
-        <v>10954</v>
+        <v>14196</v>
       </c>
       <c r="BB34" s="13">
-        <v>9766</v>
+        <v>14623</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>62</v>
       </c>
@@ -4676,66 +4676,66 @@
       <c r="V35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X35" s="11" t="s">
-        <v>57</v>
+      <c r="W35" s="11">
+        <v>7885</v>
+      </c>
+      <c r="X35" s="11">
+        <v>8712</v>
       </c>
       <c r="Y35" s="11">
-        <v>7885</v>
+        <v>9172</v>
       </c>
       <c r="Z35" s="11">
-        <v>8712</v>
+        <v>7665</v>
       </c>
       <c r="AA35" s="11">
-        <v>9172</v>
+        <v>6756</v>
       </c>
       <c r="AB35" s="11">
-        <v>7665</v>
+        <v>5791</v>
       </c>
       <c r="AC35" s="11">
-        <v>6756</v>
+        <v>6061</v>
       </c>
       <c r="AD35" s="11">
-        <v>5791</v>
+        <v>6108</v>
       </c>
       <c r="AE35" s="11">
-        <v>6061</v>
+        <v>7300</v>
       </c>
       <c r="AF35" s="11">
-        <v>6108</v>
+        <v>5361</v>
       </c>
       <c r="AG35" s="11">
-        <v>7300</v>
+        <v>6135</v>
       </c>
       <c r="AH35" s="11">
-        <v>5361</v>
+        <v>6838</v>
       </c>
       <c r="AI35" s="11">
-        <v>6135</v>
+        <v>6276</v>
       </c>
       <c r="AJ35" s="11">
-        <v>6838</v>
+        <v>7093</v>
       </c>
       <c r="AK35" s="11">
-        <v>6276</v>
+        <v>7612</v>
       </c>
       <c r="AL35" s="11">
-        <v>7093</v>
+        <v>7140</v>
       </c>
       <c r="AM35" s="11">
-        <v>7612</v>
+        <v>6167</v>
       </c>
       <c r="AN35" s="11">
-        <v>7140</v>
-      </c>
-      <c r="AO35" s="11">
-        <v>6167</v>
-      </c>
-      <c r="AP35" s="11">
         <v>6851</v>
       </c>
+      <c r="AO35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP35" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ35" s="11" t="s">
         <v>57</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>63</v>
       </c>
@@ -4835,66 +4835,66 @@
       <c r="V36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X36" s="13" t="s">
-        <v>57</v>
+      <c r="W36" s="13">
+        <v>13617</v>
+      </c>
+      <c r="X36" s="13">
+        <v>16798</v>
       </c>
       <c r="Y36" s="13">
-        <v>13617</v>
+        <v>18409</v>
       </c>
       <c r="Z36" s="13">
-        <v>16798</v>
+        <v>19437</v>
       </c>
       <c r="AA36" s="13">
-        <v>18409</v>
+        <v>16405</v>
       </c>
       <c r="AB36" s="13">
-        <v>19437</v>
+        <v>18030</v>
       </c>
       <c r="AC36" s="13">
-        <v>16405</v>
+        <v>23442</v>
       </c>
       <c r="AD36" s="13">
-        <v>18030</v>
+        <v>19989</v>
       </c>
       <c r="AE36" s="13">
-        <v>23442</v>
+        <v>26480</v>
       </c>
       <c r="AF36" s="13">
-        <v>19989</v>
+        <v>11565</v>
       </c>
       <c r="AG36" s="13">
-        <v>26480</v>
+        <v>21495</v>
       </c>
       <c r="AH36" s="13">
-        <v>11565</v>
+        <v>17629</v>
       </c>
       <c r="AI36" s="13">
-        <v>21495</v>
+        <v>18553</v>
       </c>
       <c r="AJ36" s="13">
-        <v>17629</v>
+        <v>19804</v>
       </c>
       <c r="AK36" s="13">
-        <v>18553</v>
+        <v>20352</v>
       </c>
       <c r="AL36" s="13">
-        <v>19804</v>
+        <v>16571</v>
       </c>
       <c r="AM36" s="13">
-        <v>20352</v>
+        <v>19913</v>
       </c>
       <c r="AN36" s="13">
-        <v>16571</v>
-      </c>
-      <c r="AO36" s="13">
-        <v>19913</v>
-      </c>
-      <c r="AP36" s="13">
         <v>20351</v>
       </c>
+      <c r="AO36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP36" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ36" s="13" t="s">
         <v>57</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>64</v>
       </c>
@@ -4994,66 +4994,66 @@
       <c r="V37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X37" s="11" t="s">
-        <v>57</v>
+      <c r="W37" s="11">
+        <v>82786</v>
+      </c>
+      <c r="X37" s="11">
+        <v>62879</v>
       </c>
       <c r="Y37" s="11">
-        <v>82786</v>
+        <v>53921</v>
       </c>
       <c r="Z37" s="11">
-        <v>62879</v>
+        <v>58700</v>
       </c>
       <c r="AA37" s="11">
-        <v>53921</v>
+        <v>62799</v>
       </c>
       <c r="AB37" s="11">
-        <v>58700</v>
+        <v>50992</v>
       </c>
       <c r="AC37" s="11">
-        <v>62799</v>
+        <v>28284</v>
       </c>
       <c r="AD37" s="11">
-        <v>50992</v>
+        <v>70625</v>
       </c>
       <c r="AE37" s="11">
-        <v>28284</v>
+        <v>43939</v>
       </c>
       <c r="AF37" s="11">
-        <v>70625</v>
+        <v>38605</v>
       </c>
       <c r="AG37" s="11">
-        <v>43939</v>
+        <v>18047</v>
       </c>
       <c r="AH37" s="11">
-        <v>38605</v>
+        <v>57043</v>
       </c>
       <c r="AI37" s="11">
-        <v>18047</v>
+        <v>46033</v>
       </c>
       <c r="AJ37" s="11">
-        <v>57043</v>
+        <v>75127</v>
       </c>
       <c r="AK37" s="11">
-        <v>46033</v>
+        <v>42883</v>
       </c>
       <c r="AL37" s="11">
-        <v>75127</v>
+        <v>30033</v>
       </c>
       <c r="AM37" s="11">
-        <v>42883</v>
+        <v>72010</v>
       </c>
       <c r="AN37" s="11">
-        <v>30033</v>
-      </c>
-      <c r="AO37" s="11">
-        <v>72010</v>
-      </c>
-      <c r="AP37" s="11">
         <v>69825</v>
       </c>
+      <c r="AO37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP37" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ37" s="11" t="s">
         <v>57</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>65</v>
       </c>
@@ -5153,66 +5153,66 @@
       <c r="V38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X38" s="13" t="s">
-        <v>57</v>
+      <c r="W38" s="13">
+        <v>6835</v>
+      </c>
+      <c r="X38" s="13">
+        <v>2499</v>
       </c>
       <c r="Y38" s="13">
-        <v>6835</v>
+        <v>3009</v>
       </c>
       <c r="Z38" s="13">
-        <v>2499</v>
+        <v>8023</v>
       </c>
       <c r="AA38" s="13">
-        <v>3009</v>
+        <v>8019</v>
       </c>
       <c r="AB38" s="13">
-        <v>8023</v>
+        <v>3344</v>
       </c>
       <c r="AC38" s="13">
-        <v>8019</v>
+        <v>6152</v>
       </c>
       <c r="AD38" s="13">
-        <v>3344</v>
+        <v>6212</v>
       </c>
       <c r="AE38" s="13">
-        <v>6152</v>
+        <v>9646</v>
       </c>
       <c r="AF38" s="13">
-        <v>6212</v>
+        <v>461</v>
       </c>
       <c r="AG38" s="13">
-        <v>9646</v>
+        <v>10133</v>
       </c>
       <c r="AH38" s="13">
-        <v>461</v>
+        <v>6570</v>
       </c>
       <c r="AI38" s="13">
-        <v>10133</v>
+        <v>5388</v>
       </c>
       <c r="AJ38" s="13">
-        <v>6570</v>
+        <v>208</v>
       </c>
       <c r="AK38" s="13">
-        <v>5388</v>
+        <v>8119</v>
       </c>
       <c r="AL38" s="13">
-        <v>208</v>
+        <v>5677</v>
       </c>
       <c r="AM38" s="13">
-        <v>8119</v>
+        <v>5499</v>
       </c>
       <c r="AN38" s="13">
-        <v>5677</v>
-      </c>
-      <c r="AO38" s="13">
-        <v>5499</v>
-      </c>
-      <c r="AP38" s="13">
         <v>3565</v>
       </c>
+      <c r="AO38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP38" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ38" s="13" t="s">
         <v>57</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>66</v>
       </c>
@@ -5339,77 +5339,77 @@
       <c r="AE39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG39" s="11" t="s">
-        <v>57</v>
+      <c r="AF39" s="11">
+        <v>3267</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>5331</v>
       </c>
       <c r="AH39" s="11">
-        <v>3267</v>
+        <v>5166</v>
       </c>
       <c r="AI39" s="11">
-        <v>5331</v>
+        <v>2853</v>
       </c>
       <c r="AJ39" s="11">
-        <v>5166</v>
+        <v>5236</v>
       </c>
       <c r="AK39" s="11">
-        <v>2853</v>
+        <v>3199</v>
       </c>
       <c r="AL39" s="11">
-        <v>5236</v>
+        <v>2414</v>
       </c>
       <c r="AM39" s="11">
-        <v>3199</v>
+        <v>97</v>
       </c>
       <c r="AN39" s="11">
-        <v>2414</v>
+        <v>2249</v>
       </c>
       <c r="AO39" s="11">
-        <v>97</v>
+        <v>1802</v>
       </c>
       <c r="AP39" s="11">
-        <v>2249</v>
+        <v>4211</v>
       </c>
       <c r="AQ39" s="11">
-        <v>1802</v>
+        <v>2696</v>
       </c>
       <c r="AR39" s="11">
-        <v>4576</v>
+        <v>2863</v>
       </c>
       <c r="AS39" s="11">
-        <v>2696</v>
+        <v>5403</v>
       </c>
       <c r="AT39" s="11">
-        <v>2863</v>
+        <v>4071</v>
       </c>
       <c r="AU39" s="11">
-        <v>5403</v>
+        <v>1363</v>
       </c>
       <c r="AV39" s="11">
-        <v>4071</v>
+        <v>4248</v>
       </c>
       <c r="AW39" s="11">
-        <v>1363</v>
+        <v>4159</v>
       </c>
       <c r="AX39" s="11">
-        <v>4248</v>
+        <v>1681</v>
       </c>
       <c r="AY39" s="11">
-        <v>4159</v>
+        <v>4564</v>
       </c>
       <c r="AZ39" s="11">
-        <v>1681</v>
+        <v>3260</v>
       </c>
       <c r="BA39" s="11">
-        <v>4564</v>
+        <v>912</v>
       </c>
       <c r="BB39" s="11">
-        <v>3260</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>67</v>
       </c>
@@ -5462,21 +5462,21 @@
       <c r="S40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>57</v>
+      <c r="T40" s="13">
+        <v>69000</v>
+      </c>
+      <c r="U40" s="13">
+        <v>93725</v>
       </c>
       <c r="V40" s="13">
-        <v>69000</v>
-      </c>
-      <c r="W40" s="13">
-        <v>93725</v>
-      </c>
-      <c r="X40" s="13">
         <v>60437</v>
       </c>
+      <c r="W40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X40" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y40" s="13" t="s">
         <v>57</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>68</v>
       </c>
@@ -5621,21 +5621,21 @@
       <c r="S41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U41" s="11" t="s">
-        <v>57</v>
+      <c r="T41" s="11">
+        <v>5030</v>
+      </c>
+      <c r="U41" s="11">
+        <v>14671</v>
       </c>
       <c r="V41" s="11">
-        <v>5030</v>
-      </c>
-      <c r="W41" s="11">
-        <v>14671</v>
-      </c>
-      <c r="X41" s="11">
         <v>16057</v>
       </c>
+      <c r="W41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X41" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y41" s="11" t="s">
         <v>57</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>69</v>
       </c>
@@ -5784,7 +5784,7 @@
       <c r="BA42" s="15"/>
       <c r="BB42" s="15"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>70</v>
       </c>
@@ -5844,11 +5844,11 @@
       <c r="V43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X43" s="17" t="s">
-        <v>57</v>
+      <c r="W43" s="17">
+        <v>0</v>
+      </c>
+      <c r="X43" s="17">
+        <v>0</v>
       </c>
       <c r="Y43" s="17">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>73</v>
       </c>
@@ -5998,7 +5998,7 @@
       <c r="BA44" s="15"/>
       <c r="BB44" s="15"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>74</v>
       </c>
@@ -6058,11 +6058,11 @@
       <c r="V45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W45" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X45" s="17" t="s">
-        <v>57</v>
+      <c r="W45" s="17">
+        <v>0</v>
+      </c>
+      <c r="X45" s="17">
+        <v>0</v>
       </c>
       <c r="Y45" s="17">
         <v>0</v>
@@ -6155,164 +6155,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19">
+        <v>122</v>
+      </c>
+      <c r="F46" s="19">
+        <v>93</v>
+      </c>
+      <c r="G46" s="19">
+        <v>85</v>
+      </c>
+      <c r="H46" s="19">
+        <v>109</v>
+      </c>
+      <c r="I46" s="19">
+        <v>95</v>
+      </c>
+      <c r="J46" s="19">
+        <v>99</v>
+      </c>
+      <c r="K46" s="19">
         <v>88</v>
       </c>
-      <c r="F46" s="19">
-        <v>103</v>
-      </c>
-      <c r="G46" s="19">
-        <v>122</v>
-      </c>
-      <c r="H46" s="19">
-        <v>93</v>
-      </c>
-      <c r="I46" s="19">
-        <v>85</v>
-      </c>
-      <c r="J46" s="19">
-        <v>109</v>
-      </c>
-      <c r="K46" s="19">
-        <v>95</v>
-      </c>
       <c r="L46" s="19">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M46" s="19">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="N46" s="19">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="O46" s="19">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="P46" s="19">
+        <v>112</v>
+      </c>
+      <c r="Q46" s="19">
         <v>111</v>
       </c>
-      <c r="Q46" s="19">
-        <v>78</v>
-      </c>
       <c r="R46" s="19">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="S46" s="19">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="T46" s="19">
-        <v>74</v>
+        <v>83290</v>
       </c>
       <c r="U46" s="19">
-        <v>96</v>
+        <v>116996</v>
       </c>
       <c r="V46" s="19">
-        <v>83290</v>
+        <v>85841</v>
       </c>
       <c r="W46" s="19">
-        <v>116996</v>
+        <v>119664</v>
       </c>
       <c r="X46" s="19">
-        <v>85841</v>
+        <v>99326</v>
       </c>
       <c r="Y46" s="19">
-        <v>119664</v>
+        <v>92647</v>
       </c>
       <c r="Z46" s="19">
-        <v>99326</v>
+        <v>100021</v>
       </c>
       <c r="AA46" s="19">
-        <v>92647</v>
+        <v>99075</v>
       </c>
       <c r="AB46" s="19">
-        <v>100021</v>
+        <v>86193</v>
       </c>
       <c r="AC46" s="19">
-        <v>99075</v>
+        <v>67918</v>
       </c>
       <c r="AD46" s="19">
-        <v>86193</v>
+        <v>109931</v>
       </c>
       <c r="AE46" s="19">
-        <v>67918</v>
+        <v>94373</v>
       </c>
       <c r="AF46" s="19">
-        <v>109931</v>
+        <v>60939</v>
       </c>
       <c r="AG46" s="19">
-        <v>94373</v>
+        <v>61999</v>
       </c>
       <c r="AH46" s="19">
-        <v>60939</v>
+        <v>94617</v>
       </c>
       <c r="AI46" s="19">
-        <v>61999</v>
+        <v>80527</v>
       </c>
       <c r="AJ46" s="19">
-        <v>94617</v>
+        <v>108734</v>
       </c>
       <c r="AK46" s="19">
-        <v>80527</v>
+        <v>83770</v>
       </c>
       <c r="AL46" s="19">
-        <v>108734</v>
+        <v>63316</v>
       </c>
       <c r="AM46" s="19">
-        <v>83770</v>
+        <v>104762</v>
       </c>
       <c r="AN46" s="19">
-        <v>63316</v>
+        <v>104045</v>
       </c>
       <c r="AO46" s="19">
-        <v>104762</v>
+        <v>86923</v>
       </c>
       <c r="AP46" s="19">
-        <v>104045</v>
+        <v>121381</v>
       </c>
       <c r="AQ46" s="19">
-        <v>86923</v>
+        <v>46132</v>
       </c>
       <c r="AR46" s="19">
-        <v>121746</v>
+        <v>95414</v>
       </c>
       <c r="AS46" s="19">
-        <v>46132</v>
+        <v>52394</v>
       </c>
       <c r="AT46" s="19">
-        <v>95414</v>
+        <v>92369</v>
       </c>
       <c r="AU46" s="19">
-        <v>52394</v>
+        <v>71146</v>
       </c>
       <c r="AV46" s="19">
-        <v>92369</v>
+        <v>167225</v>
       </c>
       <c r="AW46" s="19">
-        <v>71145</v>
+        <v>89555</v>
       </c>
       <c r="AX46" s="19">
-        <v>167225</v>
+        <v>44483</v>
       </c>
       <c r="AY46" s="19">
-        <v>89555</v>
+        <v>71093</v>
       </c>
       <c r="AZ46" s="19">
-        <v>44483</v>
+        <v>61289</v>
       </c>
       <c r="BA46" s="19">
-        <v>71093</v>
+        <v>73379</v>
       </c>
       <c r="BB46" s="19">
-        <v>61289</v>
+        <v>37500</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6367,7 +6367,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6422,7 +6422,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6477,7 +6477,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>75</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6689,7 +6689,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>75</v>
       </c>
@@ -6746,7 +6746,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>55</v>
       </c>
@@ -6755,92 +6755,92 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>2150</v>
+        <v>2532</v>
       </c>
       <c r="F53" s="11">
-        <v>2168</v>
+        <v>2684</v>
       </c>
       <c r="G53" s="11">
-        <v>2532</v>
+        <v>2049</v>
       </c>
       <c r="H53" s="11">
-        <v>2684</v>
+        <v>3138</v>
       </c>
       <c r="I53" s="11">
-        <v>2049</v>
+        <v>2012</v>
       </c>
       <c r="J53" s="11">
-        <v>3138</v>
+        <v>1540</v>
       </c>
       <c r="K53" s="11">
-        <v>2012</v>
+        <v>30274</v>
       </c>
       <c r="L53" s="11">
-        <v>1540</v>
+        <v>28461</v>
       </c>
       <c r="M53" s="11">
-        <v>30274</v>
+        <v>25575</v>
       </c>
       <c r="N53" s="11">
-        <v>28461</v>
+        <v>32637</v>
       </c>
       <c r="O53" s="11">
-        <v>25575</v>
+        <v>44254</v>
       </c>
       <c r="P53" s="11">
-        <v>32637</v>
+        <v>44032</v>
       </c>
       <c r="Q53" s="11">
-        <v>44254</v>
+        <v>38551</v>
       </c>
       <c r="R53" s="11">
-        <v>44032</v>
+        <v>26320</v>
       </c>
       <c r="S53" s="11">
-        <v>38551</v>
+        <v>39146</v>
       </c>
       <c r="T53" s="11">
-        <v>26320</v>
+        <v>35055</v>
       </c>
       <c r="U53" s="11">
-        <v>39146</v>
+        <v>32945</v>
       </c>
       <c r="V53" s="11">
-        <v>35055</v>
+        <v>40633</v>
       </c>
       <c r="W53" s="11">
-        <v>32945</v>
+        <v>38445</v>
       </c>
       <c r="X53" s="11">
-        <v>40633</v>
+        <v>35402</v>
       </c>
       <c r="Y53" s="11">
-        <v>38445</v>
+        <v>33346</v>
       </c>
       <c r="Z53" s="11">
-        <v>35402</v>
+        <v>26747</v>
       </c>
       <c r="AA53" s="11">
-        <v>33346</v>
+        <v>19738</v>
       </c>
       <c r="AB53" s="11">
-        <v>26747</v>
+        <v>38442</v>
       </c>
       <c r="AC53" s="11">
-        <v>19738</v>
+        <v>17918</v>
       </c>
       <c r="AD53" s="11">
-        <v>38442</v>
+        <v>35604</v>
       </c>
       <c r="AE53" s="11">
-        <v>17918</v>
-      </c>
-      <c r="AF53" s="11">
-        <v>35604</v>
-      </c>
-      <c r="AG53" s="11">
         <v>36166</v>
       </c>
+      <c r="AF53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG53" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH53" s="11" t="s">
         <v>57</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>58</v>
       </c>
@@ -6914,157 +6914,157 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>16270</v>
+        <v>12220</v>
       </c>
       <c r="F54" s="13">
-        <v>15840</v>
+        <v>13860</v>
       </c>
       <c r="G54" s="13">
-        <v>12220</v>
+        <v>9068</v>
       </c>
       <c r="H54" s="13">
-        <v>13860</v>
+        <v>18066</v>
       </c>
       <c r="I54" s="13">
-        <v>9068</v>
+        <v>13124</v>
       </c>
       <c r="J54" s="13">
-        <v>18066</v>
+        <v>10462</v>
       </c>
       <c r="K54" s="13">
-        <v>13124</v>
+        <v>31709</v>
       </c>
       <c r="L54" s="13">
-        <v>10462</v>
+        <v>41780</v>
       </c>
       <c r="M54" s="13">
-        <v>31709</v>
+        <v>35147</v>
       </c>
       <c r="N54" s="13">
-        <v>41780</v>
+        <v>26127</v>
       </c>
       <c r="O54" s="13">
-        <v>35147</v>
+        <v>41901</v>
       </c>
       <c r="P54" s="13">
-        <v>26127</v>
+        <v>37573</v>
       </c>
       <c r="Q54" s="13">
-        <v>41901</v>
+        <v>34095</v>
       </c>
       <c r="R54" s="13">
-        <v>37573</v>
+        <v>31527</v>
       </c>
       <c r="S54" s="13">
-        <v>34095</v>
+        <v>30920</v>
       </c>
       <c r="T54" s="13">
-        <v>31527</v>
+        <v>37587</v>
       </c>
       <c r="U54" s="13">
-        <v>30920</v>
+        <v>35023</v>
       </c>
       <c r="V54" s="13">
-        <v>37587</v>
+        <v>36673</v>
       </c>
       <c r="W54" s="13">
-        <v>35023</v>
+        <v>31144</v>
       </c>
       <c r="X54" s="13">
-        <v>36673</v>
+        <v>31791</v>
       </c>
       <c r="Y54" s="13">
-        <v>31144</v>
+        <v>33017</v>
       </c>
       <c r="Z54" s="13">
-        <v>31791</v>
+        <v>33556</v>
       </c>
       <c r="AA54" s="13">
-        <v>33017</v>
+        <v>36072</v>
       </c>
       <c r="AB54" s="13">
-        <v>33556</v>
+        <v>33075</v>
       </c>
       <c r="AC54" s="13">
-        <v>36072</v>
+        <v>40852</v>
       </c>
       <c r="AD54" s="13">
-        <v>33075</v>
+        <v>40349</v>
       </c>
       <c r="AE54" s="13">
-        <v>40852</v>
+        <v>39120</v>
       </c>
       <c r="AF54" s="13">
-        <v>40349</v>
+        <v>43324</v>
       </c>
       <c r="AG54" s="13">
-        <v>39120</v>
+        <v>22126</v>
       </c>
       <c r="AH54" s="13">
-        <v>43324</v>
+        <v>35355</v>
       </c>
       <c r="AI54" s="13">
-        <v>22126</v>
+        <v>36722</v>
       </c>
       <c r="AJ54" s="13">
-        <v>35355</v>
+        <v>32648</v>
       </c>
       <c r="AK54" s="13">
-        <v>36722</v>
+        <v>48830</v>
       </c>
       <c r="AL54" s="13">
-        <v>32648</v>
+        <v>45058</v>
       </c>
       <c r="AM54" s="13">
-        <v>48830</v>
+        <v>32736</v>
       </c>
       <c r="AN54" s="13">
-        <v>45058</v>
+        <v>36630</v>
       </c>
       <c r="AO54" s="13">
-        <v>32736</v>
+        <v>473151</v>
       </c>
       <c r="AP54" s="13">
-        <v>36630</v>
+        <v>67673</v>
       </c>
       <c r="AQ54" s="13">
-        <v>473151</v>
+        <v>62001</v>
       </c>
       <c r="AR54" s="13">
-        <v>67673</v>
+        <v>58930</v>
       </c>
       <c r="AS54" s="13">
-        <v>62001</v>
+        <v>82957</v>
       </c>
       <c r="AT54" s="13">
-        <v>58930</v>
+        <v>5206</v>
       </c>
       <c r="AU54" s="13">
-        <v>82957</v>
+        <v>373298</v>
       </c>
       <c r="AV54" s="13">
-        <v>51873</v>
+        <v>103034</v>
       </c>
       <c r="AW54" s="13">
-        <v>373298</v>
+        <v>100397</v>
       </c>
       <c r="AX54" s="13">
-        <v>103034</v>
+        <v>117716</v>
       </c>
       <c r="AY54" s="13">
-        <v>100397</v>
+        <v>139518</v>
       </c>
       <c r="AZ54" s="13">
-        <v>117716</v>
+        <v>118683</v>
       </c>
       <c r="BA54" s="13">
-        <v>139518</v>
+        <v>133715</v>
       </c>
       <c r="BB54" s="13">
-        <v>118683</v>
+        <v>239843</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>60</v>
       </c>
@@ -7073,56 +7073,56 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>1794656</v>
+        <v>2198987</v>
       </c>
       <c r="F55" s="11">
-        <v>1596772</v>
+        <v>1603125</v>
       </c>
       <c r="G55" s="11">
-        <v>2198987</v>
+        <v>1514552</v>
       </c>
       <c r="H55" s="11">
-        <v>1603125</v>
+        <v>2394627</v>
       </c>
       <c r="I55" s="11">
-        <v>1514552</v>
+        <v>2121184</v>
       </c>
       <c r="J55" s="11">
-        <v>2394627</v>
+        <v>2282973</v>
       </c>
       <c r="K55" s="11">
-        <v>2121184</v>
+        <v>1996565</v>
       </c>
       <c r="L55" s="11">
-        <v>2282973</v>
+        <v>1840016</v>
       </c>
       <c r="M55" s="11">
-        <v>1996565</v>
+        <v>1192993</v>
       </c>
       <c r="N55" s="11">
-        <v>1840016</v>
+        <v>2311094</v>
       </c>
       <c r="O55" s="11">
-        <v>1192993</v>
+        <v>1355353</v>
       </c>
       <c r="P55" s="11">
-        <v>2311094</v>
+        <v>1887701</v>
       </c>
       <c r="Q55" s="11">
-        <v>1355353</v>
+        <v>2089324</v>
       </c>
       <c r="R55" s="11">
-        <v>1887701</v>
+        <v>1595960</v>
       </c>
       <c r="S55" s="11">
-        <v>2089324</v>
-      </c>
-      <c r="T55" s="11">
-        <v>1595960</v>
-      </c>
-      <c r="U55" s="11">
         <v>2060613</v>
       </c>
+      <c r="T55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U55" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V55" s="11" t="s">
         <v>57</v>
       </c>
@@ -7180,50 +7180,50 @@
       <c r="AN55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP55" s="11" t="s">
-        <v>57</v>
+      <c r="AO55" s="11">
+        <v>5930024</v>
+      </c>
+      <c r="AP55" s="11">
+        <v>7809888</v>
       </c>
       <c r="AQ55" s="11">
-        <v>5930024</v>
+        <v>3171156</v>
       </c>
       <c r="AR55" s="11">
-        <v>7778985</v>
+        <v>6602477</v>
       </c>
       <c r="AS55" s="11">
-        <v>3171156</v>
+        <v>3126550</v>
       </c>
       <c r="AT55" s="11">
-        <v>6643774</v>
+        <v>6445176</v>
       </c>
       <c r="AU55" s="11">
-        <v>3160630</v>
+        <v>4071361</v>
       </c>
       <c r="AV55" s="11">
-        <v>6445176</v>
+        <v>9886344</v>
       </c>
       <c r="AW55" s="11">
-        <v>4121968</v>
+        <v>5941902</v>
       </c>
       <c r="AX55" s="11">
-        <v>9905008</v>
+        <v>2353830</v>
       </c>
       <c r="AY55" s="11">
-        <v>5941902</v>
+        <v>4310027</v>
       </c>
       <c r="AZ55" s="11">
-        <v>2357711</v>
+        <v>3738903</v>
       </c>
       <c r="BA55" s="11">
-        <v>4344624</v>
+        <v>4788841</v>
       </c>
       <c r="BB55" s="11">
-        <v>3688985</v>
+        <v>1718401</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>61</v>
       </c>
@@ -7232,56 +7232,56 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>443650</v>
+        <v>327476</v>
       </c>
       <c r="F56" s="13">
-        <v>476456</v>
+        <v>484244</v>
       </c>
       <c r="G56" s="13">
-        <v>327476</v>
+        <v>425424</v>
       </c>
       <c r="H56" s="13">
-        <v>484244</v>
+        <v>353453</v>
       </c>
       <c r="I56" s="13">
-        <v>425424</v>
+        <v>341245</v>
       </c>
       <c r="J56" s="13">
-        <v>353453</v>
+        <v>315899</v>
       </c>
       <c r="K56" s="13">
-        <v>341245</v>
+        <v>286147</v>
       </c>
       <c r="L56" s="13">
-        <v>315899</v>
+        <v>419069</v>
       </c>
       <c r="M56" s="13">
-        <v>286147</v>
+        <v>317518</v>
       </c>
       <c r="N56" s="13">
-        <v>419069</v>
+        <v>370811</v>
       </c>
       <c r="O56" s="13">
-        <v>317518</v>
+        <v>387659</v>
       </c>
       <c r="P56" s="13">
-        <v>370811</v>
+        <v>365272</v>
       </c>
       <c r="Q56" s="13">
-        <v>387659</v>
+        <v>1230071</v>
       </c>
       <c r="R56" s="13">
-        <v>365272</v>
+        <v>397555</v>
       </c>
       <c r="S56" s="13">
-        <v>1230071</v>
-      </c>
-      <c r="T56" s="13">
-        <v>397555</v>
-      </c>
-      <c r="U56" s="13">
         <v>363528</v>
       </c>
+      <c r="T56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U56" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V56" s="13" t="s">
         <v>57</v>
       </c>
@@ -7339,50 +7339,50 @@
       <c r="AN56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP56" s="13" t="s">
-        <v>57</v>
+      <c r="AO56" s="13">
+        <v>2088384</v>
+      </c>
+      <c r="AP56" s="13">
+        <v>3485774</v>
       </c>
       <c r="AQ56" s="13">
-        <v>2088384</v>
+        <v>984663</v>
       </c>
       <c r="AR56" s="13">
-        <v>3371952</v>
+        <v>2092556</v>
       </c>
       <c r="AS56" s="13">
-        <v>984663</v>
+        <v>1393573</v>
       </c>
       <c r="AT56" s="13">
-        <v>2027203</v>
+        <v>1170983</v>
       </c>
       <c r="AU56" s="13">
-        <v>1344892</v>
+        <v>1088287</v>
       </c>
       <c r="AV56" s="13">
-        <v>1170983</v>
+        <v>1530940</v>
       </c>
       <c r="AW56" s="13">
-        <v>1025360</v>
+        <v>1233509</v>
       </c>
       <c r="AX56" s="13">
-        <v>1496968</v>
+        <v>1024403</v>
       </c>
       <c r="AY56" s="13">
-        <v>1233509</v>
+        <v>1241274</v>
       </c>
       <c r="AZ56" s="13">
-        <v>1020359</v>
+        <v>1091135</v>
       </c>
       <c r="BA56" s="13">
-        <v>1245806</v>
+        <v>1578858</v>
       </c>
       <c r="BB56" s="13">
-        <v>1103005</v>
+        <v>1624725</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>62</v>
       </c>
@@ -7444,66 +7444,66 @@
       <c r="V57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X57" s="11" t="s">
-        <v>57</v>
+      <c r="W57" s="11">
+        <v>435689</v>
+      </c>
+      <c r="X57" s="11">
+        <v>553109</v>
       </c>
       <c r="Y57" s="11">
-        <v>435689</v>
+        <v>603606</v>
       </c>
       <c r="Z57" s="11">
-        <v>553109</v>
+        <v>569205</v>
       </c>
       <c r="AA57" s="11">
-        <v>603606</v>
+        <v>571932</v>
       </c>
       <c r="AB57" s="11">
-        <v>569205</v>
+        <v>647533</v>
       </c>
       <c r="AC57" s="11">
-        <v>571932</v>
+        <v>849798</v>
       </c>
       <c r="AD57" s="11">
-        <v>647533</v>
+        <v>918286</v>
       </c>
       <c r="AE57" s="11">
-        <v>849798</v>
+        <v>1445115</v>
       </c>
       <c r="AF57" s="11">
-        <v>918286</v>
+        <v>1130561</v>
       </c>
       <c r="AG57" s="11">
-        <v>1445115</v>
+        <v>1343226</v>
       </c>
       <c r="AH57" s="11">
-        <v>1130561</v>
+        <v>1523780</v>
       </c>
       <c r="AI57" s="11">
-        <v>1343226</v>
+        <v>1373354</v>
       </c>
       <c r="AJ57" s="11">
-        <v>1523780</v>
+        <v>1444826</v>
       </c>
       <c r="AK57" s="11">
-        <v>1373354</v>
+        <v>1465388</v>
       </c>
       <c r="AL57" s="11">
-        <v>1444826</v>
+        <v>1423552</v>
       </c>
       <c r="AM57" s="11">
-        <v>1465388</v>
+        <v>1639686</v>
       </c>
       <c r="AN57" s="11">
-        <v>1423552</v>
-      </c>
-      <c r="AO57" s="11">
-        <v>1639686</v>
-      </c>
-      <c r="AP57" s="11">
         <v>1658718</v>
       </c>
+      <c r="AO57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP57" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ57" s="11" t="s">
         <v>57</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>63</v>
       </c>
@@ -7603,66 +7603,66 @@
       <c r="V58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W58" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X58" s="13" t="s">
-        <v>57</v>
+      <c r="W58" s="13">
+        <v>278211</v>
+      </c>
+      <c r="X58" s="13">
+        <v>441538</v>
       </c>
       <c r="Y58" s="13">
-        <v>278211</v>
+        <v>604775</v>
       </c>
       <c r="Z58" s="13">
-        <v>441538</v>
+        <v>789968</v>
       </c>
       <c r="AA58" s="13">
-        <v>604775</v>
+        <v>864147</v>
       </c>
       <c r="AB58" s="13">
-        <v>789968</v>
+        <v>1237129</v>
       </c>
       <c r="AC58" s="13">
-        <v>864147</v>
+        <v>1824325</v>
       </c>
       <c r="AD58" s="13">
-        <v>1237129</v>
+        <v>1535872</v>
       </c>
       <c r="AE58" s="13">
-        <v>1824325</v>
+        <v>1912111</v>
       </c>
       <c r="AF58" s="13">
-        <v>1535872</v>
+        <v>778629</v>
       </c>
       <c r="AG58" s="13">
-        <v>1912111</v>
+        <v>1450130</v>
       </c>
       <c r="AH58" s="13">
-        <v>778629</v>
+        <v>1117612</v>
       </c>
       <c r="AI58" s="13">
-        <v>1450130</v>
+        <v>1158599</v>
       </c>
       <c r="AJ58" s="13">
-        <v>1117612</v>
+        <v>1413869</v>
       </c>
       <c r="AK58" s="13">
-        <v>1158599</v>
+        <v>1545620</v>
       </c>
       <c r="AL58" s="13">
-        <v>1413869</v>
+        <v>1494975</v>
       </c>
       <c r="AM58" s="13">
-        <v>1545620</v>
+        <v>1805768</v>
       </c>
       <c r="AN58" s="13">
-        <v>1494975</v>
-      </c>
-      <c r="AO58" s="13">
-        <v>1805768</v>
-      </c>
-      <c r="AP58" s="13">
         <v>1732450</v>
       </c>
+      <c r="AO58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP58" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ58" s="13" t="s">
         <v>57</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>64</v>
       </c>
@@ -7762,66 +7762,66 @@
       <c r="V59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W59" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>57</v>
+      <c r="W59" s="11">
+        <v>2200597</v>
+      </c>
+      <c r="X59" s="11">
+        <v>1805396</v>
       </c>
       <c r="Y59" s="11">
-        <v>2200597</v>
+        <v>2190348</v>
       </c>
       <c r="Z59" s="11">
-        <v>1805396</v>
+        <v>2898861</v>
       </c>
       <c r="AA59" s="11">
-        <v>2190348</v>
+        <v>3544445</v>
       </c>
       <c r="AB59" s="11">
-        <v>2898861</v>
+        <v>3637652</v>
       </c>
       <c r="AC59" s="11">
-        <v>3544445</v>
+        <v>2407726</v>
       </c>
       <c r="AD59" s="11">
-        <v>3637652</v>
+        <v>5088953</v>
       </c>
       <c r="AE59" s="11">
-        <v>2407726</v>
+        <v>3186582</v>
       </c>
       <c r="AF59" s="11">
-        <v>5088953</v>
+        <v>2727468</v>
       </c>
       <c r="AG59" s="11">
-        <v>3186582</v>
+        <v>1236943</v>
       </c>
       <c r="AH59" s="11">
-        <v>2727468</v>
+        <v>3858315</v>
       </c>
       <c r="AI59" s="11">
-        <v>1236943</v>
+        <v>3116442</v>
       </c>
       <c r="AJ59" s="11">
-        <v>3858315</v>
+        <v>5448160</v>
       </c>
       <c r="AK59" s="11">
-        <v>3116442</v>
+        <v>3262658</v>
       </c>
       <c r="AL59" s="11">
-        <v>5448160</v>
+        <v>3191926</v>
       </c>
       <c r="AM59" s="11">
-        <v>3262658</v>
+        <v>6465175</v>
       </c>
       <c r="AN59" s="11">
-        <v>3191926</v>
-      </c>
-      <c r="AO59" s="11">
-        <v>6465175</v>
-      </c>
-      <c r="AP59" s="11">
         <v>5389795</v>
       </c>
+      <c r="AO59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP59" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ59" s="11" t="s">
         <v>57</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>65</v>
       </c>
@@ -7921,66 +7921,66 @@
       <c r="V60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W60" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X60" s="13" t="s">
-        <v>57</v>
+      <c r="W60" s="13">
+        <v>219072</v>
+      </c>
+      <c r="X60" s="13">
+        <v>81453</v>
       </c>
       <c r="Y60" s="13">
-        <v>219072</v>
+        <v>119530</v>
       </c>
       <c r="Z60" s="13">
-        <v>81453</v>
+        <v>485619</v>
       </c>
       <c r="AA60" s="13">
-        <v>119530</v>
+        <v>482148</v>
       </c>
       <c r="AB60" s="13">
-        <v>485619</v>
+        <v>288304</v>
       </c>
       <c r="AC60" s="13">
-        <v>482148</v>
+        <v>512378</v>
       </c>
       <c r="AD60" s="13">
-        <v>288304</v>
+        <v>874025</v>
       </c>
       <c r="AE60" s="13">
-        <v>512378</v>
+        <v>1703412</v>
       </c>
       <c r="AF60" s="13">
-        <v>874025</v>
+        <v>94440</v>
       </c>
       <c r="AG60" s="13">
-        <v>1703412</v>
+        <v>1755105</v>
       </c>
       <c r="AH60" s="13">
-        <v>94440</v>
+        <v>1206345</v>
       </c>
       <c r="AI60" s="13">
-        <v>1755105</v>
+        <v>943922</v>
       </c>
       <c r="AJ60" s="13">
-        <v>1206345</v>
+        <v>43857</v>
       </c>
       <c r="AK60" s="13">
-        <v>943922</v>
+        <v>1568866</v>
       </c>
       <c r="AL60" s="13">
-        <v>43857</v>
+        <v>1019491</v>
       </c>
       <c r="AM60" s="13">
-        <v>1568866</v>
+        <v>1509322</v>
       </c>
       <c r="AN60" s="13">
-        <v>1019491</v>
-      </c>
-      <c r="AO60" s="13">
-        <v>1509322</v>
-      </c>
-      <c r="AP60" s="13">
         <v>946369</v>
       </c>
+      <c r="AO60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP60" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ60" s="13" t="s">
         <v>57</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>66</v>
       </c>
@@ -8107,77 +8107,77 @@
       <c r="AE61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG61" s="11" t="s">
-        <v>57</v>
+      <c r="AF61" s="11">
+        <v>27908</v>
+      </c>
+      <c r="AG61" s="11">
+        <v>30195</v>
       </c>
       <c r="AH61" s="11">
-        <v>27908</v>
+        <v>33675</v>
       </c>
       <c r="AI61" s="11">
-        <v>30195</v>
+        <v>20111</v>
       </c>
       <c r="AJ61" s="11">
-        <v>33675</v>
+        <v>33468</v>
       </c>
       <c r="AK61" s="11">
-        <v>20111</v>
+        <v>25039</v>
       </c>
       <c r="AL61" s="11">
-        <v>33468</v>
+        <v>19829</v>
       </c>
       <c r="AM61" s="11">
-        <v>25039</v>
+        <v>13095</v>
       </c>
       <c r="AN61" s="11">
-        <v>19829</v>
+        <v>26090</v>
       </c>
       <c r="AO61" s="11">
-        <v>13095</v>
+        <v>20377</v>
       </c>
       <c r="AP61" s="11">
-        <v>26090</v>
+        <v>54634</v>
       </c>
       <c r="AQ61" s="11">
-        <v>20377</v>
+        <v>38712</v>
       </c>
       <c r="AR61" s="11">
-        <v>57660</v>
+        <v>37441</v>
       </c>
       <c r="AS61" s="11">
-        <v>38712</v>
+        <v>33987</v>
       </c>
       <c r="AT61" s="11">
-        <v>37441</v>
+        <v>14455</v>
       </c>
       <c r="AU61" s="11">
-        <v>33987</v>
+        <v>29938</v>
       </c>
       <c r="AV61" s="11">
-        <v>20511</v>
+        <v>26810</v>
       </c>
       <c r="AW61" s="11">
-        <v>29938</v>
+        <v>22228</v>
       </c>
       <c r="AX61" s="11">
-        <v>26810</v>
+        <v>13018</v>
       </c>
       <c r="AY61" s="11">
-        <v>22228</v>
+        <v>52215</v>
       </c>
       <c r="AZ61" s="11">
-        <v>13018</v>
+        <v>22570</v>
       </c>
       <c r="BA61" s="11">
-        <v>52215</v>
+        <v>15380</v>
       </c>
       <c r="BB61" s="11">
-        <v>22570</v>
+        <v>18052</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>67</v>
       </c>
@@ -8230,21 +8230,21 @@
       <c r="S62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U62" s="13" t="s">
-        <v>57</v>
+      <c r="T62" s="13">
+        <v>1538746</v>
+      </c>
+      <c r="U62" s="13">
+        <v>1772140</v>
       </c>
       <c r="V62" s="13">
-        <v>1538746</v>
-      </c>
-      <c r="W62" s="13">
-        <v>1772140</v>
-      </c>
-      <c r="X62" s="13">
         <v>1229911</v>
       </c>
+      <c r="W62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X62" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y62" s="13" t="s">
         <v>57</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>68</v>
       </c>
@@ -8389,21 +8389,21 @@
       <c r="S63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U63" s="11" t="s">
-        <v>57</v>
+      <c r="T63" s="11">
+        <v>264916</v>
+      </c>
+      <c r="U63" s="11">
+        <v>477576</v>
       </c>
       <c r="V63" s="11">
-        <v>264916</v>
-      </c>
-      <c r="W63" s="11">
-        <v>477576</v>
-      </c>
-      <c r="X63" s="11">
         <v>626713</v>
       </c>
+      <c r="W63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X63" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y63" s="11" t="s">
         <v>57</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>77</v>
       </c>
@@ -8552,7 +8552,7 @@
       <c r="BA64" s="15"/>
       <c r="BB64" s="15"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="16" t="s">
         <v>70</v>
       </c>
@@ -8614,11 +8614,11 @@
       <c r="V65" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W65" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X65" s="17" t="s">
-        <v>57</v>
+      <c r="W65" s="17">
+        <v>0</v>
+      </c>
+      <c r="X65" s="17">
+        <v>0</v>
       </c>
       <c r="Y65" s="17">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
         <v>78</v>
       </c>
@@ -8768,7 +8768,7 @@
       <c r="BA66" s="15"/>
       <c r="BB66" s="15"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
         <v>74</v>
       </c>
@@ -8830,11 +8830,11 @@
       <c r="V67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W67" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X67" s="17" t="s">
-        <v>57</v>
+      <c r="W67" s="17">
+        <v>0</v>
+      </c>
+      <c r="X67" s="17">
+        <v>0</v>
       </c>
       <c r="Y67" s="17">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>79</v>
       </c>
@@ -8984,7 +8984,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>80</v>
       </c>
@@ -9046,11 +9046,11 @@
       <c r="V69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>57</v>
+      <c r="W69" s="11">
+        <v>0</v>
+      </c>
+      <c r="X69" s="11">
+        <v>0</v>
       </c>
       <c r="Y69" s="11">
         <v>0</v>
@@ -9143,164 +9143,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19">
-        <v>2256726</v>
+        <v>2541215</v>
       </c>
       <c r="F70" s="19">
-        <v>2091236</v>
+        <v>2103913</v>
       </c>
       <c r="G70" s="19">
-        <v>2541215</v>
+        <v>1951093</v>
       </c>
       <c r="H70" s="19">
-        <v>2103913</v>
+        <v>2769284</v>
       </c>
       <c r="I70" s="19">
-        <v>1951093</v>
+        <v>2477565</v>
       </c>
       <c r="J70" s="19">
-        <v>2769284</v>
+        <v>2610874</v>
       </c>
       <c r="K70" s="19">
-        <v>2477565</v>
+        <v>2344695</v>
       </c>
       <c r="L70" s="19">
-        <v>2610874</v>
+        <v>2329326</v>
       </c>
       <c r="M70" s="19">
-        <v>2344695</v>
+        <v>1571233</v>
       </c>
       <c r="N70" s="19">
-        <v>2329326</v>
+        <v>2740669</v>
       </c>
       <c r="O70" s="19">
-        <v>1571233</v>
+        <v>1829167</v>
       </c>
       <c r="P70" s="19">
-        <v>2740669</v>
+        <v>2334578</v>
       </c>
       <c r="Q70" s="19">
-        <v>1829167</v>
+        <v>3392041</v>
       </c>
       <c r="R70" s="19">
-        <v>2334578</v>
+        <v>2051362</v>
       </c>
       <c r="S70" s="19">
-        <v>3392041</v>
+        <v>2494207</v>
       </c>
       <c r="T70" s="19">
-        <v>2051362</v>
+        <v>1876304</v>
       </c>
       <c r="U70" s="19">
-        <v>2494207</v>
+        <v>2317684</v>
       </c>
       <c r="V70" s="19">
-        <v>1876304</v>
+        <v>1933930</v>
       </c>
       <c r="W70" s="19">
-        <v>2317684</v>
+        <v>3203158</v>
       </c>
       <c r="X70" s="19">
-        <v>1933930</v>
+        <v>2948689</v>
       </c>
       <c r="Y70" s="19">
-        <v>3203158</v>
+        <v>3584622</v>
       </c>
       <c r="Z70" s="19">
-        <v>2948689</v>
+        <v>4803956</v>
       </c>
       <c r="AA70" s="19">
-        <v>3584622</v>
+        <v>5518482</v>
       </c>
       <c r="AB70" s="19">
-        <v>4803956</v>
+        <v>5882135</v>
       </c>
       <c r="AC70" s="19">
-        <v>5518482</v>
+        <v>5652997</v>
       </c>
       <c r="AD70" s="19">
-        <v>5882135</v>
+        <v>8493089</v>
       </c>
       <c r="AE70" s="19">
-        <v>5652997</v>
+        <v>8322506</v>
       </c>
       <c r="AF70" s="19">
-        <v>8493089</v>
+        <v>4802330</v>
       </c>
       <c r="AG70" s="19">
-        <v>8322506</v>
+        <v>5837725</v>
       </c>
       <c r="AH70" s="19">
-        <v>4802330</v>
+        <v>7775082</v>
       </c>
       <c r="AI70" s="19">
-        <v>5837725</v>
+        <v>6649150</v>
       </c>
       <c r="AJ70" s="19">
-        <v>7775082</v>
+        <v>8416828</v>
       </c>
       <c r="AK70" s="19">
-        <v>6649150</v>
+        <v>7916401</v>
       </c>
       <c r="AL70" s="19">
-        <v>8416828</v>
+        <v>7194831</v>
       </c>
       <c r="AM70" s="19">
-        <v>7916401</v>
+        <v>11465782</v>
       </c>
       <c r="AN70" s="19">
-        <v>7194831</v>
+        <v>9790052</v>
       </c>
       <c r="AO70" s="19">
-        <v>11465782</v>
+        <v>8511936</v>
       </c>
       <c r="AP70" s="19">
-        <v>9790052</v>
+        <v>11417969</v>
       </c>
       <c r="AQ70" s="19">
-        <v>8511936</v>
+        <v>4256532</v>
       </c>
       <c r="AR70" s="19">
-        <v>11276270</v>
+        <v>8791404</v>
       </c>
       <c r="AS70" s="19">
-        <v>4256532</v>
+        <v>4637067</v>
       </c>
       <c r="AT70" s="19">
-        <v>8767348</v>
+        <v>7635820</v>
       </c>
       <c r="AU70" s="19">
-        <v>4622466</v>
+        <v>5562884</v>
       </c>
       <c r="AV70" s="19">
-        <v>7688543</v>
+        <v>11547128</v>
       </c>
       <c r="AW70" s="19">
-        <v>5550564</v>
+        <v>7298036</v>
       </c>
       <c r="AX70" s="19">
-        <v>11531820</v>
+        <v>3508967</v>
       </c>
       <c r="AY70" s="19">
-        <v>7298036</v>
+        <v>5743034</v>
       </c>
       <c r="AZ70" s="19">
-        <v>3508804</v>
+        <v>4971291</v>
       </c>
       <c r="BA70" s="19">
-        <v>5782163</v>
+        <v>6516794</v>
       </c>
       <c r="BB70" s="19">
-        <v>4933243</v>
+        <v>3601021</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9355,7 +9355,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9410,7 +9410,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9465,7 +9465,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>81</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9677,7 +9677,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>82</v>
       </c>
@@ -9734,7 +9734,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>55</v>
       </c>
@@ -9743,92 +9743,92 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>307142857</v>
+        <v>316500000</v>
       </c>
       <c r="F77" s="11">
-        <v>309714286</v>
+        <v>335500000</v>
       </c>
       <c r="G77" s="11">
-        <v>316500000</v>
+        <v>256125000</v>
       </c>
       <c r="H77" s="11">
-        <v>335500000</v>
+        <v>523000000</v>
       </c>
       <c r="I77" s="11">
-        <v>256125000</v>
+        <v>251500000</v>
       </c>
       <c r="J77" s="11">
-        <v>523000000</v>
+        <v>220000000</v>
       </c>
       <c r="K77" s="11">
-        <v>251500000</v>
+        <v>4324857143</v>
       </c>
       <c r="L77" s="11">
-        <v>220000000</v>
+        <v>4065857143</v>
       </c>
       <c r="M77" s="11">
-        <v>4324857143</v>
+        <v>4262500000</v>
       </c>
       <c r="N77" s="11">
-        <v>4065857143</v>
+        <v>3626333333</v>
       </c>
       <c r="O77" s="11">
-        <v>4262500000</v>
+        <v>4917111111</v>
       </c>
       <c r="P77" s="11">
-        <v>3626333333</v>
+        <v>4403200000</v>
       </c>
       <c r="Q77" s="11">
-        <v>4917111111</v>
+        <v>5507285714</v>
       </c>
       <c r="R77" s="11">
-        <v>4403200000</v>
+        <v>5264000000</v>
       </c>
       <c r="S77" s="11">
-        <v>5507285714</v>
+        <v>4893250000</v>
       </c>
       <c r="T77" s="11">
-        <v>5264000000</v>
+        <v>4630779</v>
       </c>
       <c r="U77" s="11">
-        <v>4893250000</v>
+        <v>4687011</v>
       </c>
       <c r="V77" s="11">
-        <v>4630779</v>
+        <v>5275643</v>
       </c>
       <c r="W77" s="11">
-        <v>4687011</v>
+        <v>5381439</v>
       </c>
       <c r="X77" s="11">
-        <v>5275643</v>
+        <v>5048774</v>
       </c>
       <c r="Y77" s="11">
-        <v>5381439</v>
+        <v>5010669</v>
       </c>
       <c r="Z77" s="11">
-        <v>5048774</v>
+        <v>5655953</v>
       </c>
       <c r="AA77" s="11">
-        <v>5010669</v>
+        <v>5608980</v>
       </c>
       <c r="AB77" s="11">
-        <v>5655953</v>
+        <v>5833384</v>
       </c>
       <c r="AC77" s="11">
-        <v>5608980</v>
+        <v>8170543</v>
       </c>
       <c r="AD77" s="11">
-        <v>5833384</v>
+        <v>6803745</v>
       </c>
       <c r="AE77" s="11">
-        <v>8170543</v>
-      </c>
-      <c r="AF77" s="11">
-        <v>6803745</v>
-      </c>
-      <c r="AG77" s="11">
         <v>6586414</v>
       </c>
+      <c r="AF77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG77" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH77" s="11" t="s">
         <v>57</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>58</v>
       </c>
@@ -9902,157 +9902,157 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>8135000000</v>
+        <v>12220000000</v>
       </c>
       <c r="F78" s="13">
-        <v>7920000000</v>
+        <v>13860000000</v>
       </c>
       <c r="G78" s="13">
-        <v>12220000000</v>
+        <v>9068000000</v>
       </c>
       <c r="H78" s="13">
-        <v>13860000000</v>
+        <v>18066000000</v>
       </c>
       <c r="I78" s="13">
-        <v>9068000000</v>
+        <v>13124000000</v>
       </c>
       <c r="J78" s="13">
-        <v>18066000000</v>
+        <v>10462000000</v>
       </c>
       <c r="K78" s="13">
-        <v>13124000000</v>
+        <v>15854500000</v>
       </c>
       <c r="L78" s="13">
-        <v>10462000000</v>
+        <v>20890000000</v>
       </c>
       <c r="M78" s="13">
-        <v>15854500000</v>
+        <v>17573500000</v>
       </c>
       <c r="N78" s="13">
-        <v>20890000000</v>
+        <v>26127000000</v>
       </c>
       <c r="O78" s="13">
-        <v>17573500000</v>
+        <v>20950500000</v>
       </c>
       <c r="P78" s="13">
-        <v>26127000000</v>
+        <v>18786500000</v>
       </c>
       <c r="Q78" s="13">
-        <v>20950500000</v>
+        <v>17047500000</v>
       </c>
       <c r="R78" s="13">
-        <v>18786500000</v>
+        <v>15763500000</v>
       </c>
       <c r="S78" s="13">
-        <v>17047500000</v>
+        <v>15460000000</v>
       </c>
       <c r="T78" s="13">
-        <v>15763500000</v>
+        <v>22240828</v>
       </c>
       <c r="U78" s="13">
-        <v>15460000000</v>
+        <v>22293444</v>
       </c>
       <c r="V78" s="13">
-        <v>22240828</v>
+        <v>22293617</v>
       </c>
       <c r="W78" s="13">
-        <v>22293444</v>
+        <v>22293486</v>
       </c>
       <c r="X78" s="13">
-        <v>22293617</v>
+        <v>22293829</v>
       </c>
       <c r="Y78" s="13">
-        <v>22293486</v>
+        <v>22293720</v>
       </c>
       <c r="Z78" s="13">
-        <v>22293829</v>
+        <v>22873892</v>
       </c>
       <c r="AA78" s="13">
-        <v>22293720</v>
+        <v>22873811</v>
       </c>
       <c r="AB78" s="13">
-        <v>22873892</v>
+        <v>22873444</v>
       </c>
       <c r="AC78" s="13">
-        <v>22873811</v>
+        <v>22873460</v>
       </c>
       <c r="AD78" s="13">
-        <v>22873444</v>
+        <v>22873583</v>
       </c>
       <c r="AE78" s="13">
-        <v>22873460</v>
+        <v>25787739</v>
       </c>
       <c r="AF78" s="13">
-        <v>22873583</v>
+        <v>25788095</v>
       </c>
       <c r="AG78" s="13">
-        <v>25787739</v>
+        <v>25787879</v>
       </c>
       <c r="AH78" s="13">
-        <v>25788095</v>
+        <v>25787746</v>
       </c>
       <c r="AI78" s="13">
-        <v>25787879</v>
+        <v>25787921</v>
       </c>
       <c r="AJ78" s="13">
-        <v>25787746</v>
+        <v>25788310</v>
       </c>
       <c r="AK78" s="13">
-        <v>25787921</v>
+        <v>30423676</v>
       </c>
       <c r="AL78" s="13">
-        <v>25788310</v>
+        <v>30424038</v>
       </c>
       <c r="AM78" s="13">
-        <v>30423676</v>
+        <v>30423792</v>
       </c>
       <c r="AN78" s="13">
-        <v>30424038</v>
+        <v>30423588</v>
       </c>
       <c r="AO78" s="13">
-        <v>30423792</v>
+        <v>817186529</v>
       </c>
       <c r="AP78" s="13">
-        <v>30423588</v>
+        <v>66738659</v>
       </c>
       <c r="AQ78" s="13">
-        <v>817186529</v>
+        <v>66739505</v>
       </c>
       <c r="AR78" s="13">
-        <v>66738659</v>
+        <v>66738392</v>
       </c>
       <c r="AS78" s="13">
-        <v>66739505</v>
+        <v>66739340</v>
       </c>
       <c r="AT78" s="13">
-        <v>66738392</v>
+        <v>66743590</v>
       </c>
       <c r="AU78" s="13">
-        <v>66739340</v>
+        <v>493128137</v>
       </c>
       <c r="AV78" s="13">
-        <v>87917365</v>
+        <v>87912969</v>
       </c>
       <c r="AW78" s="13">
-        <v>493128137</v>
+        <v>87913310</v>
       </c>
       <c r="AX78" s="13">
-        <v>87912969</v>
+        <v>87913368</v>
       </c>
       <c r="AY78" s="13">
-        <v>87913310</v>
+        <v>87913043</v>
       </c>
       <c r="AZ78" s="13">
-        <v>87913368</v>
+        <v>87913333</v>
       </c>
       <c r="BA78" s="13">
-        <v>87913043</v>
+        <v>87912558</v>
       </c>
       <c r="BB78" s="13">
-        <v>87913333</v>
+        <v>206050687</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>60</v>
       </c>
@@ -10061,56 +10061,56 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>25637942857</v>
+        <v>20745160377</v>
       </c>
       <c r="F79" s="11">
-        <v>18567116279</v>
+        <v>22901785714</v>
       </c>
       <c r="G79" s="11">
-        <v>20745160377</v>
+        <v>23300800000</v>
       </c>
       <c r="H79" s="11">
-        <v>22901785714</v>
+        <v>25474755319</v>
       </c>
       <c r="I79" s="11">
-        <v>23300800000</v>
+        <v>26850430380</v>
       </c>
       <c r="J79" s="11">
-        <v>25474755319</v>
+        <v>26858505882</v>
       </c>
       <c r="K79" s="11">
-        <v>26850430380</v>
+        <v>27350205479</v>
       </c>
       <c r="L79" s="11">
-        <v>26858505882</v>
+        <v>25915718310</v>
       </c>
       <c r="M79" s="11">
-        <v>27350205479</v>
+        <v>24346795918</v>
       </c>
       <c r="N79" s="11">
-        <v>25915718310</v>
+        <v>24586106383</v>
       </c>
       <c r="O79" s="11">
-        <v>24346795918</v>
+        <v>22972084746</v>
       </c>
       <c r="P79" s="11">
-        <v>24586106383</v>
+        <v>20518489130</v>
       </c>
       <c r="Q79" s="11">
-        <v>22972084746</v>
+        <v>24580282353</v>
       </c>
       <c r="R79" s="11">
-        <v>20518489130</v>
+        <v>27516551724</v>
       </c>
       <c r="S79" s="11">
-        <v>24580282353</v>
-      </c>
-      <c r="T79" s="11">
-        <v>27516551724</v>
-      </c>
-      <c r="U79" s="11">
         <v>26418115385</v>
       </c>
+      <c r="T79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U79" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V79" s="11" t="s">
         <v>57</v>
       </c>
@@ -10168,50 +10168,50 @@
       <c r="AN79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO79" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP79" s="11" t="s">
-        <v>57</v>
+      <c r="AO79" s="11">
+        <v>78689278</v>
+      </c>
+      <c r="AP79" s="11">
+        <v>80586588</v>
       </c>
       <c r="AQ79" s="11">
-        <v>78689278</v>
+        <v>86549017</v>
       </c>
       <c r="AR79" s="11">
-        <v>80547377</v>
+        <v>85002408</v>
       </c>
       <c r="AS79" s="11">
-        <v>86549017</v>
+        <v>83864435</v>
       </c>
       <c r="AT79" s="11">
-        <v>85534078</v>
+        <v>79657599</v>
       </c>
       <c r="AU79" s="11">
-        <v>84160899</v>
+        <v>65279647</v>
       </c>
       <c r="AV79" s="11">
-        <v>79657599</v>
+        <v>65212060</v>
       </c>
       <c r="AW79" s="11">
-        <v>65475620</v>
+        <v>79978222</v>
       </c>
       <c r="AX79" s="11">
-        <v>65257601</v>
+        <v>72584107</v>
       </c>
       <c r="AY79" s="11">
-        <v>79978222</v>
+        <v>79833055</v>
       </c>
       <c r="AZ79" s="11">
-        <v>72591620</v>
+        <v>79698655</v>
       </c>
       <c r="BA79" s="11">
-        <v>80473883</v>
+        <v>84384863</v>
       </c>
       <c r="BB79" s="11">
-        <v>78634600</v>
+        <v>82858431</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>61</v>
       </c>
@@ -10220,56 +10220,56 @@
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
-        <v>49294444444</v>
+        <v>46782285714</v>
       </c>
       <c r="F80" s="13">
-        <v>59557000000</v>
+        <v>34588857143</v>
       </c>
       <c r="G80" s="13">
-        <v>46782285714</v>
+        <v>38674909091</v>
       </c>
       <c r="H80" s="13">
-        <v>34588857143</v>
+        <v>44181625000</v>
       </c>
       <c r="I80" s="13">
-        <v>38674909091</v>
+        <v>48749285714</v>
       </c>
       <c r="J80" s="13">
-        <v>44181625000</v>
+        <v>52649833333</v>
       </c>
       <c r="K80" s="13">
-        <v>48749285714</v>
+        <v>47691166667</v>
       </c>
       <c r="L80" s="13">
-        <v>52649833333</v>
+        <v>52383625000</v>
       </c>
       <c r="M80" s="13">
-        <v>47691166667</v>
+        <v>52919666667</v>
       </c>
       <c r="N80" s="13">
-        <v>52383625000</v>
+        <v>52973000000</v>
       </c>
       <c r="O80" s="13">
-        <v>52919666667</v>
+        <v>48457375000</v>
       </c>
       <c r="P80" s="13">
-        <v>52973000000</v>
+        <v>45659000000</v>
       </c>
       <c r="Q80" s="13">
-        <v>48457375000</v>
+        <v>72357117647</v>
       </c>
       <c r="R80" s="13">
-        <v>45659000000</v>
+        <v>44172777778</v>
       </c>
       <c r="S80" s="13">
-        <v>72357117647</v>
-      </c>
-      <c r="T80" s="13">
-        <v>44172777778</v>
-      </c>
-      <c r="U80" s="13">
         <v>45441000000</v>
       </c>
+      <c r="T80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U80" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V80" s="13" t="s">
         <v>57</v>
       </c>
@@ -10327,50 +10327,50 @@
       <c r="AN80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP80" s="13" t="s">
-        <v>57</v>
+      <c r="AO80" s="13">
+        <v>227443259</v>
+      </c>
+      <c r="AP80" s="13">
+        <v>181145040</v>
       </c>
       <c r="AQ80" s="13">
-        <v>227443259</v>
+        <v>167830748</v>
       </c>
       <c r="AR80" s="13">
-        <v>180292555</v>
+        <v>149532371</v>
       </c>
       <c r="AS80" s="13">
-        <v>167830748</v>
+        <v>164588756</v>
       </c>
       <c r="AT80" s="13">
-        <v>144862298</v>
+        <v>160211110</v>
       </c>
       <c r="AU80" s="13">
-        <v>162421400</v>
+        <v>163455542</v>
       </c>
       <c r="AV80" s="13">
-        <v>160211110</v>
+        <v>150062733</v>
       </c>
       <c r="AW80" s="13">
-        <v>161732304</v>
+        <v>123846285</v>
       </c>
       <c r="AX80" s="13">
-        <v>149334173</v>
+        <v>113394178</v>
       </c>
       <c r="AY80" s="13">
-        <v>123846285</v>
+        <v>113316962</v>
       </c>
       <c r="AZ80" s="13">
-        <v>113332553</v>
+        <v>111727934</v>
       </c>
       <c r="BA80" s="13">
-        <v>113730692</v>
+        <v>111218512</v>
       </c>
       <c r="BB80" s="13">
-        <v>112943375</v>
+        <v>111107502</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>62</v>
       </c>
@@ -10432,66 +10432,66 @@
       <c r="V81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>57</v>
+      <c r="W81" s="11">
+        <v>55255422</v>
+      </c>
+      <c r="X81" s="11">
+        <v>63488177</v>
       </c>
       <c r="Y81" s="11">
-        <v>55255422</v>
+        <v>65809638</v>
       </c>
       <c r="Z81" s="11">
-        <v>63488177</v>
+        <v>74260274</v>
       </c>
       <c r="AA81" s="11">
-        <v>65809638</v>
+        <v>84655417</v>
       </c>
       <c r="AB81" s="11">
-        <v>74260274</v>
+        <v>111817130</v>
       </c>
       <c r="AC81" s="11">
-        <v>84655417</v>
+        <v>140207557</v>
       </c>
       <c r="AD81" s="11">
-        <v>111817130</v>
+        <v>150341519</v>
       </c>
       <c r="AE81" s="11">
-        <v>140207557</v>
+        <v>197960959</v>
       </c>
       <c r="AF81" s="11">
-        <v>150341519</v>
+        <v>210886215</v>
       </c>
       <c r="AG81" s="11">
-        <v>197960959</v>
+        <v>218944743</v>
       </c>
       <c r="AH81" s="11">
-        <v>210886215</v>
+        <v>222840012</v>
       </c>
       <c r="AI81" s="11">
-        <v>218944743</v>
+        <v>218826323</v>
       </c>
       <c r="AJ81" s="11">
-        <v>222840012</v>
+        <v>203697448</v>
       </c>
       <c r="AK81" s="11">
-        <v>218826323</v>
+        <v>192510247</v>
       </c>
       <c r="AL81" s="11">
-        <v>203697448</v>
+        <v>199377031</v>
       </c>
       <c r="AM81" s="11">
-        <v>192510247</v>
+        <v>265880655</v>
       </c>
       <c r="AN81" s="11">
-        <v>199377031</v>
-      </c>
-      <c r="AO81" s="11">
-        <v>265880655</v>
-      </c>
-      <c r="AP81" s="11">
         <v>242113268</v>
       </c>
+      <c r="AO81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP81" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ81" s="11" t="s">
         <v>57</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>63</v>
       </c>
@@ -10591,66 +10591,66 @@
       <c r="V82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X82" s="13" t="s">
-        <v>57</v>
+      <c r="W82" s="13">
+        <v>20431152</v>
+      </c>
+      <c r="X82" s="13">
+        <v>26285153</v>
       </c>
       <c r="Y82" s="13">
-        <v>20431152</v>
+        <v>32852138</v>
       </c>
       <c r="Z82" s="13">
-        <v>26285153</v>
+        <v>40642486</v>
       </c>
       <c r="AA82" s="13">
-        <v>32852138</v>
+        <v>52675831</v>
       </c>
       <c r="AB82" s="13">
-        <v>40642486</v>
+        <v>68615031</v>
       </c>
       <c r="AC82" s="13">
-        <v>52675831</v>
+        <v>77822925</v>
       </c>
       <c r="AD82" s="13">
-        <v>68615031</v>
+        <v>76835860</v>
       </c>
       <c r="AE82" s="13">
-        <v>77822925</v>
+        <v>72209630</v>
       </c>
       <c r="AF82" s="13">
-        <v>76835860</v>
+        <v>67326329</v>
       </c>
       <c r="AG82" s="13">
-        <v>72209630</v>
+        <v>67463596</v>
       </c>
       <c r="AH82" s="13">
-        <v>67326329</v>
+        <v>63396222</v>
       </c>
       <c r="AI82" s="13">
-        <v>67463596</v>
+        <v>62448068</v>
       </c>
       <c r="AJ82" s="13">
-        <v>63396222</v>
+        <v>71393102</v>
       </c>
       <c r="AK82" s="13">
-        <v>62448068</v>
+        <v>75944379</v>
       </c>
       <c r="AL82" s="13">
-        <v>71393102</v>
+        <v>90216342</v>
       </c>
       <c r="AM82" s="13">
-        <v>75944379</v>
+        <v>90682870</v>
       </c>
       <c r="AN82" s="13">
-        <v>90216342</v>
-      </c>
-      <c r="AO82" s="13">
-        <v>90682870</v>
-      </c>
-      <c r="AP82" s="13">
         <v>85128495</v>
       </c>
+      <c r="AO82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP82" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ82" s="13" t="s">
         <v>57</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>64</v>
       </c>
@@ -10750,66 +10750,66 @@
       <c r="V83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X83" s="11" t="s">
-        <v>57</v>
+      <c r="W83" s="11">
+        <v>26581753</v>
+      </c>
+      <c r="X83" s="11">
+        <v>28712225</v>
       </c>
       <c r="Y83" s="11">
-        <v>26581753</v>
+        <v>40621428</v>
       </c>
       <c r="Z83" s="11">
-        <v>28712225</v>
+        <v>49384344</v>
       </c>
       <c r="AA83" s="11">
-        <v>40621428</v>
+        <v>56441106</v>
       </c>
       <c r="AB83" s="11">
-        <v>49384344</v>
+        <v>71337700</v>
       </c>
       <c r="AC83" s="11">
-        <v>56441106</v>
+        <v>85126785</v>
       </c>
       <c r="AD83" s="11">
-        <v>71337700</v>
+        <v>72055972</v>
       </c>
       <c r="AE83" s="11">
-        <v>85126785</v>
+        <v>72522861</v>
       </c>
       <c r="AF83" s="11">
-        <v>72055972</v>
+        <v>70650641</v>
       </c>
       <c r="AG83" s="11">
-        <v>72522861</v>
+        <v>68540090</v>
       </c>
       <c r="AH83" s="11">
-        <v>70650641</v>
+        <v>67638711</v>
       </c>
       <c r="AI83" s="11">
-        <v>68540090</v>
+        <v>67700172</v>
       </c>
       <c r="AJ83" s="11">
-        <v>67638711</v>
+        <v>72519334</v>
       </c>
       <c r="AK83" s="11">
-        <v>67700172</v>
+        <v>76082783</v>
       </c>
       <c r="AL83" s="11">
-        <v>72519334</v>
+        <v>106280625</v>
       </c>
       <c r="AM83" s="11">
-        <v>76082783</v>
+        <v>89781628</v>
       </c>
       <c r="AN83" s="11">
-        <v>106280625</v>
-      </c>
-      <c r="AO83" s="11">
-        <v>89781628</v>
-      </c>
-      <c r="AP83" s="11">
         <v>77190047</v>
       </c>
+      <c r="AO83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP83" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ83" s="11" t="s">
         <v>57</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>65</v>
       </c>
@@ -10909,66 +10909,66 @@
       <c r="V84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X84" s="13" t="s">
-        <v>57</v>
+      <c r="W84" s="13">
+        <v>32051500</v>
+      </c>
+      <c r="X84" s="13">
+        <v>32594238</v>
       </c>
       <c r="Y84" s="13">
-        <v>32051500</v>
+        <v>39724161</v>
       </c>
       <c r="Z84" s="13">
-        <v>32594238</v>
+        <v>60528356</v>
       </c>
       <c r="AA84" s="13">
-        <v>39724161</v>
+        <v>60125701</v>
       </c>
       <c r="AB84" s="13">
-        <v>60528356</v>
+        <v>86215311</v>
       </c>
       <c r="AC84" s="13">
-        <v>60125701</v>
+        <v>83286411</v>
       </c>
       <c r="AD84" s="13">
-        <v>86215311</v>
+        <v>140699453</v>
       </c>
       <c r="AE84" s="13">
-        <v>83286411</v>
+        <v>176592577</v>
       </c>
       <c r="AF84" s="13">
-        <v>140699453</v>
+        <v>204859002</v>
       </c>
       <c r="AG84" s="13">
-        <v>176592577</v>
+        <v>173206849</v>
       </c>
       <c r="AH84" s="13">
-        <v>204859002</v>
+        <v>183614155</v>
       </c>
       <c r="AI84" s="13">
-        <v>173206849</v>
+        <v>175189681</v>
       </c>
       <c r="AJ84" s="13">
-        <v>183614155</v>
+        <v>210850962</v>
       </c>
       <c r="AK84" s="13">
-        <v>175189681</v>
+        <v>193233896</v>
       </c>
       <c r="AL84" s="13">
-        <v>210850962</v>
+        <v>179582702</v>
       </c>
       <c r="AM84" s="13">
-        <v>193233896</v>
+        <v>274472086</v>
       </c>
       <c r="AN84" s="13">
-        <v>179582702</v>
-      </c>
-      <c r="AO84" s="13">
-        <v>274472086</v>
-      </c>
-      <c r="AP84" s="13">
         <v>265461150</v>
       </c>
+      <c r="AO84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP84" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ84" s="13" t="s">
         <v>57</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>66</v>
       </c>
@@ -11095,77 +11095,77 @@
       <c r="AE85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG85" s="11" t="s">
-        <v>57</v>
+      <c r="AF85" s="11">
+        <v>8542394</v>
+      </c>
+      <c r="AG85" s="11">
+        <v>5664041</v>
       </c>
       <c r="AH85" s="11">
-        <v>8542394</v>
+        <v>6518583</v>
       </c>
       <c r="AI85" s="11">
-        <v>5664041</v>
+        <v>7049071</v>
       </c>
       <c r="AJ85" s="11">
-        <v>6518583</v>
+        <v>6391902</v>
       </c>
       <c r="AK85" s="11">
-        <v>7049071</v>
+        <v>7827133</v>
       </c>
       <c r="AL85" s="11">
-        <v>6391902</v>
+        <v>8214167</v>
       </c>
       <c r="AM85" s="11">
-        <v>7827133</v>
+        <v>135000000</v>
       </c>
       <c r="AN85" s="11">
-        <v>8214167</v>
+        <v>11600711</v>
       </c>
       <c r="AO85" s="11">
-        <v>135000000</v>
+        <v>11307991</v>
       </c>
       <c r="AP85" s="11">
-        <v>11600711</v>
+        <v>12974115</v>
       </c>
       <c r="AQ85" s="11">
-        <v>11307991</v>
+        <v>14359050</v>
       </c>
       <c r="AR85" s="11">
-        <v>12971438</v>
+        <v>13077541</v>
       </c>
       <c r="AS85" s="11">
-        <v>14359050</v>
+        <v>6290394</v>
       </c>
       <c r="AT85" s="11">
-        <v>13077541</v>
+        <v>3550725</v>
       </c>
       <c r="AU85" s="11">
-        <v>6290394</v>
+        <v>21964784</v>
       </c>
       <c r="AV85" s="11">
-        <v>4041606</v>
+        <v>6311205</v>
       </c>
       <c r="AW85" s="11">
-        <v>21964784</v>
+        <v>5344554</v>
       </c>
       <c r="AX85" s="11">
-        <v>6311205</v>
+        <v>7744200</v>
       </c>
       <c r="AY85" s="11">
-        <v>5344554</v>
+        <v>11440622</v>
       </c>
       <c r="AZ85" s="11">
-        <v>7744200</v>
+        <v>6923313</v>
       </c>
       <c r="BA85" s="11">
-        <v>11440622</v>
+        <v>16864035</v>
       </c>
       <c r="BB85" s="11">
-        <v>6923313</v>
+        <v>18533881</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>67</v>
       </c>
@@ -11218,21 +11218,21 @@
       <c r="S86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U86" s="13" t="s">
-        <v>57</v>
+      <c r="T86" s="13">
+        <v>22300667</v>
+      </c>
+      <c r="U86" s="13">
+        <v>18907869</v>
       </c>
       <c r="V86" s="13">
-        <v>22300667</v>
-      </c>
-      <c r="W86" s="13">
-        <v>18907869</v>
-      </c>
-      <c r="X86" s="13">
         <v>20350299</v>
       </c>
+      <c r="W86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X86" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y86" s="13" t="s">
         <v>57</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>68</v>
       </c>
@@ -11377,20 +11377,20 @@
       <c r="S87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T87" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U87" s="11" t="s">
-        <v>57</v>
+      <c r="T87" s="11">
+        <v>52667197</v>
+      </c>
+      <c r="U87" s="11">
+        <v>32552382</v>
       </c>
       <c r="V87" s="11">
-        <v>52667197</v>
-      </c>
-      <c r="W87" s="11">
-        <v>32552382</v>
-      </c>
-      <c r="X87" s="11">
         <v>39030516</v>
+      </c>
+      <c r="W87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="Y87" s="11" t="s">
         <v>57</v>

--- a/database/industries/methanol/shefan/product/monthly.xlsx
+++ b/database/industries/methanol/shefan/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="85">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3454,13 +3454,13 @@
         <v>8</v>
       </c>
       <c r="F11" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="G11" s="12" t="n">
-        <v>6</v>
-      </c>
       <c r="H11" s="12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="12" t="n">
         <v>7</v>
@@ -3469,64 +3469,64 @@
         <v>7</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M11" s="12" t="n">
         <v>9</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>8</v>
+        <v>7570</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>7570</v>
+        <v>7029</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>7029</v>
+        <v>7701</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>7701</v>
+        <v>7145</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>7145</v>
+        <v>7052</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>7052</v>
+        <v>6706</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>6706</v>
+        <v>4730</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>4730</v>
+        <v>3519</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>3519</v>
+        <v>6590</v>
       </c>
       <c r="AA11" s="12" t="n">
-        <v>6590</v>
+        <v>2192</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>2192</v>
+        <v>5232</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>5232</v>
-      </c>
-      <c r="AD11" s="12" t="n">
         <v>5491</v>
+      </c>
+      <c r="AD11" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE11" s="13" t="s">
         <v>57</v>
@@ -3610,154 +3610,154 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="N12" s="15" t="n">
         <v>9</v>
-      </c>
-      <c r="F12" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="M12" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" s="15" t="n">
-        <v>8</v>
       </c>
       <c r="O12" s="15" t="n">
         <v>9</v>
       </c>
       <c r="P12" s="15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="15" t="n">
         <v>8</v>
       </c>
       <c r="R12" s="15" t="n">
-        <v>8</v>
+        <v>8590</v>
       </c>
       <c r="S12" s="15" t="n">
-        <v>8590</v>
+        <v>7557</v>
       </c>
       <c r="T12" s="15" t="n">
-        <v>7557</v>
+        <v>8551</v>
       </c>
       <c r="U12" s="15" t="n">
-        <v>8551</v>
+        <v>8769</v>
       </c>
       <c r="V12" s="15" t="n">
-        <v>8769</v>
+        <v>8659</v>
       </c>
       <c r="W12" s="15" t="n">
-        <v>8659</v>
+        <v>9259</v>
       </c>
       <c r="X12" s="15" t="n">
-        <v>9259</v>
+        <v>9187</v>
       </c>
       <c r="Y12" s="15" t="n">
-        <v>9187</v>
+        <v>9394</v>
       </c>
       <c r="Z12" s="15" t="n">
-        <v>9394</v>
+        <v>9058</v>
       </c>
       <c r="AA12" s="15" t="n">
-        <v>9058</v>
+        <v>9659</v>
       </c>
       <c r="AB12" s="15" t="n">
-        <v>9659</v>
+        <v>9662</v>
       </c>
       <c r="AC12" s="15" t="n">
-        <v>9662</v>
+        <v>9440</v>
       </c>
       <c r="AD12" s="15" t="n">
-        <v>9440</v>
+        <v>9678</v>
       </c>
       <c r="AE12" s="15" t="n">
-        <v>9678</v>
+        <v>6314</v>
       </c>
       <c r="AF12" s="15" t="n">
-        <v>6314</v>
+        <v>8038</v>
       </c>
       <c r="AG12" s="15" t="n">
-        <v>8038</v>
+        <v>8363</v>
       </c>
       <c r="AH12" s="15" t="n">
-        <v>8363</v>
+        <v>8156</v>
       </c>
       <c r="AI12" s="15" t="n">
-        <v>8156</v>
+        <v>8988</v>
       </c>
       <c r="AJ12" s="15" t="n">
-        <v>8988</v>
+        <v>9257</v>
       </c>
       <c r="AK12" s="15" t="n">
-        <v>9257</v>
+        <v>9178</v>
       </c>
       <c r="AL12" s="15" t="n">
-        <v>9178</v>
+        <v>9420</v>
       </c>
       <c r="AM12" s="15" t="n">
-        <v>9420</v>
+        <v>8814</v>
       </c>
       <c r="AN12" s="15" t="n">
-        <v>8814</v>
+        <v>9533</v>
       </c>
       <c r="AO12" s="15" t="n">
-        <v>9533</v>
+        <v>9123</v>
       </c>
       <c r="AP12" s="15" t="n">
-        <v>9123</v>
+        <v>8406</v>
       </c>
       <c r="AQ12" s="15" t="n">
-        <v>8406</v>
+        <v>8039</v>
       </c>
       <c r="AR12" s="15" t="n">
-        <v>8039</v>
+        <v>2656</v>
       </c>
       <c r="AS12" s="15" t="n">
-        <v>2656</v>
+        <v>6992</v>
       </c>
       <c r="AT12" s="15" t="n">
-        <v>6992</v>
+        <v>7692</v>
       </c>
       <c r="AU12" s="15" t="n">
-        <v>7692</v>
+        <v>9280</v>
       </c>
       <c r="AV12" s="15" t="n">
-        <v>9280</v>
+        <v>8800</v>
       </c>
       <c r="AW12" s="15" t="n">
-        <v>8800</v>
+        <v>9781</v>
       </c>
       <c r="AX12" s="15" t="n">
-        <v>9781</v>
+        <v>9870</v>
       </c>
       <c r="AY12" s="15" t="n">
-        <v>9870</v>
+        <v>9098</v>
       </c>
       <c r="AZ12" s="15" t="n">
-        <v>9098</v>
+        <v>6978</v>
       </c>
       <c r="BA12" s="15" t="n">
-        <v>6978</v>
+        <v>9787</v>
       </c>
       <c r="BB12" s="15" t="n">
-        <v>9787</v>
+        <v>10278</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,47 +3769,47 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="n">
+        <v>84</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>89</v>
+      </c>
+      <c r="G13" s="13" t="n">
         <v>87</v>
       </c>
-      <c r="F13" s="13" t="n">
-        <v>84</v>
-      </c>
-      <c r="G13" s="13" t="n">
-        <v>89</v>
-      </c>
       <c r="H13" s="13" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I13" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>68</v>
+      </c>
+      <c r="L13" s="13" t="n">
         <v>83</v>
       </c>
-      <c r="J13" s="13" t="n">
+      <c r="M13" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="N13" s="13" t="n">
+        <v>86</v>
+      </c>
+      <c r="O13" s="13" t="n">
         <v>80</v>
       </c>
-      <c r="K13" s="13" t="n">
-        <v>81</v>
-      </c>
-      <c r="L13" s="13" t="n">
-        <v>68</v>
-      </c>
-      <c r="M13" s="13" t="n">
-        <v>83</v>
-      </c>
-      <c r="N13" s="13" t="n">
-        <v>85</v>
-      </c>
-      <c r="O13" s="13" t="n">
-        <v>86</v>
-      </c>
       <c r="P13" s="13" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="13" t="n">
-        <v>67</v>
-      </c>
-      <c r="R13" s="13" t="n">
         <v>82</v>
       </c>
+      <c r="R13" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S13" s="13" t="s">
         <v>57</v>
       </c>
@@ -3870,53 +3870,53 @@
       <c r="AL13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM13" s="13" t="s">
-        <v>57</v>
+      <c r="AM13" s="13" t="n">
+        <v>79793</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>79793</v>
+        <v>83864</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>83864</v>
+        <v>76777</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>76777</v>
+        <v>78293</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>78293</v>
+        <v>82482</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>82482</v>
+        <v>80935</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>80935</v>
+        <v>71720</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>71720</v>
+        <v>75709</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>75709</v>
+        <v>75763</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>75763</v>
+        <v>54860</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>54860</v>
+        <v>110021</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>110021</v>
+        <v>71764</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>71764</v>
+        <v>21171</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>21171</v>
+        <v>57065</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>57065</v>
+        <v>80152</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>80152</v>
+        <v>86008</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,46 +3928,46 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F14" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K14" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="15" t="n">
-        <v>9</v>
-      </c>
-      <c r="H14" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="I14" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="K14" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="L14" s="15" t="n">
-        <v>6</v>
-      </c>
       <c r="M14" s="15" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N14" s="15" t="n">
         <v>11</v>
       </c>
       <c r="O14" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="P14" s="15" t="n">
         <v>11</v>
-      </c>
-      <c r="P14" s="15" t="n">
-        <v>13</v>
       </c>
       <c r="Q14" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="R14" s="15" t="n">
-        <v>11</v>
+      <c r="R14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S14" s="16" t="s">
         <v>57</v>
@@ -4029,53 +4029,53 @@
       <c r="AL14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM14" s="16" t="s">
-        <v>57</v>
+      <c r="AM14" s="16" t="n">
+        <v>12204</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>12204</v>
+        <v>12564</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>12564</v>
+        <v>11631</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>11631</v>
+        <v>11881</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>11881</v>
+        <v>10774</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>10774</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>0</v>
+        <v>9401</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>9401</v>
+        <v>11009</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>11009</v>
+        <v>13947</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>13947</v>
+        <v>13523</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>13523</v>
+        <v>14198</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>14198</v>
+        <v>11983</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>11983</v>
+        <v>11848</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>11848</v>
+        <v>9951</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>9951</v>
+        <v>13374</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>13374</v>
+        <v>13650</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,62 +4134,62 @@
       <c r="T15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>57</v>
+      <c r="U15" s="13" t="n">
+        <v>6638</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>6638</v>
+        <v>9186</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>9186</v>
+        <v>10542</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>10542</v>
+        <v>6633</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>6633</v>
+        <v>6169</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>6169</v>
+        <v>5074</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>5074</v>
+        <v>6669</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>6669</v>
+        <v>6761</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>6761</v>
+        <v>5675</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>5675</v>
+        <v>12973</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>12973</v>
+        <v>3505</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>3505</v>
+        <v>6005</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>6005</v>
+        <v>6092</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>6092</v>
+        <v>11728</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>11728</v>
+        <v>6371</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>6371</v>
+        <v>7252</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>7252</v>
+        <v>7207</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>7207</v>
-      </c>
-      <c r="AM15" s="13" t="n">
         <v>6506</v>
+      </c>
+      <c r="AM15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN15" s="13" t="s">
         <v>57</v>
@@ -4293,62 +4293,62 @@
       <c r="T16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>57</v>
+      <c r="U16" s="16" t="n">
+        <v>10931</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>10931</v>
+        <v>16111</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>16111</v>
+        <v>21312</v>
       </c>
       <c r="X16" s="16" t="n">
-        <v>21312</v>
+        <v>19485</v>
       </c>
       <c r="Y16" s="16" t="n">
-        <v>19485</v>
+        <v>16785</v>
       </c>
       <c r="Z16" s="16" t="n">
-        <v>16785</v>
+        <v>20795</v>
       </c>
       <c r="AA16" s="16" t="n">
-        <v>20795</v>
+        <v>34861</v>
       </c>
       <c r="AB16" s="16" t="n">
-        <v>34861</v>
+        <v>17511</v>
       </c>
       <c r="AC16" s="16" t="n">
-        <v>17511</v>
+        <v>27370</v>
       </c>
       <c r="AD16" s="16" t="n">
-        <v>27370</v>
+        <v>11532</v>
       </c>
       <c r="AE16" s="16" t="n">
-        <v>11532</v>
+        <v>44965</v>
       </c>
       <c r="AF16" s="16" t="n">
-        <v>44965</v>
+        <v>20251</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>20251</v>
+        <v>23457</v>
       </c>
       <c r="AH16" s="16" t="n">
-        <v>23457</v>
+        <v>14147</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>14147</v>
+        <v>25698</v>
       </c>
       <c r="AJ16" s="16" t="n">
-        <v>25698</v>
+        <v>17713</v>
       </c>
       <c r="AK16" s="16" t="n">
-        <v>17713</v>
+        <v>17073</v>
       </c>
       <c r="AL16" s="16" t="n">
-        <v>17073</v>
-      </c>
-      <c r="AM16" s="16" t="n">
         <v>18028</v>
+      </c>
+      <c r="AM16" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AN16" s="16" t="s">
         <v>57</v>
@@ -4452,62 +4452,62 @@
       <c r="T17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>57</v>
+      <c r="U17" s="13" t="n">
+        <v>66455</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>66455</v>
+        <v>60310</v>
       </c>
       <c r="W17" s="13" t="n">
-        <v>60310</v>
+        <v>62424</v>
       </c>
       <c r="X17" s="13" t="n">
-        <v>62424</v>
+        <v>58844</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>58844</v>
+        <v>64256</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>64256</v>
+        <v>58813</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>58813</v>
+        <v>42062</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>42062</v>
+        <v>61872</v>
       </c>
       <c r="AC17" s="13" t="n">
-        <v>61872</v>
+        <v>45416</v>
       </c>
       <c r="AD17" s="13" t="n">
-        <v>45416</v>
+        <v>38497</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>38497</v>
+        <v>37751</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>37751</v>
+        <v>65527</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>65527</v>
+        <v>58200</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>58200</v>
+        <v>68051</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>68051</v>
+        <v>54147</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>54147</v>
+        <v>60735</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>60735</v>
+        <v>61740</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>61740</v>
-      </c>
-      <c r="AM17" s="13" t="n">
         <v>61853</v>
+      </c>
+      <c r="AM17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN17" s="13" t="s">
         <v>57</v>
@@ -4611,62 +4611,62 @@
       <c r="T18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>57</v>
+      <c r="U18" s="16" t="n">
+        <v>5754</v>
       </c>
       <c r="V18" s="16" t="n">
-        <v>5754</v>
+        <v>2635</v>
       </c>
       <c r="W18" s="16" t="n">
-        <v>2635</v>
+        <v>3459</v>
       </c>
       <c r="X18" s="16" t="n">
-        <v>3459</v>
+        <v>6943</v>
       </c>
       <c r="Y18" s="16" t="n">
-        <v>6943</v>
+        <v>7323</v>
       </c>
       <c r="Z18" s="16" t="n">
-        <v>7323</v>
+        <v>2842</v>
       </c>
       <c r="AA18" s="16" t="n">
-        <v>2842</v>
+        <v>6769</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>6769</v>
+        <v>6879</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>6879</v>
+        <v>7498</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>7498</v>
+        <v>1116</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>1116</v>
+        <v>5790</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>5790</v>
+        <v>5768</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>5768</v>
+        <v>5230</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>5230</v>
+        <v>344</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>344</v>
+        <v>6796</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>6796</v>
+        <v>5767</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>5767</v>
+        <v>6426</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>6426</v>
-      </c>
-      <c r="AM18" s="16" t="n">
         <v>3386</v>
+      </c>
+      <c r="AM18" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AN18" s="16" t="s">
         <v>57</v>
@@ -4797,80 +4797,80 @@
       <c r="AC19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD19" s="13" t="s">
-        <v>57</v>
+      <c r="AD19" s="13" t="n">
+        <v>3267</v>
       </c>
       <c r="AE19" s="13" t="n">
-        <v>3267</v>
+        <v>5331</v>
       </c>
       <c r="AF19" s="13" t="n">
-        <v>5331</v>
+        <v>5166</v>
       </c>
       <c r="AG19" s="13" t="n">
-        <v>5166</v>
+        <v>2853</v>
       </c>
       <c r="AH19" s="13" t="n">
-        <v>2853</v>
+        <v>5236</v>
       </c>
       <c r="AI19" s="13" t="n">
-        <v>5236</v>
+        <v>3199</v>
       </c>
       <c r="AJ19" s="13" t="n">
-        <v>3199</v>
+        <v>2414</v>
       </c>
       <c r="AK19" s="13" t="n">
-        <v>2414</v>
+        <v>97</v>
       </c>
       <c r="AL19" s="13" t="n">
-        <v>97</v>
+        <v>2249</v>
       </c>
       <c r="AM19" s="13" t="n">
-        <v>2249</v>
+        <v>1802</v>
       </c>
       <c r="AN19" s="13" t="n">
-        <v>1802</v>
+        <v>4211</v>
       </c>
       <c r="AO19" s="13" t="n">
-        <v>4211</v>
+        <v>2696</v>
       </c>
       <c r="AP19" s="13" t="n">
-        <v>2696</v>
+        <v>2863</v>
       </c>
       <c r="AQ19" s="13" t="n">
-        <v>2863</v>
+        <v>5403</v>
       </c>
       <c r="AR19" s="13" t="n">
-        <v>5403</v>
+        <v>4071</v>
       </c>
       <c r="AS19" s="13" t="n">
-        <v>4071</v>
+        <v>1363</v>
       </c>
       <c r="AT19" s="13" t="n">
-        <v>1363</v>
+        <v>4447</v>
       </c>
       <c r="AU19" s="13" t="n">
-        <v>4447</v>
+        <v>4159</v>
       </c>
       <c r="AV19" s="13" t="n">
-        <v>4159</v>
+        <v>1681</v>
       </c>
       <c r="AW19" s="13" t="n">
-        <v>1681</v>
+        <v>4564</v>
       </c>
       <c r="AX19" s="13" t="n">
-        <v>4564</v>
+        <v>3260</v>
       </c>
       <c r="AY19" s="13" t="n">
-        <v>3260</v>
+        <v>912</v>
       </c>
       <c r="AZ19" s="13" t="n">
-        <v>912</v>
+        <v>974</v>
       </c>
       <c r="BA19" s="13" t="n">
-        <v>974</v>
+        <v>5121</v>
       </c>
       <c r="BB19" s="13" t="n">
-        <v>5121</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,17 +4920,17 @@
       <c r="Q20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="16" t="s">
-        <v>57</v>
+      <c r="R20" s="16" t="n">
+        <v>87380</v>
       </c>
       <c r="S20" s="16" t="n">
-        <v>87380</v>
+        <v>84994</v>
       </c>
       <c r="T20" s="16" t="n">
-        <v>84994</v>
-      </c>
-      <c r="U20" s="16" t="n">
         <v>85081</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V20" s="16" t="s">
         <v>57</v>
@@ -5079,17 +5079,17 @@
       <c r="Q21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R21" s="13" t="s">
-        <v>57</v>
+      <c r="R21" s="13" t="n">
+        <v>11850</v>
       </c>
       <c r="S21" s="13" t="n">
-        <v>11850</v>
+        <v>10569</v>
       </c>
       <c r="T21" s="13" t="n">
-        <v>10569</v>
-      </c>
-      <c r="U21" s="13" t="n">
         <v>12262</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V21" s="13" t="s">
         <v>57</v>
@@ -5302,8 +5302,8 @@
       <c r="T23" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U23" s="20" t="s">
-        <v>57</v>
+      <c r="U23" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="20" t="n">
         <v>0</v>
@@ -5412,154 +5412,154 @@
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="n">
+        <v>101</v>
+      </c>
+      <c r="F24" s="22" t="n">
+        <v>110</v>
+      </c>
+      <c r="G24" s="22" t="n">
+        <v>108</v>
+      </c>
+      <c r="H24" s="22" t="n">
+        <v>97</v>
+      </c>
+      <c r="I24" s="22" t="n">
+        <v>98</v>
+      </c>
+      <c r="J24" s="22" t="n">
+        <v>102</v>
+      </c>
+      <c r="K24" s="22" t="n">
+        <v>85</v>
+      </c>
+      <c r="L24" s="22" t="n">
+        <v>101</v>
+      </c>
+      <c r="M24" s="22" t="n">
+        <v>113</v>
+      </c>
+      <c r="N24" s="22" t="n">
         <v>116</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>101</v>
-      </c>
-      <c r="G24" s="22" t="n">
-        <v>110</v>
-      </c>
-      <c r="H24" s="22" t="n">
-        <v>108</v>
-      </c>
-      <c r="I24" s="22" t="n">
-        <v>97</v>
-      </c>
-      <c r="J24" s="22" t="n">
-        <v>98</v>
-      </c>
-      <c r="K24" s="22" t="n">
-        <v>102</v>
-      </c>
-      <c r="L24" s="22" t="n">
-        <v>85</v>
-      </c>
-      <c r="M24" s="22" t="n">
-        <v>101</v>
-      </c>
-      <c r="N24" s="22" t="n">
-        <v>113</v>
-      </c>
       <c r="O24" s="22" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P24" s="22" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q24" s="22" t="n">
         <v>109</v>
       </c>
-      <c r="Q24" s="22" t="n">
-        <v>91</v>
-      </c>
       <c r="R24" s="22" t="n">
-        <v>109</v>
+        <v>115390</v>
       </c>
       <c r="S24" s="22" t="n">
-        <v>115390</v>
+        <v>110149</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>110149</v>
+        <v>113595</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>113595</v>
+        <v>105692</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>105692</v>
+        <v>103953</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>103953</v>
+        <v>113702</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>113702</v>
+        <v>105822</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>105822</v>
+        <v>107446</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>107446</v>
+        <v>103172</v>
       </c>
       <c r="AA24" s="22" t="n">
-        <v>103172</v>
+        <v>102212</v>
       </c>
       <c r="AB24" s="22" t="n">
-        <v>102212</v>
+        <v>107917</v>
       </c>
       <c r="AC24" s="22" t="n">
-        <v>107917</v>
+        <v>100890</v>
       </c>
       <c r="AD24" s="22" t="n">
-        <v>100890</v>
+        <v>77063</v>
       </c>
       <c r="AE24" s="22" t="n">
-        <v>77063</v>
+        <v>103656</v>
       </c>
       <c r="AF24" s="22" t="n">
-        <v>103656</v>
+        <v>110755</v>
       </c>
       <c r="AG24" s="22" t="n">
-        <v>110755</v>
+        <v>104195</v>
       </c>
       <c r="AH24" s="22" t="n">
-        <v>104195</v>
+        <v>107662</v>
       </c>
       <c r="AI24" s="22" t="n">
-        <v>107662</v>
+        <v>105199</v>
       </c>
       <c r="AJ24" s="22" t="n">
-        <v>105199</v>
+        <v>103138</v>
       </c>
       <c r="AK24" s="22" t="n">
-        <v>103138</v>
+        <v>101721</v>
       </c>
       <c r="AL24" s="22" t="n">
-        <v>101721</v>
+        <v>101442</v>
       </c>
       <c r="AM24" s="22" t="n">
-        <v>101442</v>
+        <v>102613</v>
       </c>
       <c r="AN24" s="22" t="n">
-        <v>102613</v>
+        <v>110172</v>
       </c>
       <c r="AO24" s="22" t="n">
-        <v>110172</v>
+        <v>100227</v>
       </c>
       <c r="AP24" s="22" t="n">
-        <v>100227</v>
+        <v>101443</v>
       </c>
       <c r="AQ24" s="22" t="n">
-        <v>101443</v>
+        <v>106698</v>
       </c>
       <c r="AR24" s="22" t="n">
-        <v>106698</v>
+        <v>87662</v>
       </c>
       <c r="AS24" s="22" t="n">
-        <v>87662</v>
+        <v>89476</v>
       </c>
       <c r="AT24" s="22" t="n">
-        <v>89476</v>
+        <v>98857</v>
       </c>
       <c r="AU24" s="22" t="n">
-        <v>98857</v>
+        <v>103149</v>
       </c>
       <c r="AV24" s="22" t="n">
-        <v>103149</v>
+        <v>78864</v>
       </c>
       <c r="AW24" s="22" t="n">
-        <v>78864</v>
+        <v>138564</v>
       </c>
       <c r="AX24" s="22" t="n">
-        <v>138564</v>
+        <v>96877</v>
       </c>
       <c r="AY24" s="22" t="n">
-        <v>96877</v>
+        <v>43029</v>
       </c>
       <c r="AZ24" s="22" t="n">
-        <v>43029</v>
+        <v>74968</v>
       </c>
       <c r="BA24" s="22" t="n">
-        <v>74968</v>
+        <v>108434</v>
       </c>
       <c r="BB24" s="22" t="n">
-        <v>108434</v>
+        <v>114140</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6008,13 +6008,13 @@
         <v>8</v>
       </c>
       <c r="F31" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="G31" s="13" t="n">
-        <v>6</v>
-      </c>
       <c r="H31" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31" s="13" t="n">
         <v>7</v>
@@ -6023,64 +6023,64 @@
         <v>7</v>
       </c>
       <c r="K31" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L31" s="13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M31" s="13" t="n">
         <v>9</v>
       </c>
       <c r="N31" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O31" s="13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P31" s="13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q31" s="13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R31" s="13" t="n">
-        <v>8</v>
+        <v>7570</v>
       </c>
       <c r="S31" s="13" t="n">
-        <v>7570</v>
+        <v>7029</v>
       </c>
       <c r="T31" s="13" t="n">
-        <v>7029</v>
+        <v>7702</v>
       </c>
       <c r="U31" s="13" t="n">
-        <v>7702</v>
+        <v>7144</v>
       </c>
       <c r="V31" s="13" t="n">
-        <v>7144</v>
+        <v>7012</v>
       </c>
       <c r="W31" s="13" t="n">
-        <v>7012</v>
+        <v>6655</v>
       </c>
       <c r="X31" s="13" t="n">
-        <v>6655</v>
+        <v>4729</v>
       </c>
       <c r="Y31" s="13" t="n">
-        <v>4729</v>
+        <v>3519</v>
       </c>
       <c r="Z31" s="13" t="n">
-        <v>3519</v>
+        <v>6590</v>
       </c>
       <c r="AA31" s="13" t="n">
-        <v>6590</v>
+        <v>2193</v>
       </c>
       <c r="AB31" s="13" t="n">
-        <v>2193</v>
+        <v>5233</v>
       </c>
       <c r="AC31" s="13" t="n">
-        <v>5233</v>
-      </c>
-      <c r="AD31" s="13" t="n">
         <v>5491</v>
+      </c>
+      <c r="AD31" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE31" s="13" t="s">
         <v>57</v>
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="16" t="n">
         <v>2</v>
@@ -6185,10 +6185,10 @@
         <v>2</v>
       </c>
       <c r="L32" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="16" t="n">
         <v>2</v>
-      </c>
-      <c r="M32" s="16" t="n">
-        <v>1</v>
       </c>
       <c r="N32" s="16" t="n">
         <v>2</v>
@@ -6203,115 +6203,115 @@
         <v>2</v>
       </c>
       <c r="R32" s="16" t="n">
-        <v>2</v>
+        <v>1690</v>
       </c>
       <c r="S32" s="16" t="n">
-        <v>1690</v>
+        <v>1571</v>
       </c>
       <c r="T32" s="16" t="n">
-        <v>1571</v>
+        <v>1645</v>
       </c>
       <c r="U32" s="16" t="n">
-        <v>1645</v>
+        <v>1397</v>
       </c>
       <c r="V32" s="16" t="n">
-        <v>1397</v>
+        <v>1426</v>
       </c>
       <c r="W32" s="16" t="n">
-        <v>1426</v>
+        <v>1481</v>
       </c>
       <c r="X32" s="16" t="n">
+        <v>1467</v>
+      </c>
+      <c r="Y32" s="16" t="n">
+        <v>1577</v>
+      </c>
+      <c r="Z32" s="16" t="n">
+        <v>1446</v>
+      </c>
+      <c r="AA32" s="16" t="n">
+        <v>1786</v>
+      </c>
+      <c r="AB32" s="16" t="n">
+        <v>1764</v>
+      </c>
+      <c r="AC32" s="16" t="n">
+        <v>1517</v>
+      </c>
+      <c r="AD32" s="16" t="n">
+        <v>1680</v>
+      </c>
+      <c r="AE32" s="16" t="n">
+        <v>858</v>
+      </c>
+      <c r="AF32" s="16" t="n">
+        <v>1371</v>
+      </c>
+      <c r="AG32" s="16" t="n">
+        <v>1424</v>
+      </c>
+      <c r="AH32" s="16" t="n">
+        <v>1266</v>
+      </c>
+      <c r="AI32" s="16" t="n">
+        <v>1605</v>
+      </c>
+      <c r="AJ32" s="16" t="n">
         <v>1481</v>
       </c>
-      <c r="Y32" s="16" t="n">
-        <v>1467</v>
-      </c>
-      <c r="Z32" s="16" t="n">
-        <v>1577</v>
-      </c>
-      <c r="AA32" s="16" t="n">
-        <v>1446</v>
-      </c>
-      <c r="AB32" s="16" t="n">
-        <v>1786</v>
-      </c>
-      <c r="AC32" s="16" t="n">
-        <v>1764</v>
-      </c>
-      <c r="AD32" s="16" t="n">
-        <v>1517</v>
-      </c>
-      <c r="AE32" s="16" t="n">
-        <v>1680</v>
-      </c>
-      <c r="AF32" s="16" t="n">
-        <v>858</v>
-      </c>
-      <c r="AG32" s="16" t="n">
-        <v>1371</v>
-      </c>
-      <c r="AH32" s="16" t="n">
-        <v>1424</v>
-      </c>
-      <c r="AI32" s="16" t="n">
-        <v>1266</v>
-      </c>
-      <c r="AJ32" s="16" t="n">
-        <v>1605</v>
-      </c>
       <c r="AK32" s="16" t="n">
-        <v>1481</v>
+        <v>1076</v>
       </c>
       <c r="AL32" s="16" t="n">
-        <v>1076</v>
+        <v>1204</v>
       </c>
       <c r="AM32" s="16" t="n">
-        <v>1204</v>
+        <v>579</v>
       </c>
       <c r="AN32" s="16" t="n">
-        <v>579</v>
+        <v>1014</v>
       </c>
       <c r="AO32" s="16" t="n">
-        <v>1014</v>
+        <v>929</v>
       </c>
       <c r="AP32" s="16" t="n">
-        <v>929</v>
+        <v>883</v>
       </c>
       <c r="AQ32" s="16" t="n">
-        <v>883</v>
+        <v>1243</v>
       </c>
       <c r="AR32" s="16" t="n">
-        <v>1243</v>
+        <v>78</v>
       </c>
       <c r="AS32" s="16" t="n">
-        <v>78</v>
+        <v>757</v>
       </c>
       <c r="AT32" s="16" t="n">
-        <v>757</v>
+        <v>1172</v>
       </c>
       <c r="AU32" s="16" t="n">
-        <v>1172</v>
+        <v>1142</v>
       </c>
       <c r="AV32" s="16" t="n">
-        <v>1142</v>
+        <v>1339</v>
       </c>
       <c r="AW32" s="16" t="n">
-        <v>1339</v>
+        <v>1587</v>
       </c>
       <c r="AX32" s="16" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="AY32" s="16" t="n">
-        <v>1350</v>
+        <v>1521</v>
       </c>
       <c r="AZ32" s="16" t="n">
-        <v>1521</v>
+        <v>1164</v>
       </c>
       <c r="BA32" s="16" t="n">
-        <v>1164</v>
+        <v>1407</v>
       </c>
       <c r="BB32" s="16" t="n">
-        <v>1407</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6323,47 +6323,47 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F33" s="13" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G33" s="13" t="n">
+        <v>79</v>
+      </c>
+      <c r="H33" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="I33" s="13" t="n">
+        <v>73</v>
+      </c>
+      <c r="J33" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="K33" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="L33" s="13" t="n">
         <v>94</v>
       </c>
-      <c r="H33" s="13" t="n">
-        <v>79</v>
-      </c>
-      <c r="I33" s="13" t="n">
+      <c r="M33" s="13" t="n">
+        <v>59</v>
+      </c>
+      <c r="N33" s="13" t="n">
+        <v>92</v>
+      </c>
+      <c r="O33" s="13" t="n">
         <v>85</v>
       </c>
-      <c r="J33" s="13" t="n">
-        <v>73</v>
-      </c>
-      <c r="K33" s="13" t="n">
-        <v>71</v>
-      </c>
-      <c r="L33" s="13" t="n">
-        <v>49</v>
-      </c>
-      <c r="M33" s="13" t="n">
-        <v>94</v>
-      </c>
-      <c r="N33" s="13" t="n">
-        <v>59</v>
-      </c>
-      <c r="O33" s="13" t="n">
-        <v>92</v>
-      </c>
       <c r="P33" s="13" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="13" t="n">
-        <v>58</v>
-      </c>
-      <c r="R33" s="13" t="n">
         <v>78</v>
       </c>
+      <c r="R33" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S33" s="13" t="s">
         <v>57</v>
       </c>
@@ -6424,53 +6424,53 @@
       <c r="AL33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM33" s="13" t="s">
-        <v>57</v>
+      <c r="AM33" s="13" t="n">
+        <v>75360</v>
       </c>
       <c r="AN33" s="13" t="n">
-        <v>75360</v>
+        <v>96913</v>
       </c>
       <c r="AO33" s="13" t="n">
-        <v>96913</v>
+        <v>36640</v>
       </c>
       <c r="AP33" s="13" t="n">
-        <v>36640</v>
+        <v>77674</v>
       </c>
       <c r="AQ33" s="13" t="n">
-        <v>77674</v>
+        <v>37281</v>
       </c>
       <c r="AR33" s="13" t="n">
-        <v>37281</v>
+        <v>80911</v>
       </c>
       <c r="AS33" s="13" t="n">
-        <v>80911</v>
+        <v>62368</v>
       </c>
       <c r="AT33" s="13" t="n">
-        <v>62368</v>
+        <v>151603</v>
       </c>
       <c r="AU33" s="13" t="n">
-        <v>151603</v>
+        <v>74294</v>
       </c>
       <c r="AV33" s="13" t="n">
-        <v>74294</v>
+        <v>32429</v>
       </c>
       <c r="AW33" s="13" t="n">
-        <v>32429</v>
+        <v>53988</v>
       </c>
       <c r="AX33" s="13" t="n">
-        <v>53988</v>
+        <v>46913</v>
       </c>
       <c r="AY33" s="13" t="n">
-        <v>46913</v>
+        <v>56750</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>56750</v>
+        <v>20739</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>20739</v>
+        <v>104843</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>104843</v>
+        <v>84132</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6482,46 +6482,46 @@
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F34" s="16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G34" s="16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" s="16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I34" s="16" t="n">
         <v>6</v>
       </c>
       <c r="J34" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="K34" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="K34" s="16" t="n">
+      <c r="L34" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M34" s="16" t="n">
         <v>8</v>
-      </c>
-      <c r="L34" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="M34" s="16" t="n">
-        <v>7</v>
       </c>
       <c r="N34" s="16" t="n">
         <v>8</v>
       </c>
       <c r="O34" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="P34" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="P34" s="16" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q34" s="16" t="n">
-        <v>9</v>
-      </c>
-      <c r="R34" s="16" t="n">
-        <v>8</v>
+      <c r="R34" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S34" s="16" t="s">
         <v>57</v>
@@ -6583,53 +6583,53 @@
       <c r="AL34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM34" s="16" t="s">
-        <v>57</v>
+      <c r="AM34" s="16" t="n">
+        <v>9182</v>
       </c>
       <c r="AN34" s="16" t="n">
-        <v>9182</v>
+        <v>19243</v>
       </c>
       <c r="AO34" s="16" t="n">
-        <v>19243</v>
+        <v>5867</v>
       </c>
       <c r="AP34" s="16" t="n">
-        <v>5867</v>
+        <v>13994</v>
       </c>
       <c r="AQ34" s="16" t="n">
-        <v>13994</v>
+        <v>8467</v>
       </c>
       <c r="AR34" s="16" t="n">
-        <v>8467</v>
+        <v>7309</v>
       </c>
       <c r="AS34" s="16" t="n">
-        <v>7309</v>
+        <v>6658</v>
       </c>
       <c r="AT34" s="16" t="n">
-        <v>6658</v>
+        <v>10202</v>
       </c>
       <c r="AU34" s="16" t="n">
-        <v>10202</v>
+        <v>9960</v>
       </c>
       <c r="AV34" s="16" t="n">
-        <v>9960</v>
+        <v>9034</v>
       </c>
       <c r="AW34" s="16" t="n">
-        <v>9034</v>
+        <v>10954</v>
       </c>
       <c r="AX34" s="16" t="n">
-        <v>10954</v>
+        <v>9766</v>
       </c>
       <c r="AY34" s="16" t="n">
-        <v>9766</v>
+        <v>14196</v>
       </c>
       <c r="AZ34" s="16" t="n">
-        <v>14196</v>
+        <v>14623</v>
       </c>
       <c r="BA34" s="16" t="n">
-        <v>14623</v>
+        <v>16028</v>
       </c>
       <c r="BB34" s="16" t="n">
-        <v>16028</v>
+        <v>14213</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6688,62 +6688,62 @@
       <c r="T35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U35" s="13" t="s">
-        <v>57</v>
+      <c r="U35" s="13" t="n">
+        <v>7885</v>
       </c>
       <c r="V35" s="13" t="n">
-        <v>7885</v>
+        <v>8712</v>
       </c>
       <c r="W35" s="13" t="n">
-        <v>8712</v>
+        <v>9172</v>
       </c>
       <c r="X35" s="13" t="n">
-        <v>9172</v>
+        <v>7665</v>
       </c>
       <c r="Y35" s="13" t="n">
-        <v>7665</v>
+        <v>6756</v>
       </c>
       <c r="Z35" s="13" t="n">
-        <v>6756</v>
+        <v>5791</v>
       </c>
       <c r="AA35" s="13" t="n">
-        <v>5791</v>
+        <v>6061</v>
       </c>
       <c r="AB35" s="13" t="n">
-        <v>6061</v>
+        <v>6108</v>
       </c>
       <c r="AC35" s="13" t="n">
-        <v>6108</v>
+        <v>7300</v>
       </c>
       <c r="AD35" s="13" t="n">
-        <v>7300</v>
+        <v>5361</v>
       </c>
       <c r="AE35" s="13" t="n">
-        <v>5361</v>
+        <v>6135</v>
       </c>
       <c r="AF35" s="13" t="n">
-        <v>6135</v>
+        <v>6838</v>
       </c>
       <c r="AG35" s="13" t="n">
-        <v>6838</v>
+        <v>6276</v>
       </c>
       <c r="AH35" s="13" t="n">
-        <v>6276</v>
+        <v>7093</v>
       </c>
       <c r="AI35" s="13" t="n">
-        <v>7093</v>
+        <v>7612</v>
       </c>
       <c r="AJ35" s="13" t="n">
-        <v>7612</v>
+        <v>7140</v>
       </c>
       <c r="AK35" s="13" t="n">
-        <v>7140</v>
+        <v>6167</v>
       </c>
       <c r="AL35" s="13" t="n">
-        <v>6167</v>
-      </c>
-      <c r="AM35" s="13" t="n">
         <v>6851</v>
+      </c>
+      <c r="AM35" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN35" s="13" t="s">
         <v>57</v>
@@ -6847,62 +6847,62 @@
       <c r="T36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U36" s="16" t="s">
-        <v>57</v>
+      <c r="U36" s="16" t="n">
+        <v>13617</v>
       </c>
       <c r="V36" s="16" t="n">
-        <v>13617</v>
+        <v>16798</v>
       </c>
       <c r="W36" s="16" t="n">
-        <v>16798</v>
+        <v>18409</v>
       </c>
       <c r="X36" s="16" t="n">
-        <v>18409</v>
+        <v>19437</v>
       </c>
       <c r="Y36" s="16" t="n">
-        <v>19437</v>
+        <v>16405</v>
       </c>
       <c r="Z36" s="16" t="n">
-        <v>16405</v>
+        <v>18030</v>
       </c>
       <c r="AA36" s="16" t="n">
-        <v>18030</v>
+        <v>23442</v>
       </c>
       <c r="AB36" s="16" t="n">
-        <v>23442</v>
+        <v>19989</v>
       </c>
       <c r="AC36" s="16" t="n">
-        <v>19989</v>
+        <v>26480</v>
       </c>
       <c r="AD36" s="16" t="n">
-        <v>26480</v>
+        <v>11565</v>
       </c>
       <c r="AE36" s="16" t="n">
-        <v>11565</v>
+        <v>21495</v>
       </c>
       <c r="AF36" s="16" t="n">
-        <v>21495</v>
+        <v>17629</v>
       </c>
       <c r="AG36" s="16" t="n">
-        <v>17629</v>
+        <v>18553</v>
       </c>
       <c r="AH36" s="16" t="n">
-        <v>18553</v>
+        <v>19804</v>
       </c>
       <c r="AI36" s="16" t="n">
-        <v>19804</v>
+        <v>20352</v>
       </c>
       <c r="AJ36" s="16" t="n">
-        <v>20352</v>
+        <v>16571</v>
       </c>
       <c r="AK36" s="16" t="n">
-        <v>16571</v>
+        <v>19913</v>
       </c>
       <c r="AL36" s="16" t="n">
-        <v>19913</v>
-      </c>
-      <c r="AM36" s="16" t="n">
         <v>20351</v>
+      </c>
+      <c r="AM36" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AN36" s="16" t="s">
         <v>57</v>
@@ -7006,62 +7006,62 @@
       <c r="T37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U37" s="13" t="s">
-        <v>57</v>
+      <c r="U37" s="13" t="n">
+        <v>82786</v>
       </c>
       <c r="V37" s="13" t="n">
-        <v>82786</v>
+        <v>62879</v>
       </c>
       <c r="W37" s="13" t="n">
-        <v>62879</v>
+        <v>53921</v>
       </c>
       <c r="X37" s="13" t="n">
-        <v>53921</v>
+        <v>58700</v>
       </c>
       <c r="Y37" s="13" t="n">
-        <v>58700</v>
+        <v>62799</v>
       </c>
       <c r="Z37" s="13" t="n">
-        <v>62799</v>
+        <v>50992</v>
       </c>
       <c r="AA37" s="13" t="n">
-        <v>50992</v>
+        <v>28284</v>
       </c>
       <c r="AB37" s="13" t="n">
-        <v>28284</v>
+        <v>70625</v>
       </c>
       <c r="AC37" s="13" t="n">
-        <v>70625</v>
+        <v>43939</v>
       </c>
       <c r="AD37" s="13" t="n">
-        <v>43939</v>
+        <v>38605</v>
       </c>
       <c r="AE37" s="13" t="n">
-        <v>38605</v>
+        <v>18047</v>
       </c>
       <c r="AF37" s="13" t="n">
-        <v>18047</v>
+        <v>57043</v>
       </c>
       <c r="AG37" s="13" t="n">
-        <v>57043</v>
+        <v>46033</v>
       </c>
       <c r="AH37" s="13" t="n">
-        <v>46033</v>
+        <v>75127</v>
       </c>
       <c r="AI37" s="13" t="n">
-        <v>75127</v>
+        <v>42883</v>
       </c>
       <c r="AJ37" s="13" t="n">
-        <v>42883</v>
+        <v>30033</v>
       </c>
       <c r="AK37" s="13" t="n">
-        <v>30033</v>
+        <v>72010</v>
       </c>
       <c r="AL37" s="13" t="n">
-        <v>72010</v>
-      </c>
-      <c r="AM37" s="13" t="n">
         <v>69825</v>
+      </c>
+      <c r="AM37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN37" s="13" t="s">
         <v>57</v>
@@ -7165,62 +7165,62 @@
       <c r="T38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U38" s="16" t="s">
-        <v>57</v>
+      <c r="U38" s="16" t="n">
+        <v>6835</v>
       </c>
       <c r="V38" s="16" t="n">
-        <v>6835</v>
+        <v>2499</v>
       </c>
       <c r="W38" s="16" t="n">
-        <v>2499</v>
+        <v>3009</v>
       </c>
       <c r="X38" s="16" t="n">
-        <v>3009</v>
+        <v>8023</v>
       </c>
       <c r="Y38" s="16" t="n">
-        <v>8023</v>
+        <v>8019</v>
       </c>
       <c r="Z38" s="16" t="n">
-        <v>8019</v>
+        <v>3344</v>
       </c>
       <c r="AA38" s="16" t="n">
-        <v>3344</v>
+        <v>6152</v>
       </c>
       <c r="AB38" s="16" t="n">
-        <v>6152</v>
+        <v>6212</v>
       </c>
       <c r="AC38" s="16" t="n">
-        <v>6212</v>
+        <v>9646</v>
       </c>
       <c r="AD38" s="16" t="n">
-        <v>9646</v>
+        <v>461</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>461</v>
+        <v>10133</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>10133</v>
+        <v>6570</v>
       </c>
       <c r="AG38" s="16" t="n">
-        <v>6570</v>
+        <v>5388</v>
       </c>
       <c r="AH38" s="16" t="n">
-        <v>5388</v>
+        <v>208</v>
       </c>
       <c r="AI38" s="16" t="n">
-        <v>208</v>
+        <v>8119</v>
       </c>
       <c r="AJ38" s="16" t="n">
-        <v>8119</v>
+        <v>5677</v>
       </c>
       <c r="AK38" s="16" t="n">
-        <v>5677</v>
+        <v>5499</v>
       </c>
       <c r="AL38" s="16" t="n">
-        <v>5499</v>
-      </c>
-      <c r="AM38" s="16" t="n">
         <v>3565</v>
+      </c>
+      <c r="AM38" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AN38" s="16" t="s">
         <v>57</v>
@@ -7351,80 +7351,80 @@
       <c r="AC39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD39" s="13" t="s">
-        <v>57</v>
+      <c r="AD39" s="13" t="n">
+        <v>3267</v>
       </c>
       <c r="AE39" s="13" t="n">
-        <v>3267</v>
+        <v>5331</v>
       </c>
       <c r="AF39" s="13" t="n">
-        <v>5331</v>
+        <v>5166</v>
       </c>
       <c r="AG39" s="13" t="n">
-        <v>5166</v>
+        <v>2853</v>
       </c>
       <c r="AH39" s="13" t="n">
-        <v>2853</v>
+        <v>5236</v>
       </c>
       <c r="AI39" s="13" t="n">
-        <v>5236</v>
+        <v>3199</v>
       </c>
       <c r="AJ39" s="13" t="n">
-        <v>3199</v>
+        <v>2414</v>
       </c>
       <c r="AK39" s="13" t="n">
-        <v>2414</v>
+        <v>97</v>
       </c>
       <c r="AL39" s="13" t="n">
-        <v>97</v>
+        <v>2249</v>
       </c>
       <c r="AM39" s="13" t="n">
-        <v>2249</v>
+        <v>1802</v>
       </c>
       <c r="AN39" s="13" t="n">
-        <v>1802</v>
+        <v>4211</v>
       </c>
       <c r="AO39" s="13" t="n">
-        <v>4211</v>
+        <v>2696</v>
       </c>
       <c r="AP39" s="13" t="n">
-        <v>2696</v>
+        <v>2863</v>
       </c>
       <c r="AQ39" s="13" t="n">
-        <v>2863</v>
+        <v>5403</v>
       </c>
       <c r="AR39" s="13" t="n">
-        <v>5403</v>
+        <v>4071</v>
       </c>
       <c r="AS39" s="13" t="n">
-        <v>4071</v>
+        <v>1363</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>1363</v>
+        <v>4248</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>4248</v>
+        <v>4159</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>4159</v>
+        <v>1681</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>1681</v>
+        <v>4564</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>4564</v>
+        <v>3260</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>3260</v>
+        <v>912</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>912</v>
+        <v>974</v>
       </c>
       <c r="BA39" s="13" t="n">
-        <v>974</v>
+        <v>5121</v>
       </c>
       <c r="BB39" s="13" t="n">
-        <v>5121</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7474,17 +7474,17 @@
       <c r="Q40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R40" s="16" t="s">
-        <v>57</v>
+      <c r="R40" s="16" t="n">
+        <v>69000</v>
       </c>
       <c r="S40" s="16" t="n">
-        <v>69000</v>
+        <v>93725</v>
       </c>
       <c r="T40" s="16" t="n">
-        <v>93725</v>
-      </c>
-      <c r="U40" s="16" t="n">
         <v>60437</v>
+      </c>
+      <c r="U40" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V40" s="16" t="s">
         <v>57</v>
@@ -7633,17 +7633,17 @@
       <c r="Q41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R41" s="13" t="s">
-        <v>57</v>
+      <c r="R41" s="13" t="n">
+        <v>5030</v>
       </c>
       <c r="S41" s="13" t="n">
-        <v>5030</v>
+        <v>14671</v>
       </c>
       <c r="T41" s="13" t="n">
-        <v>14671</v>
-      </c>
-      <c r="U41" s="13" t="n">
         <v>16057</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V41" s="13" t="s">
         <v>57</v>
@@ -7856,8 +7856,8 @@
       <c r="T43" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U43" s="20" t="s">
-        <v>57</v>
+      <c r="U43" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="20" t="n">
         <v>0</v>
@@ -8070,8 +8070,8 @@
       <c r="T45" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U45" s="20" t="s">
-        <v>57</v>
+      <c r="U45" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="20" t="n">
         <v>0</v>
@@ -8180,154 +8180,154 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F46" s="22" t="n">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="G46" s="22" t="n">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H46" s="22" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I46" s="22" t="n">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="J46" s="22" t="n">
         <v>88</v>
       </c>
       <c r="K46" s="22" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="L46" s="22" t="n">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="M46" s="22" t="n">
+        <v>78</v>
+      </c>
+      <c r="N46" s="22" t="n">
+        <v>112</v>
+      </c>
+      <c r="O46" s="22" t="n">
         <v>111</v>
       </c>
-      <c r="N46" s="22" t="n">
-        <v>78</v>
-      </c>
-      <c r="O46" s="22" t="n">
-        <v>112</v>
-      </c>
       <c r="P46" s="22" t="n">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="Q46" s="22" t="n">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="R46" s="22" t="n">
-        <v>96</v>
+        <v>83290</v>
       </c>
       <c r="S46" s="22" t="n">
-        <v>83290</v>
+        <v>116996</v>
       </c>
       <c r="T46" s="22" t="n">
-        <v>116996</v>
+        <v>85841</v>
       </c>
       <c r="U46" s="22" t="n">
-        <v>85841</v>
+        <v>119664</v>
       </c>
       <c r="V46" s="22" t="n">
-        <v>119664</v>
+        <v>99326</v>
       </c>
       <c r="W46" s="22" t="n">
-        <v>99326</v>
+        <v>92647</v>
       </c>
       <c r="X46" s="22" t="n">
-        <v>92647</v>
+        <v>100021</v>
       </c>
       <c r="Y46" s="22" t="n">
-        <v>100021</v>
+        <v>99075</v>
       </c>
       <c r="Z46" s="22" t="n">
-        <v>99075</v>
+        <v>86193</v>
       </c>
       <c r="AA46" s="22" t="n">
-        <v>86193</v>
+        <v>67918</v>
       </c>
       <c r="AB46" s="22" t="n">
-        <v>67918</v>
+        <v>109931</v>
       </c>
       <c r="AC46" s="22" t="n">
-        <v>109931</v>
+        <v>94373</v>
       </c>
       <c r="AD46" s="22" t="n">
-        <v>94373</v>
+        <v>60939</v>
       </c>
       <c r="AE46" s="22" t="n">
-        <v>60939</v>
+        <v>61999</v>
       </c>
       <c r="AF46" s="22" t="n">
-        <v>61999</v>
+        <v>94617</v>
       </c>
       <c r="AG46" s="22" t="n">
-        <v>94617</v>
+        <v>80527</v>
       </c>
       <c r="AH46" s="22" t="n">
-        <v>80527</v>
+        <v>108734</v>
       </c>
       <c r="AI46" s="22" t="n">
-        <v>108734</v>
+        <v>83770</v>
       </c>
       <c r="AJ46" s="22" t="n">
-        <v>83770</v>
+        <v>63316</v>
       </c>
       <c r="AK46" s="22" t="n">
-        <v>63316</v>
+        <v>104762</v>
       </c>
       <c r="AL46" s="22" t="n">
-        <v>104762</v>
+        <v>104045</v>
       </c>
       <c r="AM46" s="22" t="n">
-        <v>104045</v>
+        <v>86923</v>
       </c>
       <c r="AN46" s="22" t="n">
-        <v>86923</v>
+        <v>121381</v>
       </c>
       <c r="AO46" s="22" t="n">
-        <v>121381</v>
+        <v>46132</v>
       </c>
       <c r="AP46" s="22" t="n">
-        <v>46132</v>
+        <v>95414</v>
       </c>
       <c r="AQ46" s="22" t="n">
-        <v>95414</v>
+        <v>52394</v>
       </c>
       <c r="AR46" s="22" t="n">
-        <v>52394</v>
+        <v>92369</v>
       </c>
       <c r="AS46" s="22" t="n">
-        <v>92369</v>
+        <v>71146</v>
       </c>
       <c r="AT46" s="22" t="n">
-        <v>71146</v>
+        <v>167225</v>
       </c>
       <c r="AU46" s="22" t="n">
-        <v>167225</v>
+        <v>89555</v>
       </c>
       <c r="AV46" s="22" t="n">
-        <v>89555</v>
+        <v>44483</v>
       </c>
       <c r="AW46" s="22" t="n">
-        <v>44483</v>
+        <v>71093</v>
       </c>
       <c r="AX46" s="22" t="n">
-        <v>71093</v>
+        <v>61289</v>
       </c>
       <c r="AY46" s="22" t="n">
-        <v>61289</v>
+        <v>73379</v>
       </c>
       <c r="AZ46" s="22" t="n">
-        <v>73379</v>
+        <v>37500</v>
       </c>
       <c r="BA46" s="22" t="n">
-        <v>37500</v>
+        <v>127399</v>
       </c>
       <c r="BB46" s="22" t="n">
-        <v>127399</v>
+        <v>103939</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8773,82 +8773,82 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="n">
-        <v>2684</v>
+        <v>2049</v>
       </c>
       <c r="F53" s="13" t="n">
-        <v>2049</v>
+        <v>3138</v>
       </c>
       <c r="G53" s="13" t="n">
-        <v>3138</v>
+        <v>2012</v>
       </c>
       <c r="H53" s="13" t="n">
-        <v>2012</v>
+        <v>1540</v>
       </c>
       <c r="I53" s="13" t="n">
-        <v>1540</v>
+        <v>30274</v>
       </c>
       <c r="J53" s="13" t="n">
-        <v>30274</v>
+        <v>28461</v>
       </c>
       <c r="K53" s="13" t="n">
-        <v>28461</v>
+        <v>25575</v>
       </c>
       <c r="L53" s="13" t="n">
-        <v>25575</v>
+        <v>32637</v>
       </c>
       <c r="M53" s="13" t="n">
-        <v>32637</v>
+        <v>44254</v>
       </c>
       <c r="N53" s="13" t="n">
-        <v>44254</v>
+        <v>44032</v>
       </c>
       <c r="O53" s="13" t="n">
-        <v>44032</v>
+        <v>38551</v>
       </c>
       <c r="P53" s="13" t="n">
-        <v>38551</v>
+        <v>26320</v>
       </c>
       <c r="Q53" s="13" t="n">
-        <v>26320</v>
+        <v>39146</v>
       </c>
       <c r="R53" s="13" t="n">
-        <v>39146</v>
+        <v>35055</v>
       </c>
       <c r="S53" s="13" t="n">
-        <v>35055</v>
+        <v>32945</v>
       </c>
       <c r="T53" s="13" t="n">
-        <v>32945</v>
+        <v>40633</v>
       </c>
       <c r="U53" s="13" t="n">
-        <v>40633</v>
+        <v>38445</v>
       </c>
       <c r="V53" s="13" t="n">
-        <v>38445</v>
+        <v>35402</v>
       </c>
       <c r="W53" s="13" t="n">
-        <v>35402</v>
+        <v>33346</v>
       </c>
       <c r="X53" s="13" t="n">
-        <v>33346</v>
+        <v>26747</v>
       </c>
       <c r="Y53" s="13" t="n">
-        <v>26747</v>
+        <v>19738</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>19738</v>
+        <v>38442</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>38442</v>
+        <v>17918</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>17918</v>
+        <v>35604</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>35604</v>
-      </c>
-      <c r="AD53" s="13" t="n">
         <v>36166</v>
+      </c>
+      <c r="AD53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE53" s="13" t="s">
         <v>57</v>
@@ -8932,154 +8932,154 @@
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16" t="n">
-        <v>13860</v>
+        <v>9068</v>
       </c>
       <c r="F54" s="16" t="n">
-        <v>9068</v>
+        <v>18066</v>
       </c>
       <c r="G54" s="16" t="n">
-        <v>18066</v>
+        <v>13124</v>
       </c>
       <c r="H54" s="16" t="n">
-        <v>13124</v>
+        <v>10462</v>
       </c>
       <c r="I54" s="16" t="n">
-        <v>10462</v>
+        <v>31709</v>
       </c>
       <c r="J54" s="16" t="n">
-        <v>31709</v>
+        <v>41780</v>
       </c>
       <c r="K54" s="16" t="n">
-        <v>41780</v>
+        <v>35147</v>
       </c>
       <c r="L54" s="16" t="n">
-        <v>35147</v>
+        <v>26127</v>
       </c>
       <c r="M54" s="16" t="n">
-        <v>26127</v>
+        <v>41901</v>
       </c>
       <c r="N54" s="16" t="n">
-        <v>41901</v>
+        <v>37573</v>
       </c>
       <c r="O54" s="16" t="n">
-        <v>37573</v>
+        <v>34095</v>
       </c>
       <c r="P54" s="16" t="n">
-        <v>34095</v>
+        <v>31527</v>
       </c>
       <c r="Q54" s="16" t="n">
-        <v>31527</v>
+        <v>30920</v>
       </c>
       <c r="R54" s="16" t="n">
-        <v>30920</v>
+        <v>37587</v>
       </c>
       <c r="S54" s="16" t="n">
-        <v>37587</v>
+        <v>35023</v>
       </c>
       <c r="T54" s="16" t="n">
-        <v>35023</v>
+        <v>36673</v>
       </c>
       <c r="U54" s="16" t="n">
-        <v>36673</v>
+        <v>31144</v>
       </c>
       <c r="V54" s="16" t="n">
-        <v>31144</v>
+        <v>31791</v>
       </c>
       <c r="W54" s="16" t="n">
-        <v>31791</v>
+        <v>33017</v>
       </c>
       <c r="X54" s="16" t="n">
-        <v>33017</v>
+        <v>33556</v>
       </c>
       <c r="Y54" s="16" t="n">
-        <v>33556</v>
+        <v>36072</v>
       </c>
       <c r="Z54" s="16" t="n">
-        <v>36072</v>
+        <v>33075</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>33075</v>
+        <v>40852</v>
       </c>
       <c r="AB54" s="16" t="n">
-        <v>40852</v>
+        <v>40349</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>40349</v>
+        <v>39120</v>
       </c>
       <c r="AD54" s="16" t="n">
-        <v>39120</v>
+        <v>43324</v>
       </c>
       <c r="AE54" s="16" t="n">
-        <v>43324</v>
+        <v>22126</v>
       </c>
       <c r="AF54" s="16" t="n">
-        <v>22126</v>
+        <v>35355</v>
       </c>
       <c r="AG54" s="16" t="n">
-        <v>35355</v>
+        <v>36722</v>
       </c>
       <c r="AH54" s="16" t="n">
-        <v>36722</v>
+        <v>32648</v>
       </c>
       <c r="AI54" s="16" t="n">
-        <v>32648</v>
+        <v>48830</v>
       </c>
       <c r="AJ54" s="16" t="n">
-        <v>48830</v>
+        <v>45058</v>
       </c>
       <c r="AK54" s="16" t="n">
-        <v>45058</v>
+        <v>32736</v>
       </c>
       <c r="AL54" s="16" t="n">
-        <v>32736</v>
+        <v>36630</v>
       </c>
       <c r="AM54" s="16" t="n">
-        <v>36630</v>
+        <v>473151</v>
       </c>
       <c r="AN54" s="16" t="n">
-        <v>473151</v>
+        <v>67673</v>
       </c>
       <c r="AO54" s="16" t="n">
-        <v>67673</v>
+        <v>62001</v>
       </c>
       <c r="AP54" s="16" t="n">
-        <v>62001</v>
+        <v>58930</v>
       </c>
       <c r="AQ54" s="16" t="n">
-        <v>58930</v>
+        <v>82957</v>
       </c>
       <c r="AR54" s="16" t="n">
-        <v>82957</v>
+        <v>5206</v>
       </c>
       <c r="AS54" s="16" t="n">
-        <v>5206</v>
+        <v>373298</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>373298</v>
+        <v>103034</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>103034</v>
+        <v>100397</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>100397</v>
+        <v>117716</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>117716</v>
+        <v>139518</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>139518</v>
+        <v>118683</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>118683</v>
+        <v>133715</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>133715</v>
+        <v>239843</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>239843</v>
+        <v>138315</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>138315</v>
+        <v>136644</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9091,47 +9091,47 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="n">
-        <v>1603125</v>
+        <v>1514552</v>
       </c>
       <c r="F55" s="13" t="n">
-        <v>1514552</v>
+        <v>2394627</v>
       </c>
       <c r="G55" s="13" t="n">
-        <v>2394627</v>
+        <v>2121184</v>
       </c>
       <c r="H55" s="13" t="n">
-        <v>2121184</v>
+        <v>2282973</v>
       </c>
       <c r="I55" s="13" t="n">
-        <v>2282973</v>
+        <v>1996565</v>
       </c>
       <c r="J55" s="13" t="n">
-        <v>1996565</v>
+        <v>1840016</v>
       </c>
       <c r="K55" s="13" t="n">
-        <v>1840016</v>
+        <v>1192993</v>
       </c>
       <c r="L55" s="13" t="n">
-        <v>1192993</v>
+        <v>2311094</v>
       </c>
       <c r="M55" s="13" t="n">
-        <v>2311094</v>
+        <v>1355353</v>
       </c>
       <c r="N55" s="13" t="n">
-        <v>1355353</v>
+        <v>1887701</v>
       </c>
       <c r="O55" s="13" t="n">
-        <v>1887701</v>
+        <v>2089324</v>
       </c>
       <c r="P55" s="13" t="n">
-        <v>2089324</v>
+        <v>1595960</v>
       </c>
       <c r="Q55" s="13" t="n">
-        <v>1595960</v>
-      </c>
-      <c r="R55" s="13" t="n">
         <v>2060613</v>
       </c>
+      <c r="R55" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S55" s="13" t="s">
         <v>57</v>
       </c>
@@ -9192,53 +9192,53 @@
       <c r="AL55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM55" s="13" t="s">
-        <v>57</v>
+      <c r="AM55" s="13" t="n">
+        <v>5930024</v>
       </c>
       <c r="AN55" s="13" t="n">
-        <v>5930024</v>
+        <v>7809888</v>
       </c>
       <c r="AO55" s="13" t="n">
-        <v>7809888</v>
+        <v>3171156</v>
       </c>
       <c r="AP55" s="13" t="n">
-        <v>3171156</v>
+        <v>6602477</v>
       </c>
       <c r="AQ55" s="13" t="n">
-        <v>6602477</v>
+        <v>3126550</v>
       </c>
       <c r="AR55" s="13" t="n">
-        <v>3126550</v>
+        <v>6445176</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>6445176</v>
+        <v>4071361</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>4071361</v>
+        <v>9886344</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>9886344</v>
+        <v>5941902</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>5941902</v>
+        <v>2353830</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>2353830</v>
+        <v>4310027</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>4310027</v>
+        <v>3738903</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>3738903</v>
+        <v>4788841</v>
       </c>
       <c r="AZ55" s="13" t="n">
-        <v>4788841</v>
+        <v>1718401</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>1718401</v>
+        <v>10930716</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>10961845</v>
+        <v>8627049</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9250,47 +9250,47 @@
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16" t="n">
-        <v>484244</v>
+        <v>425424</v>
       </c>
       <c r="F56" s="16" t="n">
-        <v>425424</v>
+        <v>353453</v>
       </c>
       <c r="G56" s="16" t="n">
-        <v>353453</v>
+        <v>341245</v>
       </c>
       <c r="H56" s="16" t="n">
-        <v>341245</v>
+        <v>315899</v>
       </c>
       <c r="I56" s="16" t="n">
-        <v>315899</v>
+        <v>286147</v>
       </c>
       <c r="J56" s="16" t="n">
-        <v>286147</v>
+        <v>419069</v>
       </c>
       <c r="K56" s="16" t="n">
-        <v>419069</v>
+        <v>317518</v>
       </c>
       <c r="L56" s="16" t="n">
-        <v>317518</v>
+        <v>370811</v>
       </c>
       <c r="M56" s="16" t="n">
-        <v>370811</v>
+        <v>387659</v>
       </c>
       <c r="N56" s="16" t="n">
-        <v>387659</v>
+        <v>365272</v>
       </c>
       <c r="O56" s="16" t="n">
-        <v>365272</v>
+        <v>1230071</v>
       </c>
       <c r="P56" s="16" t="n">
-        <v>1230071</v>
+        <v>397555</v>
       </c>
       <c r="Q56" s="16" t="n">
-        <v>397555</v>
-      </c>
-      <c r="R56" s="16" t="n">
         <v>363528</v>
       </c>
+      <c r="R56" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S56" s="16" t="s">
         <v>57</v>
       </c>
@@ -9351,53 +9351,53 @@
       <c r="AL56" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM56" s="16" t="s">
-        <v>57</v>
+      <c r="AM56" s="16" t="n">
+        <v>2088384</v>
       </c>
       <c r="AN56" s="16" t="n">
-        <v>2088384</v>
+        <v>3485774</v>
       </c>
       <c r="AO56" s="16" t="n">
-        <v>3485774</v>
+        <v>984663</v>
       </c>
       <c r="AP56" s="16" t="n">
-        <v>984663</v>
+        <v>2092556</v>
       </c>
       <c r="AQ56" s="16" t="n">
-        <v>2092556</v>
+        <v>1393573</v>
       </c>
       <c r="AR56" s="16" t="n">
-        <v>1393573</v>
+        <v>1170983</v>
       </c>
       <c r="AS56" s="16" t="n">
-        <v>1170983</v>
+        <v>1088287</v>
       </c>
       <c r="AT56" s="16" t="n">
-        <v>1088287</v>
+        <v>1530940</v>
       </c>
       <c r="AU56" s="16" t="n">
-        <v>1530940</v>
+        <v>1233509</v>
       </c>
       <c r="AV56" s="16" t="n">
-        <v>1233509</v>
+        <v>1024403</v>
       </c>
       <c r="AW56" s="16" t="n">
-        <v>1024403</v>
+        <v>1241274</v>
       </c>
       <c r="AX56" s="16" t="n">
-        <v>1241274</v>
+        <v>1091135</v>
       </c>
       <c r="AY56" s="16" t="n">
-        <v>1091135</v>
+        <v>1578858</v>
       </c>
       <c r="AZ56" s="16" t="n">
-        <v>1578858</v>
+        <v>1624725</v>
       </c>
       <c r="BA56" s="16" t="n">
-        <v>1624725</v>
+        <v>1993650</v>
       </c>
       <c r="BB56" s="16" t="n">
-        <v>1984250</v>
+        <v>1774919</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9456,62 +9456,62 @@
       <c r="T57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U57" s="13" t="s">
-        <v>57</v>
+      <c r="U57" s="13" t="n">
+        <v>435689</v>
       </c>
       <c r="V57" s="13" t="n">
-        <v>435689</v>
+        <v>553109</v>
       </c>
       <c r="W57" s="13" t="n">
-        <v>553109</v>
+        <v>603606</v>
       </c>
       <c r="X57" s="13" t="n">
-        <v>603606</v>
+        <v>569205</v>
       </c>
       <c r="Y57" s="13" t="n">
-        <v>569205</v>
+        <v>571932</v>
       </c>
       <c r="Z57" s="13" t="n">
-        <v>571932</v>
+        <v>647533</v>
       </c>
       <c r="AA57" s="13" t="n">
-        <v>647533</v>
+        <v>849798</v>
       </c>
       <c r="AB57" s="13" t="n">
-        <v>849798</v>
+        <v>918286</v>
       </c>
       <c r="AC57" s="13" t="n">
-        <v>918286</v>
+        <v>1445115</v>
       </c>
       <c r="AD57" s="13" t="n">
-        <v>1445115</v>
+        <v>1130561</v>
       </c>
       <c r="AE57" s="13" t="n">
-        <v>1130561</v>
+        <v>1343226</v>
       </c>
       <c r="AF57" s="13" t="n">
-        <v>1343226</v>
+        <v>1523780</v>
       </c>
       <c r="AG57" s="13" t="n">
-        <v>1523780</v>
+        <v>1373354</v>
       </c>
       <c r="AH57" s="13" t="n">
-        <v>1373354</v>
+        <v>1444826</v>
       </c>
       <c r="AI57" s="13" t="n">
-        <v>1444826</v>
+        <v>1465388</v>
       </c>
       <c r="AJ57" s="13" t="n">
-        <v>1465388</v>
+        <v>1423552</v>
       </c>
       <c r="AK57" s="13" t="n">
-        <v>1423552</v>
+        <v>1639686</v>
       </c>
       <c r="AL57" s="13" t="n">
-        <v>1639686</v>
-      </c>
-      <c r="AM57" s="13" t="n">
         <v>1658718</v>
+      </c>
+      <c r="AM57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN57" s="13" t="s">
         <v>57</v>
@@ -9615,62 +9615,62 @@
       <c r="T58" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U58" s="16" t="s">
-        <v>57</v>
+      <c r="U58" s="16" t="n">
+        <v>278211</v>
       </c>
       <c r="V58" s="16" t="n">
-        <v>278211</v>
+        <v>441538</v>
       </c>
       <c r="W58" s="16" t="n">
-        <v>441538</v>
+        <v>604775</v>
       </c>
       <c r="X58" s="16" t="n">
-        <v>604775</v>
+        <v>789968</v>
       </c>
       <c r="Y58" s="16" t="n">
-        <v>789968</v>
+        <v>864147</v>
       </c>
       <c r="Z58" s="16" t="n">
-        <v>864147</v>
+        <v>1237129</v>
       </c>
       <c r="AA58" s="16" t="n">
-        <v>1237129</v>
+        <v>1824325</v>
       </c>
       <c r="AB58" s="16" t="n">
-        <v>1824325</v>
+        <v>1535872</v>
       </c>
       <c r="AC58" s="16" t="n">
-        <v>1535872</v>
+        <v>1912111</v>
       </c>
       <c r="AD58" s="16" t="n">
-        <v>1912111</v>
+        <v>778629</v>
       </c>
       <c r="AE58" s="16" t="n">
-        <v>778629</v>
+        <v>1450130</v>
       </c>
       <c r="AF58" s="16" t="n">
-        <v>1450130</v>
+        <v>1117612</v>
       </c>
       <c r="AG58" s="16" t="n">
-        <v>1117612</v>
+        <v>1158599</v>
       </c>
       <c r="AH58" s="16" t="n">
-        <v>1158599</v>
+        <v>1413869</v>
       </c>
       <c r="AI58" s="16" t="n">
-        <v>1413869</v>
+        <v>1545620</v>
       </c>
       <c r="AJ58" s="16" t="n">
-        <v>1545620</v>
+        <v>1494975</v>
       </c>
       <c r="AK58" s="16" t="n">
-        <v>1494975</v>
+        <v>1805768</v>
       </c>
       <c r="AL58" s="16" t="n">
-        <v>1805768</v>
-      </c>
-      <c r="AM58" s="16" t="n">
         <v>1732450</v>
+      </c>
+      <c r="AM58" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AN58" s="16" t="s">
         <v>57</v>
@@ -9774,62 +9774,62 @@
       <c r="T59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U59" s="13" t="s">
-        <v>57</v>
+      <c r="U59" s="13" t="n">
+        <v>2200597</v>
       </c>
       <c r="V59" s="13" t="n">
-        <v>2200597</v>
+        <v>1805396</v>
       </c>
       <c r="W59" s="13" t="n">
-        <v>1805396</v>
+        <v>2190348</v>
       </c>
       <c r="X59" s="13" t="n">
-        <v>2190348</v>
+        <v>2898861</v>
       </c>
       <c r="Y59" s="13" t="n">
-        <v>2898861</v>
+        <v>3544445</v>
       </c>
       <c r="Z59" s="13" t="n">
-        <v>3544445</v>
+        <v>3637652</v>
       </c>
       <c r="AA59" s="13" t="n">
-        <v>3637652</v>
+        <v>2407726</v>
       </c>
       <c r="AB59" s="13" t="n">
-        <v>2407726</v>
+        <v>5088953</v>
       </c>
       <c r="AC59" s="13" t="n">
-        <v>5088953</v>
+        <v>3186582</v>
       </c>
       <c r="AD59" s="13" t="n">
-        <v>3186582</v>
+        <v>2727468</v>
       </c>
       <c r="AE59" s="13" t="n">
-        <v>2727468</v>
+        <v>1236943</v>
       </c>
       <c r="AF59" s="13" t="n">
-        <v>1236943</v>
+        <v>3858315</v>
       </c>
       <c r="AG59" s="13" t="n">
-        <v>3858315</v>
+        <v>3116442</v>
       </c>
       <c r="AH59" s="13" t="n">
-        <v>3116442</v>
+        <v>5448160</v>
       </c>
       <c r="AI59" s="13" t="n">
-        <v>5448160</v>
+        <v>3262658</v>
       </c>
       <c r="AJ59" s="13" t="n">
-        <v>3262658</v>
+        <v>3191926</v>
       </c>
       <c r="AK59" s="13" t="n">
-        <v>3191926</v>
+        <v>6465175</v>
       </c>
       <c r="AL59" s="13" t="n">
-        <v>6465175</v>
-      </c>
-      <c r="AM59" s="13" t="n">
         <v>5389795</v>
+      </c>
+      <c r="AM59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN59" s="13" t="s">
         <v>57</v>
@@ -9933,62 +9933,62 @@
       <c r="T60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U60" s="16" t="s">
-        <v>57</v>
+      <c r="U60" s="16" t="n">
+        <v>219072</v>
       </c>
       <c r="V60" s="16" t="n">
-        <v>219072</v>
+        <v>81453</v>
       </c>
       <c r="W60" s="16" t="n">
-        <v>81453</v>
+        <v>119530</v>
       </c>
       <c r="X60" s="16" t="n">
-        <v>119530</v>
+        <v>485619</v>
       </c>
       <c r="Y60" s="16" t="n">
-        <v>485619</v>
+        <v>482148</v>
       </c>
       <c r="Z60" s="16" t="n">
-        <v>482148</v>
+        <v>288304</v>
       </c>
       <c r="AA60" s="16" t="n">
-        <v>288304</v>
+        <v>512378</v>
       </c>
       <c r="AB60" s="16" t="n">
-        <v>512378</v>
+        <v>874025</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>874025</v>
+        <v>1703412</v>
       </c>
       <c r="AD60" s="16" t="n">
-        <v>1703412</v>
+        <v>94440</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>94440</v>
+        <v>1755105</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>1755105</v>
+        <v>1206345</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>1206345</v>
+        <v>943922</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>943922</v>
+        <v>43857</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>43857</v>
+        <v>1568866</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>1568866</v>
+        <v>1019491</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>1019491</v>
+        <v>1509322</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>1509322</v>
-      </c>
-      <c r="AM60" s="16" t="n">
         <v>946369</v>
+      </c>
+      <c r="AM60" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AN60" s="16" t="s">
         <v>57</v>
@@ -10119,80 +10119,80 @@
       <c r="AC61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD61" s="13" t="s">
-        <v>57</v>
+      <c r="AD61" s="13" t="n">
+        <v>27908</v>
       </c>
       <c r="AE61" s="13" t="n">
-        <v>27908</v>
+        <v>30195</v>
       </c>
       <c r="AF61" s="13" t="n">
-        <v>30195</v>
+        <v>33675</v>
       </c>
       <c r="AG61" s="13" t="n">
-        <v>33675</v>
+        <v>20111</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>20111</v>
+        <v>33468</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>33468</v>
+        <v>25039</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>25039</v>
+        <v>19829</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>19829</v>
+        <v>13095</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>13095</v>
+        <v>26090</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>26090</v>
+        <v>20377</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>20377</v>
+        <v>54634</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>54634</v>
+        <v>38712</v>
       </c>
       <c r="AP61" s="13" t="n">
-        <v>38712</v>
+        <v>37441</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>37441</v>
+        <v>33987</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>33987</v>
+        <v>14455</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>14455</v>
+        <v>29938</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>29938</v>
+        <v>26810</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>26810</v>
+        <v>22228</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>22228</v>
+        <v>13018</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>13018</v>
+        <v>52215</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>52215</v>
+        <v>22570</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>22570</v>
+        <v>15380</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>15380</v>
+        <v>18052</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>18052</v>
+        <v>26652</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>26652</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10242,17 +10242,17 @@
       <c r="Q62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R62" s="16" t="s">
-        <v>57</v>
+      <c r="R62" s="16" t="n">
+        <v>1538746</v>
       </c>
       <c r="S62" s="16" t="n">
-        <v>1538746</v>
+        <v>1772140</v>
       </c>
       <c r="T62" s="16" t="n">
-        <v>1772140</v>
-      </c>
-      <c r="U62" s="16" t="n">
         <v>1229911</v>
+      </c>
+      <c r="U62" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V62" s="16" t="s">
         <v>57</v>
@@ -10401,17 +10401,17 @@
       <c r="Q63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R63" s="13" t="s">
-        <v>57</v>
+      <c r="R63" s="13" t="n">
+        <v>264916</v>
       </c>
       <c r="S63" s="13" t="n">
-        <v>264916</v>
+        <v>477576</v>
       </c>
       <c r="T63" s="13" t="n">
-        <v>477576</v>
-      </c>
-      <c r="U63" s="13" t="n">
         <v>626713</v>
+      </c>
+      <c r="U63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V63" s="13" t="s">
         <v>57</v>
@@ -10626,8 +10626,8 @@
       <c r="T65" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U65" s="20" t="s">
-        <v>57</v>
+      <c r="U65" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V65" s="23" t="n">
         <v>0</v>
@@ -10842,8 +10842,8 @@
       <c r="T67" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U67" s="20" t="s">
-        <v>57</v>
+      <c r="U67" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V67" s="23" t="n">
         <v>0</v>
@@ -11058,8 +11058,8 @@
       <c r="T69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U69" s="13" t="s">
-        <v>57</v>
+      <c r="U69" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="13" t="n">
         <v>0</v>
@@ -11168,154 +11168,154 @@
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22" t="n">
-        <v>2103913</v>
+        <v>1951093</v>
       </c>
       <c r="F70" s="22" t="n">
-        <v>1951093</v>
+        <v>2769284</v>
       </c>
       <c r="G70" s="22" t="n">
-        <v>2769284</v>
+        <v>2477565</v>
       </c>
       <c r="H70" s="22" t="n">
-        <v>2477565</v>
+        <v>2610874</v>
       </c>
       <c r="I70" s="22" t="n">
-        <v>2610874</v>
+        <v>2344695</v>
       </c>
       <c r="J70" s="22" t="n">
-        <v>2344695</v>
+        <v>2329326</v>
       </c>
       <c r="K70" s="22" t="n">
-        <v>2329326</v>
+        <v>1571233</v>
       </c>
       <c r="L70" s="22" t="n">
-        <v>1571233</v>
+        <v>2740669</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>2740669</v>
+        <v>1829167</v>
       </c>
       <c r="N70" s="22" t="n">
-        <v>1829167</v>
+        <v>2334578</v>
       </c>
       <c r="O70" s="22" t="n">
-        <v>2334578</v>
+        <v>3392041</v>
       </c>
       <c r="P70" s="22" t="n">
-        <v>3392041</v>
+        <v>2051362</v>
       </c>
       <c r="Q70" s="22" t="n">
-        <v>2051362</v>
+        <v>2494207</v>
       </c>
       <c r="R70" s="22" t="n">
-        <v>2494207</v>
+        <v>1876304</v>
       </c>
       <c r="S70" s="22" t="n">
-        <v>1876304</v>
+        <v>2317684</v>
       </c>
       <c r="T70" s="22" t="n">
-        <v>2317684</v>
+        <v>1933930</v>
       </c>
       <c r="U70" s="22" t="n">
-        <v>1933930</v>
+        <v>3203158</v>
       </c>
       <c r="V70" s="22" t="n">
-        <v>3203158</v>
+        <v>2948689</v>
       </c>
       <c r="W70" s="22" t="n">
-        <v>2948689</v>
+        <v>3584622</v>
       </c>
       <c r="X70" s="22" t="n">
-        <v>3584622</v>
+        <v>4803956</v>
       </c>
       <c r="Y70" s="22" t="n">
-        <v>4803956</v>
+        <v>5518482</v>
       </c>
       <c r="Z70" s="22" t="n">
-        <v>5518482</v>
+        <v>5882135</v>
       </c>
       <c r="AA70" s="22" t="n">
-        <v>5882135</v>
+        <v>5652997</v>
       </c>
       <c r="AB70" s="22" t="n">
-        <v>5652997</v>
+        <v>8493089</v>
       </c>
       <c r="AC70" s="22" t="n">
-        <v>8493089</v>
+        <v>8322506</v>
       </c>
       <c r="AD70" s="22" t="n">
-        <v>8322506</v>
+        <v>4802330</v>
       </c>
       <c r="AE70" s="22" t="n">
-        <v>4802330</v>
+        <v>5837725</v>
       </c>
       <c r="AF70" s="22" t="n">
-        <v>5837725</v>
+        <v>7775082</v>
       </c>
       <c r="AG70" s="22" t="n">
-        <v>7775082</v>
+        <v>6649150</v>
       </c>
       <c r="AH70" s="22" t="n">
-        <v>6649150</v>
+        <v>8416828</v>
       </c>
       <c r="AI70" s="22" t="n">
-        <v>8416828</v>
+        <v>7916401</v>
       </c>
       <c r="AJ70" s="22" t="n">
-        <v>7916401</v>
+        <v>7194831</v>
       </c>
       <c r="AK70" s="22" t="n">
-        <v>7194831</v>
+        <v>11465782</v>
       </c>
       <c r="AL70" s="22" t="n">
-        <v>11465782</v>
+        <v>9790052</v>
       </c>
       <c r="AM70" s="22" t="n">
-        <v>9790052</v>
+        <v>8511936</v>
       </c>
       <c r="AN70" s="22" t="n">
-        <v>8511936</v>
+        <v>11417969</v>
       </c>
       <c r="AO70" s="22" t="n">
-        <v>11417969</v>
+        <v>4256532</v>
       </c>
       <c r="AP70" s="22" t="n">
-        <v>4256532</v>
+        <v>8791404</v>
       </c>
       <c r="AQ70" s="22" t="n">
-        <v>8791404</v>
+        <v>4637067</v>
       </c>
       <c r="AR70" s="22" t="n">
-        <v>4637067</v>
+        <v>7635820</v>
       </c>
       <c r="AS70" s="22" t="n">
-        <v>7635820</v>
+        <v>5562884</v>
       </c>
       <c r="AT70" s="22" t="n">
-        <v>5562884</v>
+        <v>11547128</v>
       </c>
       <c r="AU70" s="22" t="n">
-        <v>11547128</v>
+        <v>7298036</v>
       </c>
       <c r="AV70" s="22" t="n">
-        <v>7298036</v>
+        <v>3508967</v>
       </c>
       <c r="AW70" s="22" t="n">
-        <v>3508967</v>
+        <v>5743034</v>
       </c>
       <c r="AX70" s="22" t="n">
-        <v>5743034</v>
+        <v>4971291</v>
       </c>
       <c r="AY70" s="22" t="n">
-        <v>4971291</v>
+        <v>6516794</v>
       </c>
       <c r="AZ70" s="22" t="n">
-        <v>6516794</v>
+        <v>3601021</v>
       </c>
       <c r="BA70" s="22" t="n">
-        <v>3601021</v>
+        <v>13089333</v>
       </c>
       <c r="BB70" s="22" t="n">
-        <v>13111062</v>
+        <v>10563362</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11761,82 +11761,82 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="n">
-        <v>335500000</v>
+        <v>256125000</v>
       </c>
       <c r="F77" s="13" t="n">
-        <v>256125000</v>
+        <v>523000000</v>
       </c>
       <c r="G77" s="13" t="n">
-        <v>523000000</v>
+        <v>251500000</v>
       </c>
       <c r="H77" s="13" t="n">
-        <v>251500000</v>
+        <v>220000000</v>
       </c>
       <c r="I77" s="13" t="n">
-        <v>220000000</v>
+        <v>4324857143</v>
       </c>
       <c r="J77" s="13" t="n">
-        <v>4324857143</v>
+        <v>4065857143</v>
       </c>
       <c r="K77" s="13" t="n">
-        <v>4065857143</v>
+        <v>4262500000</v>
       </c>
       <c r="L77" s="13" t="n">
-        <v>4262500000</v>
+        <v>3626333333</v>
       </c>
       <c r="M77" s="13" t="n">
-        <v>3626333333</v>
+        <v>4917111111</v>
       </c>
       <c r="N77" s="13" t="n">
-        <v>4917111111</v>
+        <v>4403200000</v>
       </c>
       <c r="O77" s="13" t="n">
-        <v>4403200000</v>
+        <v>5507285714</v>
       </c>
       <c r="P77" s="13" t="n">
-        <v>5507285714</v>
+        <v>5264000000</v>
       </c>
       <c r="Q77" s="13" t="n">
-        <v>5264000000</v>
+        <v>4893250000</v>
       </c>
       <c r="R77" s="13" t="n">
-        <v>4893250000</v>
+        <v>4630779</v>
       </c>
       <c r="S77" s="13" t="n">
-        <v>4630779</v>
+        <v>4687011</v>
       </c>
       <c r="T77" s="13" t="n">
-        <v>4687011</v>
+        <v>5275643</v>
       </c>
       <c r="U77" s="13" t="n">
-        <v>5275643</v>
+        <v>5381439</v>
       </c>
       <c r="V77" s="13" t="n">
-        <v>5381439</v>
+        <v>5048774</v>
       </c>
       <c r="W77" s="13" t="n">
-        <v>5048774</v>
+        <v>5010669</v>
       </c>
       <c r="X77" s="13" t="n">
-        <v>5010669</v>
+        <v>5655953</v>
       </c>
       <c r="Y77" s="13" t="n">
-        <v>5655953</v>
+        <v>5608980</v>
       </c>
       <c r="Z77" s="13" t="n">
-        <v>5608980</v>
+        <v>5833384</v>
       </c>
       <c r="AA77" s="13" t="n">
-        <v>5833384</v>
+        <v>8170543</v>
       </c>
       <c r="AB77" s="13" t="n">
-        <v>8170543</v>
+        <v>6803745</v>
       </c>
       <c r="AC77" s="13" t="n">
-        <v>6803745</v>
-      </c>
-      <c r="AD77" s="13" t="n">
         <v>6586414</v>
+      </c>
+      <c r="AD77" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE77" s="13" t="s">
         <v>57</v>
@@ -11920,154 +11920,154 @@
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16" t="n">
-        <v>13860000000</v>
+        <v>9068000000</v>
       </c>
       <c r="F78" s="16" t="n">
-        <v>9068000000</v>
+        <v>18066000000</v>
       </c>
       <c r="G78" s="16" t="n">
-        <v>18066000000</v>
+        <v>13124000000</v>
       </c>
       <c r="H78" s="16" t="n">
-        <v>13124000000</v>
+        <v>10462000000</v>
       </c>
       <c r="I78" s="16" t="n">
-        <v>10462000000</v>
+        <v>15854500000</v>
       </c>
       <c r="J78" s="16" t="n">
-        <v>15854500000</v>
+        <v>20890000000</v>
       </c>
       <c r="K78" s="16" t="n">
-        <v>20890000000</v>
+        <v>17573500000</v>
       </c>
       <c r="L78" s="16" t="n">
-        <v>17573500000</v>
+        <v>26127000000</v>
       </c>
       <c r="M78" s="16" t="n">
-        <v>26127000000</v>
+        <v>20950500000</v>
       </c>
       <c r="N78" s="16" t="n">
-        <v>20950500000</v>
+        <v>18786500000</v>
       </c>
       <c r="O78" s="16" t="n">
-        <v>18786500000</v>
+        <v>17047500000</v>
       </c>
       <c r="P78" s="16" t="n">
-        <v>17047500000</v>
+        <v>15763500000</v>
       </c>
       <c r="Q78" s="16" t="n">
-        <v>15763500000</v>
+        <v>15460000000</v>
       </c>
       <c r="R78" s="16" t="n">
-        <v>15460000000</v>
+        <v>22240828</v>
       </c>
       <c r="S78" s="16" t="n">
-        <v>22240828</v>
+        <v>22293444</v>
       </c>
       <c r="T78" s="16" t="n">
-        <v>22293444</v>
+        <v>22293617</v>
       </c>
       <c r="U78" s="16" t="n">
-        <v>22293617</v>
+        <v>22293486</v>
       </c>
       <c r="V78" s="16" t="n">
-        <v>22293486</v>
+        <v>22293829</v>
       </c>
       <c r="W78" s="16" t="n">
-        <v>22293829</v>
+        <v>22293720</v>
       </c>
       <c r="X78" s="16" t="n">
-        <v>22293720</v>
+        <v>22873892</v>
       </c>
       <c r="Y78" s="16" t="n">
-        <v>22873892</v>
+        <v>22873811</v>
       </c>
       <c r="Z78" s="16" t="n">
-        <v>22873811</v>
+        <v>22873444</v>
       </c>
       <c r="AA78" s="16" t="n">
-        <v>22873444</v>
+        <v>22873460</v>
       </c>
       <c r="AB78" s="16" t="n">
-        <v>22873460</v>
+        <v>22873583</v>
       </c>
       <c r="AC78" s="16" t="n">
-        <v>22873583</v>
+        <v>25787739</v>
       </c>
       <c r="AD78" s="16" t="n">
-        <v>25787739</v>
+        <v>25788095</v>
       </c>
       <c r="AE78" s="16" t="n">
-        <v>25788095</v>
+        <v>25787879</v>
       </c>
       <c r="AF78" s="16" t="n">
-        <v>25787879</v>
+        <v>25787746</v>
       </c>
       <c r="AG78" s="16" t="n">
-        <v>25787746</v>
+        <v>25787921</v>
       </c>
       <c r="AH78" s="16" t="n">
-        <v>25787921</v>
+        <v>25788310</v>
       </c>
       <c r="AI78" s="16" t="n">
-        <v>25788310</v>
+        <v>30423676</v>
       </c>
       <c r="AJ78" s="16" t="n">
-        <v>30423676</v>
+        <v>30424038</v>
       </c>
       <c r="AK78" s="16" t="n">
-        <v>30424038</v>
+        <v>30423792</v>
       </c>
       <c r="AL78" s="16" t="n">
-        <v>30423792</v>
+        <v>30423588</v>
       </c>
       <c r="AM78" s="16" t="n">
-        <v>30423588</v>
+        <v>817186529</v>
       </c>
       <c r="AN78" s="16" t="n">
-        <v>817186529</v>
+        <v>66738659</v>
       </c>
       <c r="AO78" s="16" t="n">
-        <v>66738659</v>
+        <v>66739505</v>
       </c>
       <c r="AP78" s="16" t="n">
-        <v>66739505</v>
+        <v>66738392</v>
       </c>
       <c r="AQ78" s="16" t="n">
-        <v>66738392</v>
+        <v>66739340</v>
       </c>
       <c r="AR78" s="16" t="n">
-        <v>66739340</v>
+        <v>66743590</v>
       </c>
       <c r="AS78" s="16" t="n">
-        <v>66743590</v>
+        <v>493128137</v>
       </c>
       <c r="AT78" s="16" t="n">
-        <v>493128137</v>
+        <v>87912969</v>
       </c>
       <c r="AU78" s="16" t="n">
-        <v>87912969</v>
+        <v>87913310</v>
       </c>
       <c r="AV78" s="16" t="n">
-        <v>87913310</v>
+        <v>87913368</v>
       </c>
       <c r="AW78" s="16" t="n">
-        <v>87913368</v>
+        <v>87913043</v>
       </c>
       <c r="AX78" s="16" t="n">
-        <v>87913043</v>
+        <v>87913333</v>
       </c>
       <c r="AY78" s="16" t="n">
-        <v>87913333</v>
+        <v>87912558</v>
       </c>
       <c r="AZ78" s="16" t="n">
-        <v>87912558</v>
+        <v>206050687</v>
       </c>
       <c r="BA78" s="16" t="n">
-        <v>206050687</v>
+        <v>98304904</v>
       </c>
       <c r="BB78" s="16" t="n">
-        <v>98304904</v>
+        <v>98305036</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12079,47 +12079,47 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="n">
-        <v>22901785714</v>
+        <v>23300800000</v>
       </c>
       <c r="F79" s="13" t="n">
-        <v>23300800000</v>
+        <v>25474755319</v>
       </c>
       <c r="G79" s="13" t="n">
-        <v>25474755319</v>
+        <v>26850430380</v>
       </c>
       <c r="H79" s="13" t="n">
-        <v>26850430380</v>
+        <v>26858505882</v>
       </c>
       <c r="I79" s="13" t="n">
-        <v>26858505882</v>
+        <v>27350205479</v>
       </c>
       <c r="J79" s="13" t="n">
-        <v>27350205479</v>
+        <v>25915718310</v>
       </c>
       <c r="K79" s="13" t="n">
-        <v>25915718310</v>
+        <v>24346795918</v>
       </c>
       <c r="L79" s="13" t="n">
-        <v>24346795918</v>
+        <v>24586106383</v>
       </c>
       <c r="M79" s="13" t="n">
-        <v>24586106383</v>
+        <v>22972084746</v>
       </c>
       <c r="N79" s="13" t="n">
-        <v>22972084746</v>
+        <v>20518489130</v>
       </c>
       <c r="O79" s="13" t="n">
-        <v>20518489130</v>
+        <v>24580282353</v>
       </c>
       <c r="P79" s="13" t="n">
-        <v>24580282353</v>
+        <v>27516551724</v>
       </c>
       <c r="Q79" s="13" t="n">
-        <v>27516551724</v>
-      </c>
-      <c r="R79" s="13" t="n">
         <v>26418115385</v>
       </c>
+      <c r="R79" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S79" s="13" t="s">
         <v>57</v>
       </c>
@@ -12180,53 +12180,53 @@
       <c r="AL79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM79" s="13" t="s">
-        <v>57</v>
+      <c r="AM79" s="13" t="n">
+        <v>78689278</v>
       </c>
       <c r="AN79" s="13" t="n">
-        <v>78689278</v>
+        <v>80586588</v>
       </c>
       <c r="AO79" s="13" t="n">
-        <v>80586588</v>
+        <v>86549017</v>
       </c>
       <c r="AP79" s="13" t="n">
-        <v>86549017</v>
+        <v>85002408</v>
       </c>
       <c r="AQ79" s="13" t="n">
-        <v>85002408</v>
+        <v>83864435</v>
       </c>
       <c r="AR79" s="13" t="n">
-        <v>83864435</v>
+        <v>79657599</v>
       </c>
       <c r="AS79" s="13" t="n">
-        <v>79657599</v>
+        <v>65279647</v>
       </c>
       <c r="AT79" s="13" t="n">
-        <v>65279647</v>
+        <v>65212060</v>
       </c>
       <c r="AU79" s="13" t="n">
-        <v>65212060</v>
+        <v>79978222</v>
       </c>
       <c r="AV79" s="13" t="n">
-        <v>79978222</v>
+        <v>72584107</v>
       </c>
       <c r="AW79" s="13" t="n">
-        <v>72584107</v>
+        <v>79833055</v>
       </c>
       <c r="AX79" s="13" t="n">
-        <v>79833055</v>
+        <v>79698655</v>
       </c>
       <c r="AY79" s="13" t="n">
-        <v>79698655</v>
+        <v>84384863</v>
       </c>
       <c r="AZ79" s="13" t="n">
-        <v>84384863</v>
+        <v>82858431</v>
       </c>
       <c r="BA79" s="13" t="n">
-        <v>82858431</v>
+        <v>104257948</v>
       </c>
       <c r="BB79" s="13" t="n">
-        <v>104554858</v>
+        <v>102541827</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12238,47 +12238,47 @@
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16" t="n">
-        <v>34588857143</v>
+        <v>38674909091</v>
       </c>
       <c r="F80" s="16" t="n">
-        <v>38674909091</v>
+        <v>44181625000</v>
       </c>
       <c r="G80" s="16" t="n">
-        <v>44181625000</v>
+        <v>48749285714</v>
       </c>
       <c r="H80" s="16" t="n">
-        <v>48749285714</v>
+        <v>52649833333</v>
       </c>
       <c r="I80" s="16" t="n">
-        <v>52649833333</v>
+        <v>47691166667</v>
       </c>
       <c r="J80" s="16" t="n">
-        <v>47691166667</v>
+        <v>52383625000</v>
       </c>
       <c r="K80" s="16" t="n">
-        <v>52383625000</v>
+        <v>52919666667</v>
       </c>
       <c r="L80" s="16" t="n">
-        <v>52919666667</v>
+        <v>52973000000</v>
       </c>
       <c r="M80" s="16" t="n">
-        <v>52973000000</v>
+        <v>48457375000</v>
       </c>
       <c r="N80" s="16" t="n">
-        <v>48457375000</v>
+        <v>45659000000</v>
       </c>
       <c r="O80" s="16" t="n">
-        <v>45659000000</v>
+        <v>72357117647</v>
       </c>
       <c r="P80" s="16" t="n">
-        <v>72357117647</v>
+        <v>44172777778</v>
       </c>
       <c r="Q80" s="16" t="n">
-        <v>44172777778</v>
-      </c>
-      <c r="R80" s="16" t="n">
         <v>45441000000</v>
       </c>
+      <c r="R80" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S80" s="16" t="s">
         <v>57</v>
       </c>
@@ -12339,53 +12339,53 @@
       <c r="AL80" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM80" s="16" t="s">
-        <v>57</v>
+      <c r="AM80" s="16" t="n">
+        <v>227443259</v>
       </c>
       <c r="AN80" s="16" t="n">
-        <v>227443259</v>
+        <v>181145040</v>
       </c>
       <c r="AO80" s="16" t="n">
-        <v>181145040</v>
+        <v>167830748</v>
       </c>
       <c r="AP80" s="16" t="n">
-        <v>167830748</v>
+        <v>149532371</v>
       </c>
       <c r="AQ80" s="16" t="n">
-        <v>149532371</v>
+        <v>164588756</v>
       </c>
       <c r="AR80" s="16" t="n">
-        <v>164588756</v>
+        <v>160211110</v>
       </c>
       <c r="AS80" s="16" t="n">
-        <v>160211110</v>
+        <v>163455542</v>
       </c>
       <c r="AT80" s="16" t="n">
-        <v>163455542</v>
+        <v>150062733</v>
       </c>
       <c r="AU80" s="16" t="n">
-        <v>150062733</v>
+        <v>123846285</v>
       </c>
       <c r="AV80" s="16" t="n">
-        <v>123846285</v>
+        <v>113394178</v>
       </c>
       <c r="AW80" s="16" t="n">
-        <v>113394178</v>
+        <v>113316962</v>
       </c>
       <c r="AX80" s="16" t="n">
-        <v>113316962</v>
+        <v>111727934</v>
       </c>
       <c r="AY80" s="16" t="n">
-        <v>111727934</v>
+        <v>111218512</v>
       </c>
       <c r="AZ80" s="16" t="n">
-        <v>111218512</v>
+        <v>111107502</v>
       </c>
       <c r="BA80" s="16" t="n">
-        <v>111107502</v>
+        <v>124385450</v>
       </c>
       <c r="BB80" s="16" t="n">
-        <v>123798977</v>
+        <v>124879969</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12444,62 +12444,62 @@
       <c r="T81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U81" s="13" t="s">
-        <v>57</v>
+      <c r="U81" s="13" t="n">
+        <v>55255422</v>
       </c>
       <c r="V81" s="13" t="n">
-        <v>55255422</v>
+        <v>63488177</v>
       </c>
       <c r="W81" s="13" t="n">
-        <v>63488177</v>
+        <v>65809638</v>
       </c>
       <c r="X81" s="13" t="n">
-        <v>65809638</v>
+        <v>74260274</v>
       </c>
       <c r="Y81" s="13" t="n">
-        <v>74260274</v>
+        <v>84655417</v>
       </c>
       <c r="Z81" s="13" t="n">
-        <v>84655417</v>
+        <v>111817130</v>
       </c>
       <c r="AA81" s="13" t="n">
-        <v>111817130</v>
+        <v>140207557</v>
       </c>
       <c r="AB81" s="13" t="n">
-        <v>140207557</v>
+        <v>150341519</v>
       </c>
       <c r="AC81" s="13" t="n">
-        <v>150341519</v>
+        <v>197960959</v>
       </c>
       <c r="AD81" s="13" t="n">
-        <v>197960959</v>
+        <v>210886215</v>
       </c>
       <c r="AE81" s="13" t="n">
-        <v>210886215</v>
+        <v>218944743</v>
       </c>
       <c r="AF81" s="13" t="n">
-        <v>218944743</v>
+        <v>222840012</v>
       </c>
       <c r="AG81" s="13" t="n">
-        <v>222840012</v>
+        <v>218826323</v>
       </c>
       <c r="AH81" s="13" t="n">
-        <v>218826323</v>
+        <v>203697448</v>
       </c>
       <c r="AI81" s="13" t="n">
-        <v>203697448</v>
+        <v>192510247</v>
       </c>
       <c r="AJ81" s="13" t="n">
-        <v>192510247</v>
+        <v>199377031</v>
       </c>
       <c r="AK81" s="13" t="n">
-        <v>199377031</v>
+        <v>265880655</v>
       </c>
       <c r="AL81" s="13" t="n">
-        <v>265880655</v>
-      </c>
-      <c r="AM81" s="13" t="n">
         <v>242113268</v>
+      </c>
+      <c r="AM81" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN81" s="13" t="s">
         <v>57</v>
@@ -12603,62 +12603,62 @@
       <c r="T82" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U82" s="16" t="s">
-        <v>57</v>
+      <c r="U82" s="16" t="n">
+        <v>20431152</v>
       </c>
       <c r="V82" s="16" t="n">
-        <v>20431152</v>
+        <v>26285153</v>
       </c>
       <c r="W82" s="16" t="n">
-        <v>26285153</v>
+        <v>32852138</v>
       </c>
       <c r="X82" s="16" t="n">
-        <v>32852138</v>
+        <v>40642486</v>
       </c>
       <c r="Y82" s="16" t="n">
-        <v>40642486</v>
+        <v>52675831</v>
       </c>
       <c r="Z82" s="16" t="n">
-        <v>52675831</v>
+        <v>68615031</v>
       </c>
       <c r="AA82" s="16" t="n">
-        <v>68615031</v>
+        <v>77822925</v>
       </c>
       <c r="AB82" s="16" t="n">
-        <v>77822925</v>
+        <v>76835860</v>
       </c>
       <c r="AC82" s="16" t="n">
-        <v>76835860</v>
+        <v>72209630</v>
       </c>
       <c r="AD82" s="16" t="n">
-        <v>72209630</v>
+        <v>67326329</v>
       </c>
       <c r="AE82" s="16" t="n">
-        <v>67326329</v>
+        <v>67463596</v>
       </c>
       <c r="AF82" s="16" t="n">
-        <v>67463596</v>
+        <v>63396222</v>
       </c>
       <c r="AG82" s="16" t="n">
-        <v>63396222</v>
+        <v>62448068</v>
       </c>
       <c r="AH82" s="16" t="n">
-        <v>62448068</v>
+        <v>71393102</v>
       </c>
       <c r="AI82" s="16" t="n">
-        <v>71393102</v>
+        <v>75944379</v>
       </c>
       <c r="AJ82" s="16" t="n">
-        <v>75944379</v>
+        <v>90216342</v>
       </c>
       <c r="AK82" s="16" t="n">
-        <v>90216342</v>
+        <v>90682870</v>
       </c>
       <c r="AL82" s="16" t="n">
-        <v>90682870</v>
-      </c>
-      <c r="AM82" s="16" t="n">
         <v>85128495</v>
+      </c>
+      <c r="AM82" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AN82" s="16" t="s">
         <v>57</v>
@@ -12762,62 +12762,62 @@
       <c r="T83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U83" s="13" t="s">
-        <v>57</v>
+      <c r="U83" s="13" t="n">
+        <v>26581753</v>
       </c>
       <c r="V83" s="13" t="n">
-        <v>26581753</v>
+        <v>28712225</v>
       </c>
       <c r="W83" s="13" t="n">
-        <v>28712225</v>
+        <v>40621428</v>
       </c>
       <c r="X83" s="13" t="n">
-        <v>40621428</v>
+        <v>49384344</v>
       </c>
       <c r="Y83" s="13" t="n">
-        <v>49384344</v>
+        <v>56441106</v>
       </c>
       <c r="Z83" s="13" t="n">
-        <v>56441106</v>
+        <v>71337700</v>
       </c>
       <c r="AA83" s="13" t="n">
-        <v>71337700</v>
+        <v>85126785</v>
       </c>
       <c r="AB83" s="13" t="n">
-        <v>85126785</v>
+        <v>72055972</v>
       </c>
       <c r="AC83" s="13" t="n">
-        <v>72055972</v>
+        <v>72522861</v>
       </c>
       <c r="AD83" s="13" t="n">
-        <v>72522861</v>
+        <v>70650641</v>
       </c>
       <c r="AE83" s="13" t="n">
-        <v>70650641</v>
+        <v>68540090</v>
       </c>
       <c r="AF83" s="13" t="n">
-        <v>68540090</v>
+        <v>67638711</v>
       </c>
       <c r="AG83" s="13" t="n">
-        <v>67638711</v>
+        <v>67700172</v>
       </c>
       <c r="AH83" s="13" t="n">
-        <v>67700172</v>
+        <v>72519334</v>
       </c>
       <c r="AI83" s="13" t="n">
-        <v>72519334</v>
+        <v>76082783</v>
       </c>
       <c r="AJ83" s="13" t="n">
-        <v>76082783</v>
+        <v>106280625</v>
       </c>
       <c r="AK83" s="13" t="n">
-        <v>106280625</v>
+        <v>89781628</v>
       </c>
       <c r="AL83" s="13" t="n">
-        <v>89781628</v>
-      </c>
-      <c r="AM83" s="13" t="n">
         <v>77190047</v>
+      </c>
+      <c r="AM83" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN83" s="13" t="s">
         <v>57</v>
@@ -12921,62 +12921,62 @@
       <c r="T84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U84" s="16" t="s">
-        <v>57</v>
+      <c r="U84" s="16" t="n">
+        <v>32051500</v>
       </c>
       <c r="V84" s="16" t="n">
-        <v>32051500</v>
+        <v>32594238</v>
       </c>
       <c r="W84" s="16" t="n">
-        <v>32594238</v>
+        <v>39724161</v>
       </c>
       <c r="X84" s="16" t="n">
-        <v>39724161</v>
+        <v>60528356</v>
       </c>
       <c r="Y84" s="16" t="n">
-        <v>60528356</v>
+        <v>60125701</v>
       </c>
       <c r="Z84" s="16" t="n">
-        <v>60125701</v>
+        <v>86215311</v>
       </c>
       <c r="AA84" s="16" t="n">
-        <v>86215311</v>
+        <v>83286411</v>
       </c>
       <c r="AB84" s="16" t="n">
-        <v>83286411</v>
+        <v>140699453</v>
       </c>
       <c r="AC84" s="16" t="n">
-        <v>140699453</v>
+        <v>176592577</v>
       </c>
       <c r="AD84" s="16" t="n">
-        <v>176592577</v>
+        <v>204859002</v>
       </c>
       <c r="AE84" s="16" t="n">
-        <v>204859002</v>
+        <v>173206849</v>
       </c>
       <c r="AF84" s="16" t="n">
-        <v>173206849</v>
+        <v>183614155</v>
       </c>
       <c r="AG84" s="16" t="n">
-        <v>183614155</v>
+        <v>175189681</v>
       </c>
       <c r="AH84" s="16" t="n">
-        <v>175189681</v>
+        <v>210850962</v>
       </c>
       <c r="AI84" s="16" t="n">
-        <v>210850962</v>
+        <v>193233896</v>
       </c>
       <c r="AJ84" s="16" t="n">
-        <v>193233896</v>
+        <v>179582702</v>
       </c>
       <c r="AK84" s="16" t="n">
-        <v>179582702</v>
+        <v>274472086</v>
       </c>
       <c r="AL84" s="16" t="n">
-        <v>274472086</v>
-      </c>
-      <c r="AM84" s="16" t="n">
         <v>265461150</v>
+      </c>
+      <c r="AM84" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AN84" s="16" t="s">
         <v>57</v>
@@ -13107,80 +13107,80 @@
       <c r="AC85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD85" s="13" t="s">
-        <v>57</v>
+      <c r="AD85" s="13" t="n">
+        <v>8542394</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>8542394</v>
+        <v>5664041</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>5664041</v>
+        <v>6518583</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>6518583</v>
+        <v>7049071</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>7049071</v>
+        <v>6391902</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>6391902</v>
+        <v>7827133</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>7827133</v>
+        <v>8214167</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>8214167</v>
+        <v>135000000</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>135000000</v>
+        <v>11600711</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>11600711</v>
+        <v>11307991</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>11307991</v>
+        <v>12974115</v>
       </c>
       <c r="AO85" s="13" t="n">
-        <v>12974115</v>
+        <v>14359050</v>
       </c>
       <c r="AP85" s="13" t="n">
-        <v>14359050</v>
+        <v>13077541</v>
       </c>
       <c r="AQ85" s="13" t="n">
-        <v>13077541</v>
+        <v>6290394</v>
       </c>
       <c r="AR85" s="13" t="n">
-        <v>6290394</v>
+        <v>3550725</v>
       </c>
       <c r="AS85" s="13" t="n">
-        <v>3550725</v>
+        <v>21964784</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>21964784</v>
+        <v>6311205</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>6311205</v>
+        <v>5344554</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>5344554</v>
+        <v>7744200</v>
       </c>
       <c r="AW85" s="13" t="n">
-        <v>7744200</v>
+        <v>11440622</v>
       </c>
       <c r="AX85" s="13" t="n">
-        <v>11440622</v>
+        <v>6923313</v>
       </c>
       <c r="AY85" s="13" t="n">
-        <v>6923313</v>
+        <v>16864035</v>
       </c>
       <c r="AZ85" s="13" t="n">
-        <v>16864035</v>
+        <v>18533881</v>
       </c>
       <c r="BA85" s="13" t="n">
-        <v>18533881</v>
+        <v>5204452</v>
       </c>
       <c r="BB85" s="13" t="n">
-        <v>5204452</v>
+        <v>5887250</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13230,17 +13230,17 @@
       <c r="Q86" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R86" s="16" t="s">
-        <v>57</v>
+      <c r="R86" s="16" t="n">
+        <v>22300667</v>
       </c>
       <c r="S86" s="16" t="n">
-        <v>22300667</v>
+        <v>18907869</v>
       </c>
       <c r="T86" s="16" t="n">
-        <v>18907869</v>
-      </c>
-      <c r="U86" s="16" t="n">
         <v>20350299</v>
+      </c>
+      <c r="U86" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V86" s="16" t="s">
         <v>57</v>
@@ -13389,17 +13389,17 @@
       <c r="Q87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R87" s="13" t="s">
-        <v>57</v>
+      <c r="R87" s="13" t="n">
+        <v>52667197</v>
       </c>
       <c r="S87" s="13" t="n">
-        <v>52667197</v>
+        <v>32552382</v>
       </c>
       <c r="T87" s="13" t="n">
-        <v>32552382</v>
-      </c>
-      <c r="U87" s="13" t="n">
         <v>39030516</v>
+      </c>
+      <c r="U87" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V87" s="13" t="s">
         <v>57</v>
